--- a/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 09_15_2019.xlsx
+++ b/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 09_15_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jameson.newtson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\SD_County_LowFlow\0 - Field Data Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="3" state="veryHidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$P$593</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$P$674</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2270,7 +2270,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,33 +2613,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H598" sqref="H598"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D378" sqref="D378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43588.755538854166</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43588.760185335646</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43588.762669606484</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>43591.435261481485</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>43591.44535303241</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>43591.464841817127</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43591.470591574078</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43591.472597476852</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43591.479208553239</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43591.485304733797</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43591.492769594908</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43591.502019652777</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43591.512494085648</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43591.521164178237</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43591.527513136578</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43591.537957824075</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>43591.548731967589</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>43591.560089768522</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>43591.572355104166</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>43591.577724270828</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>43591.58141392361</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>43591.583598541663</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>43591.6724153588</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>43591.674202650465</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>43591.704277094905</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>43591.755216921301</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>43591.757524560184</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>43591.775486631945</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>43591.776427210643</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>43592.481644421292</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>43592.482017627313</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43592.50501202546</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>43592.532280358791</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>43592.545401550931</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43592.637291597217</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>43592.563986909721</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>43592.580991099538</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>43592.581140219903</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>43592.640366712963</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>43592.657211875005</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>43592.681611643522</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>43592.691540694446</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43592.702423842595</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>43593.43748443287</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>43593.44123866898</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>43593.460052071758</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>43593.476238275463</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>43593.518983738424</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>43593.527186284722</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>43593.548600451388</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>43593.553772789353</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>43593.598725358795</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>43593.610852187499</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>43593.612856157408</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>7580</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>43593.617690162035</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>43593.618488009262</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>43593.619830208336</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>43593.656584456017</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>43593.658092847225</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>43593.660192870375</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>43593.6652215625</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>43593.691000405088</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>43594.407145740741</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>43594.410411932869</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>43594.419389386574</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>43594.424918101853</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>43594.431594340276</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>43594.432673472227</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>43594.435762604167</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>43594.444414444442</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>43594.445713379631</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>43594.461393437501</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>43594.467428356482</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>43594.491857604167</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>43594.514163171298</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>43594.530017488425</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>43594.584730694449</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>43594.611498634258</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>43594.624838090276</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>43594.648807557867</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>43594.653585208333</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>43594.667883368056</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>43594.676933946757</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>43594.68904351852</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>3890</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>43594.893515358795</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>43594.895805115739</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>43594.896885995375</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>43594.89877886574</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>43594.900322071757</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>43594.901593657407</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>43594.903644548613</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>43594.905283796295</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>43594.907106331018</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>43594.908273356486</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>43594.909638333338</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>43594.91069650463</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>43594.912148344913</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>43594.913895949074</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>43595.442240902776</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>43595.448872152774</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>43595.470052662036</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>43595.470242951385</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>43595.472295949075</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>43595.474870532409</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>43595.481380717596</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>7030</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>43595.490416296292</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>43595.500877777777</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>43595.509428749996</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>43595.513097534727</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>43595.516432615739</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>43595.524782893517</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>43595.537118668981</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>43595.554605081023</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>43595.554936168977</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>43595.556602696757</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>43595.5592850463</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>43595.568305081018</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>43595.569374467595</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>43595.586062511575</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>43595.587130358792</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>43595.588972465281</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>43595.590072256949</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>43595.594992129627</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>43595.619344803243</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>43595.663596446757</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>43595.682554699073</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>43595.689118402777</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>43595.691901261569</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>43595.693264699075</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>43595.707292939813</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>43595.708949965279</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>43595.711790578702</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>43595.725159085647</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>43598.523171504625</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>43598.531430370371</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>43598.538723784717</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>43598.55321135417</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="139" spans="1:15" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>43598.558324872683</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>43598.568272129633</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>43598.660832187496</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="142" spans="1:15" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>43598.669797893519</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>43599.412810810187</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>43599.427670717589</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>43599.433456574072</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>43599.459267349535</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>43599.470011574071</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>43599.485035810183</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>43599.500831736106</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>43599.518437384264</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>43599.539609108797</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>43599.569834490743</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:15" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
         <v>43599.624617476853</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:15" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>43599.639232141199</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>43599.738793206023</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="156" spans="1:15" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>43600.422265266199</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>43600.482206006942</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>43600.493555451394</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>43600.498960439814</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>43600.528849884256</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>43600.601932974532</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>43600.638289583338</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>43600.686218657407</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>9850</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>43600.725389861109</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>43601.407068912042</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>43601.40923740741</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>43601.414449374999</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>43601.415471493056</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>43601.417819421295</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>43601.419731273148</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>43601.427588611114</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>43602.442062349539</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>43602.451806273151</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>43602.47989505787</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>43602.489967141199</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>43602.509337268522</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>43602.522517500001</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>43606.707793877315</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>43606.723546145833</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>43608.481453252316</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>43608.482445162037</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>8050</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>43608.483487696758</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>43608.526771817131</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>43619.387044270828</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>43619.417066539347</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>43619.424325891203</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>43619.430370590278</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>43619.448148344905</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>43619.449386782406</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>43619.457925891205</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>43619.481042361112</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>43619.482240219906</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>43619.485708449072</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>43619.502512523148</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>43619.50333712963</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>43619.512569479164</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>43619.559027557872</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>43619.560911979162</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>43619.580106157402</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>43619.586162476851</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>43619.593100185186</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>43619.603138240738</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>43619.624149479168</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>43619.636075578703</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>43619.657319212958</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>43619.669281388888</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>43619.683368090278</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>43620.42668315972</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>43620.433715914347</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>43620.449795451394</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>43620.468617280094</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>43620.486011516201</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>43620.487928645831</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>43620.488378425929</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>43620.488762453708</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>43620.502757766204</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>43620.503008993051</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>43620.516394976847</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>43620.531383842594</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>43620.534318229169</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>43620.53862825231</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>43620.544621446759</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>43620.559045000002</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>43620.562107916667</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>43620.57524528935</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>43620.57848960648</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>43620.589187465273</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>43620.646162557867</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>43620.686772013883</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>43623.521720659723</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="231" spans="1:15" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" s="22" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="18">
         <v>43623.522309618056</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>43633.40398304398</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>43633.416756932871</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>43633.420208194446</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>14250</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>43633.428534791667</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>43633.4461915625</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>43633.46175555556</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>43633.50244113426</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>43633.504802060183</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>43633.523931469907</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>43633.530496736115</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>43633.533061898153</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>43633.539491469906</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>43633.543584953703</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>43633.547313564814</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>43633.551025127315</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>43633.562344479171</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>43633.590683958333</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>43633.581785532406</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>43633.625512199069</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>43633.627015150458</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>43633.63865868056</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>43633.660197569443</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>43633.689922777776</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>43634.393672152779</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>43634.396875138889</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>43634.405545023154</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>43634.416232280091</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>43634.420364861115</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>43634.424504351853</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>43634.427363206021</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>43634.437920937504</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>7250</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>43634.446620960647</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>43634.454626250001</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>43634.456643518519</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>43634.458449259255</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>43634.469420011577</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>43634.472232048611</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>43634.478026145836</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>43634.478377719905</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>43634.486881469908</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>43634.488325983795</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>43634.496477800931</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>43634.500037627316</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>43634.503317557872</v>
       </c>
@@ -11934,7 +11934,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>43634.5105887963</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>43634.51392675926</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>43634.530469999998</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>43634.56578636574</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>43634.579063877318</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>43634.582968854171</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>43634.633482164354</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>43637.422400451389</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>43641.40604130787</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>43641.415160428238</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>43641.438067060182</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>43641.454948587962</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>43641.468790266204</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>43641.543771076387</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>43641.555053761578</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>43641.635631805555</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>43641.647440000001</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>43641.6602040625</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>43641.689663888887</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>43641.701291400459</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="296" spans="1:17" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17" s="22" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="18">
         <v>43641.717524178239</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>43647.378567395834</v>
       </c>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="Q297" s="5"/>
     </row>
-    <row r="298" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>43647.39412060185</v>
       </c>
@@ -12774,7 +12774,7 @@
       </c>
       <c r="Q298" s="5"/>
     </row>
-    <row r="299" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>43647.403549803239</v>
       </c>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="Q299" s="5"/>
     </row>
-    <row r="300" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>43647.418112916668</v>
       </c>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="Q300" s="5"/>
     </row>
-    <row r="301" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>43647.437997430556</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>43647.442859641204</v>
       </c>
@@ -12905,7 +12905,7 @@
       </c>
       <c r="Q302" s="5"/>
     </row>
-    <row r="303" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>43647.44526699074</v>
       </c>
@@ -12938,7 +12938,7 @@
       </c>
       <c r="Q303" s="5"/>
     </row>
-    <row r="304" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>43647.445862928245</v>
       </c>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="Q304" s="5"/>
     </row>
-    <row r="305" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>43647.452365173609</v>
       </c>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="Q305" s="5"/>
     </row>
-    <row r="306" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>43647.46204752315</v>
       </c>
@@ -13037,7 +13037,7 @@
       </c>
       <c r="Q306" s="5"/>
     </row>
-    <row r="307" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>43647.47148359954</v>
       </c>
@@ -13070,7 +13070,7 @@
       </c>
       <c r="Q307" s="5"/>
     </row>
-    <row r="308" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>43647.475172638893</v>
       </c>
@@ -13103,7 +13103,7 @@
       </c>
       <c r="Q308" s="5"/>
     </row>
-    <row r="309" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>43647.482570231485</v>
       </c>
@@ -13136,7 +13136,7 @@
       </c>
       <c r="Q309" s="5"/>
     </row>
-    <row r="310" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>43647.489491956017</v>
       </c>
@@ -13169,7 +13169,7 @@
       </c>
       <c r="Q310" s="5"/>
     </row>
-    <row r="311" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>43647.495944016206</v>
       </c>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="Q311" s="5"/>
     </row>
-    <row r="312" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <v>43647.496494571758</v>
       </c>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="Q312" s="5"/>
     </row>
-    <row r="313" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
         <v>43647.5053858912</v>
       </c>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="Q313" s="5"/>
     </row>
-    <row r="314" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
         <v>43647.512554305555</v>
       </c>
@@ -13304,7 +13304,7 @@
       </c>
       <c r="Q314" s="5"/>
     </row>
-    <row r="315" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>43647.513685578699</v>
       </c>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="Q315" s="5"/>
     </row>
-    <row r="316" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>43647.518523483799</v>
       </c>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="Q316" s="5"/>
     </row>
-    <row r="317" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
         <v>43647.519861805558</v>
       </c>
@@ -13406,7 +13406,7 @@
       </c>
       <c r="Q317" s="5"/>
     </row>
-    <row r="318" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
         <v>43647.535344895834</v>
       </c>
@@ -13439,7 +13439,7 @@
       </c>
       <c r="Q318" s="5"/>
     </row>
-    <row r="319" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
         <v>43647.537166388887</v>
       </c>
@@ -13472,7 +13472,7 @@
       </c>
       <c r="Q319" s="5"/>
     </row>
-    <row r="320" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
         <v>43647.538050277777</v>
       </c>
@@ -13505,7 +13505,7 @@
       </c>
       <c r="Q320" s="5"/>
     </row>
-    <row r="321" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
         <v>43647.540616631944</v>
       </c>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="Q321" s="5"/>
     </row>
-    <row r="322" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
         <v>43647.54435773148</v>
       </c>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="Q322" s="5"/>
     </row>
-    <row r="323" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
         <v>43647.547887106484</v>
       </c>
@@ -13604,7 +13604,7 @@
       </c>
       <c r="Q323" s="5"/>
     </row>
-    <row r="324" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
         <v>43647.551679976852</v>
       </c>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="Q324" s="5"/>
     </row>
-    <row r="325" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>43647.55485487268</v>
       </c>
@@ -13670,7 +13670,7 @@
       </c>
       <c r="Q325" s="5"/>
     </row>
-    <row r="326" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>43647.586594768523</v>
       </c>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="Q326" s="5"/>
     </row>
-    <row r="327" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
         <v>43647.578063356486</v>
       </c>
@@ -13739,7 +13739,7 @@
       </c>
       <c r="Q327" s="5"/>
     </row>
-    <row r="328" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
         <v>43647.581616527779</v>
       </c>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="Q328" s="5"/>
     </row>
-    <row r="329" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
         <v>43647.586999560182</v>
       </c>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="Q329" s="5"/>
     </row>
-    <row r="330" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
         <v>43647.587708356485</v>
       </c>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="Q330" s="5"/>
     </row>
-    <row r="331" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>43647.58930334491</v>
       </c>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="Q331" s="5"/>
     </row>
-    <row r="332" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
         <v>43647.614860520829</v>
       </c>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="Q332" s="5"/>
     </row>
-    <row r="333" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
         <v>43647.616616493055</v>
       </c>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="Q333" s="5"/>
     </row>
-    <row r="334" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
         <v>43647.628458217594</v>
       </c>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="Q334" s="5"/>
     </row>
-    <row r="335" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
         <v>43647.648176006944</v>
       </c>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="Q335" s="5"/>
     </row>
-    <row r="336" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
         <v>43647.652004189818</v>
       </c>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="Q336" s="5"/>
     </row>
-    <row r="337" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
         <v>43647.663755868052</v>
       </c>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="Q337" s="5"/>
     </row>
-    <row r="338" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
         <v>43648.434577314816</v>
       </c>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="Q338" s="5"/>
     </row>
-    <row r="339" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
         <v>43648.464827615739</v>
       </c>
@@ -14138,7 +14138,7 @@
       </c>
       <c r="Q339" s="5"/>
     </row>
-    <row r="340" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
         <v>43648.49087303241</v>
       </c>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="Q340" s="5"/>
     </row>
-    <row r="341" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
         <v>43648.505817361111</v>
       </c>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="Q341" s="5"/>
     </row>
-    <row r="342" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
         <v>43648.523454918977</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>43648</v>
       </c>
       <c r="D342" s="9">
-        <v>2.0833333335758653E-2</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>67</v>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="Q342" s="5"/>
     </row>
-    <row r="343" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
         <v>43648.535805590276</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="344" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
         <v>43648.557352407406</v>
       </c>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="Q344" s="5"/>
     </row>
-    <row r="345" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
         <v>43648.574154016205</v>
       </c>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="Q345" s="5"/>
     </row>
-    <row r="346" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
         <v>43648.597286747681</v>
       </c>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="Q346" s="5"/>
     </row>
-    <row r="347" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
         <v>43648.600304039355</v>
       </c>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="Q347" s="5"/>
     </row>
-    <row r="348" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
         <v>43648.61853983796</v>
       </c>
@@ -14428,7 +14428,7 @@
       </c>
       <c r="Q348" s="5"/>
     </row>
-    <row r="349" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
         <v>43657.492113460648</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
         <v>43657.493938182874</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="25">
         <v>43661.402646550923</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="352" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="25">
         <v>43661.407537430554</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>32.43</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="25">
         <v>43661.419768958338</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="25">
         <v>43661.427344340278</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="25">
         <v>43661.429183032407</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="25">
         <v>43661.441045312502</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>5957</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="25">
         <v>43661.454036006944</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="25">
         <v>43661.463808819448</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="25">
         <v>43661.465437303239</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="25">
         <v>43661.470525659723</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="25">
         <v>43661.475225057875</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="25">
         <v>43661.488394363427</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="25">
         <v>43661.49257905093</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="25">
         <v>43661.496228148149</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="25">
         <v>43661.502193263892</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="25">
         <v>43661.52084143518</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="25">
         <v>43661.539627453705</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="25">
         <v>43661.544727465276</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="25">
         <v>43661.571753194439</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="25">
         <v>43661.575824953703</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="25">
         <v>43661.595967152782</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="25">
         <v>43662.505582557875</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="25">
         <v>43662.403231944445</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="25">
         <v>43662.417311712961</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="25">
         <v>43662.423942743058</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="25">
         <v>43662.43173575231</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="25">
         <v>43662.438895104162</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="25">
         <v>43662.457425300927</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="25">
         <v>43662.470728321758</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="25">
         <v>43662.481005601847</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="25">
         <v>43662.503588680556</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="25">
         <v>43662.508576585649</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="25">
         <v>43662.515664699073</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="25">
         <v>43662.523681469909</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="25">
         <v>43662.524749976852</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="25">
         <v>43662.526702222225</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="25">
         <v>43662.528149259262</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="25">
         <v>43662.530195763888</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="25">
         <v>43662.533871203705</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="25">
         <v>43662.534038217593</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="25">
         <v>43662.552655601852</v>
       </c>
@@ -15775,7 +15775,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="25">
         <v>43662.553831041667</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="25">
         <v>43662.553892222219</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="25">
         <v>43662.576265393523</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="25">
         <v>43662.605140277781</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="25">
         <v>43662.608947546294</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="25">
         <v>43662.630076076384</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="25">
         <v>43662.638398935189</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="25">
         <v>43662.651400266201</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="25">
         <v>43662.653115231486</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="25">
         <v>43662.868660763888</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="25">
         <v>43665.537839201388</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="25">
         <v>43665.538775069443</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="25">
         <v>43665.565719756945</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="25">
         <v>43665.602270196759</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="406" spans="1:23" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" s="34" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="30">
         <v>43665.620232199071</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="35">
         <v>43676.683530092596</v>
       </c>
@@ -16251,7 +16251,7 @@
       <c r="V407" s="36"/>
       <c r="W407" s="36"/>
     </row>
-    <row r="408" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="35">
         <v>43677.336412037039</v>
       </c>
@@ -16294,7 +16294,7 @@
       <c r="V408" s="36"/>
       <c r="W408" s="36"/>
     </row>
-    <row r="409" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="35">
         <v>43677.349629629629</v>
       </c>
@@ -16337,7 +16337,7 @@
       <c r="V409" s="36"/>
       <c r="W409" s="36"/>
     </row>
-    <row r="410" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="35">
         <v>43677.356956018521</v>
       </c>
@@ -16380,7 +16380,7 @@
       <c r="V410" s="36"/>
       <c r="W410" s="36"/>
     </row>
-    <row r="411" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="35">
         <v>43677.370138888888</v>
       </c>
@@ -16423,7 +16423,7 @@
       <c r="V411" s="36"/>
       <c r="W411" s="36"/>
     </row>
-    <row r="412" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="35">
         <v>43677.411805555559</v>
       </c>
@@ -16462,7 +16462,7 @@
       <c r="V412" s="36"/>
       <c r="W412" s="36"/>
     </row>
-    <row r="413" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="35">
         <v>43677.412245370368</v>
       </c>
@@ -16505,7 +16505,7 @@
       <c r="V413" s="36"/>
       <c r="W413" s="36"/>
     </row>
-    <row r="414" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="35">
         <v>43677.417326388888</v>
       </c>
@@ -16548,7 +16548,7 @@
       <c r="V414" s="36"/>
       <c r="W414" s="36"/>
     </row>
-    <row r="415" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="35">
         <v>43677.418229166666</v>
       </c>
@@ -16591,7 +16591,7 @@
       <c r="V415" s="36"/>
       <c r="W415" s="36"/>
     </row>
-    <row r="416" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="35">
         <v>43677.419004629628</v>
       </c>
@@ -16636,7 +16636,7 @@
       <c r="V416" s="36"/>
       <c r="W416" s="36"/>
     </row>
-    <row r="417" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="35">
         <v>43677.428067129629</v>
       </c>
@@ -16681,7 +16681,7 @@
       <c r="V417" s="36"/>
       <c r="W417" s="36"/>
     </row>
-    <row r="418" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="35">
         <v>43677.428483796299</v>
       </c>
@@ -16726,7 +16726,7 @@
       <c r="V418" s="36"/>
       <c r="W418" s="36"/>
     </row>
-    <row r="419" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="35">
         <v>43677.430266203701</v>
       </c>
@@ -16769,7 +16769,7 @@
       <c r="V419" s="36"/>
       <c r="W419" s="36"/>
     </row>
-    <row r="420" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="35">
         <v>43677.437337962961</v>
       </c>
@@ -16814,7 +16814,7 @@
       <c r="V420" s="36"/>
       <c r="W420" s="36"/>
     </row>
-    <row r="421" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="35">
         <v>43677.448240740741</v>
       </c>
@@ -16859,7 +16859,7 @@
       <c r="V421" s="36"/>
       <c r="W421" s="36"/>
     </row>
-    <row r="422" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="35">
         <v>43677.465532407405</v>
       </c>
@@ -16904,7 +16904,7 @@
       <c r="V422" s="36"/>
       <c r="W422" s="36"/>
     </row>
-    <row r="423" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="35">
         <v>43677.49422453704</v>
       </c>
@@ -16943,7 +16943,7 @@
       <c r="V423" s="36"/>
       <c r="W423" s="36"/>
     </row>
-    <row r="424" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="35">
         <v>43677.491331018522</v>
       </c>
@@ -16988,7 +16988,7 @@
       <c r="V424" s="36"/>
       <c r="W424" s="36"/>
     </row>
-    <row r="425" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="35">
         <v>43677.509918981479</v>
       </c>
@@ -17033,7 +17033,7 @@
       <c r="V425" s="36"/>
       <c r="W425" s="36"/>
     </row>
-    <row r="426" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="35">
         <v>43677.511956018519</v>
       </c>
@@ -17078,7 +17078,7 @@
       <c r="V426" s="36"/>
       <c r="W426" s="36"/>
     </row>
-    <row r="427" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="35">
         <v>43677.514525462961</v>
       </c>
@@ -17117,7 +17117,7 @@
       <c r="V427" s="36"/>
       <c r="W427" s="36"/>
     </row>
-    <row r="428" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="35">
         <v>43677.518958333334</v>
       </c>
@@ -17162,7 +17162,7 @@
       <c r="V428" s="36"/>
       <c r="W428" s="36"/>
     </row>
-    <row r="429" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="35">
         <v>43677.520370370374</v>
       </c>
@@ -17207,7 +17207,7 @@
       <c r="V429" s="36"/>
       <c r="W429" s="36"/>
     </row>
-    <row r="430" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="35">
         <v>43677.52925925926</v>
       </c>
@@ -17252,7 +17252,7 @@
       <c r="V430" s="36"/>
       <c r="W430" s="36"/>
     </row>
-    <row r="431" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="35">
         <v>43677.537638888891</v>
       </c>
@@ -17297,7 +17297,7 @@
       <c r="V431" s="36"/>
       <c r="W431" s="36"/>
     </row>
-    <row r="432" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="35">
         <v>43677.549780092595</v>
       </c>
@@ -17340,7 +17340,7 @@
       <c r="V432" s="36"/>
       <c r="W432" s="36"/>
     </row>
-    <row r="433" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="35">
         <v>43677.553333333337</v>
       </c>
@@ -17385,7 +17385,7 @@
       <c r="V433" s="36"/>
       <c r="W433" s="36"/>
     </row>
-    <row r="434" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="35">
         <v>43677.671620370369</v>
       </c>
@@ -17428,7 +17428,7 @@
       <c r="V434" s="36"/>
       <c r="W434" s="36"/>
     </row>
-    <row r="435" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="35">
         <v>43678.3440162037</v>
       </c>
@@ -17471,7 +17471,7 @@
       <c r="V435" s="36"/>
       <c r="W435" s="36"/>
     </row>
-    <row r="436" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="35">
         <v>43678.348865740743</v>
       </c>
@@ -17514,7 +17514,7 @@
       <c r="V436" s="36"/>
       <c r="W436" s="36"/>
     </row>
-    <row r="437" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="35">
         <v>43678.354548611111</v>
       </c>
@@ -17557,7 +17557,7 @@
       <c r="V437" s="36"/>
       <c r="W437" s="36"/>
     </row>
-    <row r="438" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="35">
         <v>43678.363217592596</v>
       </c>
@@ -17600,7 +17600,7 @@
       <c r="V438" s="36"/>
       <c r="W438" s="36"/>
     </row>
-    <row r="439" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="35">
         <v>43678.372650462959</v>
       </c>
@@ -17643,7 +17643,7 @@
       <c r="V439" s="36"/>
       <c r="W439" s="36"/>
     </row>
-    <row r="440" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="35">
         <v>43678.375023148146</v>
       </c>
@@ -17686,7 +17686,7 @@
       <c r="V440" s="36"/>
       <c r="W440" s="36"/>
     </row>
-    <row r="441" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="35">
         <v>43678.389131944445</v>
       </c>
@@ -17729,7 +17729,7 @@
       <c r="V441" s="36"/>
       <c r="W441" s="36"/>
     </row>
-    <row r="442" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="35">
         <v>43678.390729166669</v>
       </c>
@@ -17772,7 +17772,7 @@
       <c r="V442" s="36"/>
       <c r="W442" s="36"/>
     </row>
-    <row r="443" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="35">
         <v>43678.404270833336</v>
       </c>
@@ -17815,7 +17815,7 @@
       <c r="V443" s="36"/>
       <c r="W443" s="36"/>
     </row>
-    <row r="444" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="35">
         <v>43678.408738425926</v>
       </c>
@@ -17860,7 +17860,7 @@
       <c r="V444" s="36"/>
       <c r="W444" s="36"/>
     </row>
-    <row r="445" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="35">
         <v>43678.415671296294</v>
       </c>
@@ -17905,7 +17905,7 @@
       <c r="V445" s="36"/>
       <c r="W445" s="36"/>
     </row>
-    <row r="446" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="35">
         <v>43678.425798611112</v>
       </c>
@@ -17950,7 +17950,7 @@
       <c r="V446" s="36"/>
       <c r="W446" s="36"/>
     </row>
-    <row r="447" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="35">
         <v>43678.438703703701</v>
       </c>
@@ -17995,7 +17995,7 @@
       <c r="V447" s="36"/>
       <c r="W447" s="36"/>
     </row>
-    <row r="448" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="35">
         <v>43678.447800925926</v>
       </c>
@@ -18040,7 +18040,7 @@
       <c r="V448" s="36"/>
       <c r="W448" s="36"/>
     </row>
-    <row r="449" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="35">
         <v>43678.504062499997</v>
       </c>
@@ -18085,7 +18085,7 @@
       <c r="V449" s="36"/>
       <c r="W449" s="36"/>
     </row>
-    <row r="450" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="35">
         <v>43678.518854166665</v>
       </c>
@@ -18130,7 +18130,7 @@
       <c r="V450" s="36"/>
       <c r="W450" s="36"/>
     </row>
-    <row r="451" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="35">
         <v>43678.522696759261</v>
       </c>
@@ -18175,7 +18175,7 @@
       <c r="V451" s="36"/>
       <c r="W451" s="36"/>
     </row>
-    <row r="452" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="35">
         <v>43678.557997685188</v>
       </c>
@@ -18220,7 +18220,7 @@
       <c r="V452" s="36"/>
       <c r="W452" s="36"/>
     </row>
-    <row r="453" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="35">
         <v>43678.558668981481</v>
       </c>
@@ -18265,7 +18265,7 @@
       <c r="V453" s="36"/>
       <c r="W453" s="36"/>
     </row>
-    <row r="454" spans="1:23" s="34" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" s="34" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="42">
         <v>43678.562905092593</v>
       </c>
@@ -18310,7 +18310,7 @@
       <c r="V454" s="43"/>
       <c r="W454" s="43"/>
     </row>
-    <row r="455" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="50">
         <v>43682.777913518519</v>
       </c>
@@ -18342,7 +18342,7 @@
       </c>
       <c r="L455" s="47"/>
     </row>
-    <row r="456" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="50">
         <v>43682.778779560183</v>
       </c>
@@ -18370,7 +18370,7 @@
       <c r="K456" s="47"/>
       <c r="L456" s="47"/>
     </row>
-    <row r="457" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="50">
         <v>43682.779449768517</v>
       </c>
@@ -18398,7 +18398,7 @@
       <c r="K457" s="47"/>
       <c r="L457" s="47"/>
     </row>
-    <row r="458" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="50">
         <v>43690.599835092595</v>
       </c>
@@ -18426,7 +18426,7 @@
       <c r="K458" s="47"/>
       <c r="L458" s="47"/>
     </row>
-    <row r="459" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="50">
         <v>43691.339949675923</v>
       </c>
@@ -18460,7 +18460,7 @@
       </c>
       <c r="L459" s="47"/>
     </row>
-    <row r="460" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="50">
         <v>43691.373331574076</v>
       </c>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="L460" s="47"/>
     </row>
-    <row r="461" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="50">
         <v>43691.394918078702</v>
       </c>
@@ -18524,7 +18524,7 @@
       </c>
       <c r="L461" s="47"/>
     </row>
-    <row r="462" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="50">
         <v>43691.39618851852</v>
       </c>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="L462" s="47"/>
     </row>
-    <row r="463" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="50">
         <v>43691.424711944448</v>
       </c>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="L463" s="47"/>
     </row>
-    <row r="464" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="50">
         <v>43691.489826134261</v>
       </c>
@@ -18620,7 +18620,7 @@
       </c>
       <c r="L464" s="47"/>
     </row>
-    <row r="465" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="50">
         <v>43691.506360104162</v>
       </c>
@@ -18652,7 +18652,7 @@
       </c>
       <c r="L465" s="47"/>
     </row>
-    <row r="466" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="50">
         <v>43691.514293182874</v>
       </c>
@@ -18684,7 +18684,7 @@
       </c>
       <c r="L466" s="47"/>
     </row>
-    <row r="467" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="50">
         <v>43691.51881627315</v>
       </c>
@@ -18716,7 +18716,7 @@
       </c>
       <c r="L467" s="47"/>
     </row>
-    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="50">
         <v>43691.596439664354</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="50">
         <v>43691.597206006947</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="50">
         <v>43691.5980102662</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>21.76</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="50">
         <v>43691.598903634258</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="50">
         <v>43691.600111724532</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="50">
         <v>43691.601184791667</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="50">
         <v>43691.602001550928</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="50">
         <v>43691.603076168976</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="50">
         <v>43691.604055567128</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="50">
         <v>43691.60501457176</v>
       </c>
@@ -19056,7 +19056,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="50">
         <v>43691.605919074078</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="50">
         <v>43692.367938946758</v>
       </c>
@@ -19116,7 +19116,7 @@
       <c r="K479" s="47"/>
       <c r="L479" s="47"/>
     </row>
-    <row r="480" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="50">
         <v>43692.372533090282</v>
       </c>
@@ -19148,7 +19148,7 @@
       </c>
       <c r="L480" s="47"/>
     </row>
-    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="50">
         <v>43692.377542754628</v>
       </c>
@@ -19182,7 +19182,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="50">
         <v>43692.379023622685</v>
       </c>
@@ -19214,7 +19214,7 @@
       <c r="K482" s="47"/>
       <c r="L482" s="47"/>
     </row>
-    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="50">
         <v>43692.380487881943</v>
       </c>
@@ -19246,7 +19246,7 @@
       </c>
       <c r="L483" s="47"/>
     </row>
-    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="50">
         <v>43692.3812071875</v>
       </c>
@@ -19278,7 +19278,7 @@
       </c>
       <c r="L484" s="47"/>
     </row>
-    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="50">
         <v>43692.390820451386</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="50">
         <v>43692.397829791662</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="50">
         <v>43692.407183854171</v>
       </c>
@@ -19378,7 +19378,7 @@
       </c>
       <c r="L487" s="47"/>
     </row>
-    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="50">
         <v>43692.410219247686</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="50">
         <v>43692.427920914357</v>
       </c>
@@ -19444,7 +19444,7 @@
       </c>
       <c r="L489" s="47"/>
     </row>
-    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="50">
         <v>43692.42957310185</v>
       </c>
@@ -19472,7 +19472,7 @@
       <c r="K490" s="47"/>
       <c r="L490" s="47"/>
     </row>
-    <row r="491" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="50">
         <v>43692.433171793979</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="50">
         <v>43692.433813854164</v>
       </c>
@@ -19538,7 +19538,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="50">
         <v>43692.442683981484</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="494" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="50">
         <v>43692.449830659723</v>
       </c>
@@ -19604,7 +19604,7 @@
       </c>
       <c r="L494" s="47"/>
     </row>
-    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="50">
         <v>43692.451401238424</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="50">
         <v>43692.462810173616</v>
       </c>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="L496" s="47"/>
     </row>
-    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="50">
         <v>43692.461284398145</v>
       </c>
@@ -19702,7 +19702,7 @@
       </c>
       <c r="L497" s="47"/>
     </row>
-    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="50">
         <v>43692.463983391208</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="50">
         <v>43692.475208067131</v>
       </c>
@@ -19770,7 +19770,7 @@
       </c>
       <c r="L499" s="47"/>
     </row>
-    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="50">
         <v>43692.476492175927</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="50">
         <v>43692.478615173612</v>
       </c>
@@ -19836,7 +19836,7 @@
       </c>
       <c r="L501" s="47"/>
     </row>
-    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="50">
         <v>43692.528978958333</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="503" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="50">
         <v>43692.533412048608</v>
       </c>
@@ -19904,7 +19904,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="504" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="50">
         <v>43697.633825567129</v>
       </c>
@@ -19932,7 +19932,7 @@
       <c r="K504" s="47"/>
       <c r="L504" s="47"/>
     </row>
-    <row r="505" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="50">
         <v>43699.523277916669</v>
       </c>
@@ -19962,7 +19962,7 @@
       <c r="K505" s="47"/>
       <c r="L505" s="47"/>
     </row>
-    <row r="506" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="50">
         <v>43699.54147059028</v>
       </c>
@@ -19992,7 +19992,7 @@
       <c r="K506" s="47"/>
       <c r="L506" s="47"/>
     </row>
-    <row r="507" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="50">
         <v>43699.558889918982</v>
       </c>
@@ -20020,7 +20020,7 @@
       <c r="K507" s="47"/>
       <c r="L507" s="47"/>
     </row>
-    <row r="508" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="50">
         <v>43699.559643067128</v>
       </c>
@@ -20048,7 +20048,7 @@
       <c r="K508" s="47"/>
       <c r="L508" s="47"/>
     </row>
-    <row r="509" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="50">
         <v>43705.370988078706</v>
       </c>
@@ -20080,7 +20080,7 @@
       </c>
       <c r="L509" s="47"/>
     </row>
-    <row r="510" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="50">
         <v>43705.372949259261</v>
       </c>
@@ -20108,7 +20108,7 @@
       <c r="K510" s="47"/>
       <c r="L510" s="47"/>
     </row>
-    <row r="511" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="50">
         <v>43705.376371076389</v>
       </c>
@@ -20136,7 +20136,7 @@
       <c r="K511" s="47"/>
       <c r="L511" s="47"/>
     </row>
-    <row r="512" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="50">
         <v>43705.378924803241</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="513" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="50">
         <v>43705.392387824075</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="514" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="50">
         <v>43705.39862472222</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="515" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="50">
         <v>43705.408660706016</v>
       </c>
@@ -20270,7 +20270,7 @@
       </c>
       <c r="L515" s="47"/>
     </row>
-    <row r="516" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="50">
         <v>43705.411271076387</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="517" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="50">
         <v>43705.425978310188</v>
       </c>
@@ -20336,7 +20336,7 @@
       </c>
       <c r="L517" s="47"/>
     </row>
-    <row r="518" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="50">
         <v>43705.434570497688</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="519" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="50">
         <v>43705.435256539349</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="520" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="50">
         <v>43705.44299030093</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>3861</v>
       </c>
     </row>
-    <row r="521" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="50">
         <v>43705.471227407412</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="522" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="50">
         <v>43705.473228344912</v>
       </c>
@@ -20504,7 +20504,7 @@
       </c>
       <c r="L522" s="47"/>
     </row>
-    <row r="523" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="50">
         <v>43705.483661712962</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="524" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="50">
         <v>43705.501952418985</v>
       </c>
@@ -20570,7 +20570,7 @@
       </c>
       <c r="L524" s="47"/>
     </row>
-    <row r="525" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="50">
         <v>43705.509559247686</v>
       </c>
@@ -20602,7 +20602,7 @@
       </c>
       <c r="L525" s="47"/>
     </row>
-    <row r="526" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="50">
         <v>43705.530956238421</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="527" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="50">
         <v>43706.348805081019</v>
       </c>
@@ -20668,7 +20668,7 @@
       </c>
       <c r="L527" s="47"/>
     </row>
-    <row r="528" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="50">
         <v>43706.382609594904</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="529" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="50">
         <v>43706.384346469902</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="530" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="50">
         <v>43706.407752962958</v>
       </c>
@@ -20764,7 +20764,7 @@
       <c r="K530" s="47"/>
       <c r="L530" s="47"/>
     </row>
-    <row r="531" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="50">
         <v>43706.410311493055</v>
       </c>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="L531" s="47"/>
     </row>
-    <row r="532" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="50">
         <v>43706.414096319444</v>
       </c>
@@ -20830,7 +20830,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="533" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="50">
         <v>43706.430059513892</v>
       </c>
@@ -20862,7 +20862,7 @@
       </c>
       <c r="L533" s="47"/>
     </row>
-    <row r="534" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="50">
         <v>43706.430542476854</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="535" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="50">
         <v>43706.431239837962</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="536" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="50">
         <v>43706.435479664353</v>
       </c>
@@ -20962,7 +20962,7 @@
       </c>
       <c r="L536" s="47"/>
     </row>
-    <row r="537" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="50">
         <v>43706.435892986112</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="538" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="50">
         <v>43706.439350509259</v>
       </c>
@@ -21030,7 +21030,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="539" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="50">
         <v>43706.442599571761</v>
       </c>
@@ -21062,7 +21062,7 @@
       </c>
       <c r="L539" s="47"/>
     </row>
-    <row r="540" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="50">
         <v>43706.446312094908</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="541" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="50">
         <v>43706.453590034725</v>
       </c>
@@ -21128,7 +21128,7 @@
       </c>
       <c r="L541" s="47"/>
     </row>
-    <row r="542" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="50">
         <v>43706.454553599542</v>
       </c>
@@ -21162,7 +21162,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="543" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="50">
         <v>43706.457137245372</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="544" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="50">
         <v>43706.466475532405</v>
       </c>
@@ -21230,7 +21230,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="545" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="50">
         <v>43706.487083703702</v>
       </c>
@@ -21262,7 +21262,7 @@
       </c>
       <c r="L545" s="47"/>
     </row>
-    <row r="546" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="50">
         <v>43706.475523009256</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="547" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="50">
         <v>43706.492985231482</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="548" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="50">
         <v>43706.506774652778</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="50">
         <v>43706.520222777777</v>
       </c>
@@ -21398,7 +21398,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="50">
         <v>43706.538481296295</v>
       </c>
@@ -21430,7 +21430,7 @@
       </c>
       <c r="L550" s="47"/>
     </row>
-    <row r="551" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="50">
         <v>43706.55549702546</v>
       </c>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="L551" s="47"/>
     </row>
-    <row r="552" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="50">
         <v>43707.701906550923</v>
       </c>
@@ -21494,7 +21494,7 @@
       <c r="K552" s="47"/>
       <c r="L552" s="47"/>
     </row>
-    <row r="553" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="50">
         <v>43712.367468472221</v>
       </c>
@@ -21528,7 +21528,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="554" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="50">
         <v>43712.39444311343</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="555" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="50">
         <v>43712.399156678242</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="556" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="50">
         <v>43712.407757083332</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="557" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="50">
         <v>43712.409943379629</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="558" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="50">
         <v>43712.415547476849</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="559" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="50">
         <v>43712.421258125003</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="560" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="50">
         <v>43712.424563483801</v>
       </c>
@@ -21766,7 +21766,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="561" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="50">
         <v>43712.432625416666</v>
       </c>
@@ -21800,7 +21800,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="562" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="50">
         <v>43712.440652013887</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="563" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="50">
         <v>43712.451808379628</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="564" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="50">
         <v>43712.459328969911</v>
       </c>
@@ -21894,7 +21894,7 @@
       <c r="K564" s="47"/>
       <c r="L564" s="47"/>
     </row>
-    <row r="565" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="50">
         <v>43712.464040497682</v>
       </c>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="L565" s="47"/>
     </row>
-    <row r="566" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="50">
         <v>43712.47561248843</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="50">
         <v>43712.478235138886</v>
       </c>
@@ -21992,7 +21992,7 @@
       </c>
       <c r="L567" s="47"/>
     </row>
-    <row r="568" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="50">
         <v>43712.482904131946</v>
       </c>
@@ -22024,7 +22024,7 @@
       </c>
       <c r="L568" s="47"/>
     </row>
-    <row r="569" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="50">
         <v>43712.486539513891</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="570" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="50">
         <v>43712.486583101854</v>
       </c>
@@ -22086,7 +22086,7 @@
       <c r="K570" s="47"/>
       <c r="L570" s="47"/>
     </row>
-    <row r="571" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="50">
         <v>43712.518857824078</v>
       </c>
@@ -22120,7 +22120,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="50">
         <v>43712.534898750004</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="50">
         <v>43712.535281874996</v>
       </c>
@@ -22182,7 +22182,7 @@
       <c r="K573" s="47"/>
       <c r="L573" s="47"/>
     </row>
-    <row r="574" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="50">
         <v>43712.545961504627</v>
       </c>
@@ -22216,7 +22216,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="50">
         <v>43712.554804884261</v>
       </c>
@@ -22250,7 +22250,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="50">
         <v>43712.568402986115</v>
       </c>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="L576" s="47"/>
     </row>
-    <row r="577" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="50">
         <v>43712.570633854164</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="578" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="50">
         <v>43712.593498831018</v>
       </c>
@@ -22344,7 +22344,7 @@
       <c r="K578" s="47"/>
       <c r="L578" s="47"/>
     </row>
-    <row r="579" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="50">
         <v>43712.60098609954</v>
       </c>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="L579" s="47"/>
     </row>
-    <row r="580" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="50">
         <v>43712.637202280093</v>
       </c>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="L580" s="47"/>
     </row>
-    <row r="581" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="50">
         <v>43712.648180833334</v>
       </c>
@@ -22444,7 +22444,7 @@
       </c>
       <c r="L581" s="47"/>
     </row>
-    <row r="582" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="50">
         <v>43713.424205613424</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="583" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="50">
         <v>43713.425145335648</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="584" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="50">
         <v>43713.435373171291</v>
       </c>
@@ -22544,7 +22544,7 @@
       </c>
       <c r="L584" s="47"/>
     </row>
-    <row r="585" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="50">
         <v>43713.4464271412</v>
       </c>
@@ -22576,7 +22576,7 @@
       </c>
       <c r="L585" s="47"/>
     </row>
-    <row r="586" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="50">
         <v>43713.450989293982</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="587" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="50">
         <v>43713.464215254629</v>
       </c>
@@ -22642,7 +22642,7 @@
       </c>
       <c r="L587" s="47"/>
     </row>
-    <row r="588" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="50">
         <v>43713.481925486107</v>
       </c>
@@ -22676,7 +22676,7 @@
       </c>
       <c r="L588" s="47"/>
     </row>
-    <row r="589" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="50">
         <v>43713.543691203704</v>
       </c>
@@ -22710,7 +22710,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="590" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="50">
         <v>43713.556214594908</v>
       </c>
@@ -22744,7 +22744,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="591" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="50">
         <v>43713.55751481482</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="592" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="50">
         <v>43713.59901273148</v>
       </c>
@@ -22812,7 +22812,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="593" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="50">
         <v>43713.602299502316</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="594" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="35">
         <v>43719.359178240738</v>
       </c>
@@ -22883,7 +22883,7 @@
       <c r="P594" s="36"/>
       <c r="Q594" s="36"/>
     </row>
-    <row r="595" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="35">
         <v>43719.36074074074</v>
       </c>
@@ -22916,7 +22916,7 @@
       <c r="P595" s="36"/>
       <c r="Q595" s="36"/>
     </row>
-    <row r="596" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="35">
         <v>43719.36146990741</v>
       </c>
@@ -22955,7 +22955,7 @@
       <c r="P596" s="36"/>
       <c r="Q596" s="36"/>
     </row>
-    <row r="597" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="35">
         <v>43719.374293981484</v>
       </c>
@@ -22994,7 +22994,7 @@
       <c r="P597" s="36"/>
       <c r="Q597" s="36"/>
     </row>
-    <row r="598" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="35">
         <v>43719.381828703707</v>
       </c>
@@ -23033,7 +23033,7 @@
       <c r="P598" s="36"/>
       <c r="Q598" s="36"/>
     </row>
-    <row r="599" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="35">
         <v>43719.397430555553</v>
       </c>
@@ -23070,7 +23070,7 @@
       <c r="P599" s="36"/>
       <c r="Q599" s="36"/>
     </row>
-    <row r="600" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="35">
         <v>43719.404641203706</v>
       </c>
@@ -23109,7 +23109,7 @@
       <c r="P600" s="36"/>
       <c r="Q600" s="36"/>
     </row>
-    <row r="601" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="35">
         <v>43719.404085648152</v>
       </c>
@@ -23148,7 +23148,7 @@
       <c r="P601" s="36"/>
       <c r="Q601" s="36"/>
     </row>
-    <row r="602" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="35">
         <v>43719.426840277774</v>
       </c>
@@ -23187,7 +23187,7 @@
       <c r="P602" s="36"/>
       <c r="Q602" s="36"/>
     </row>
-    <row r="603" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="35">
         <v>43719.427685185183</v>
       </c>
@@ -23226,7 +23226,7 @@
       <c r="P603" s="36"/>
       <c r="Q603" s="36"/>
     </row>
-    <row r="604" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="35">
         <v>43719.434421296297</v>
       </c>
@@ -23265,7 +23265,7 @@
       <c r="P604" s="36"/>
       <c r="Q604" s="36"/>
     </row>
-    <row r="605" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="35">
         <v>43719.448310185187</v>
       </c>
@@ -23302,7 +23302,7 @@
       <c r="P605" s="36"/>
       <c r="Q605" s="36"/>
     </row>
-    <row r="606" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="35">
         <v>43719.448564814818</v>
       </c>
@@ -23341,7 +23341,7 @@
       <c r="P606" s="36"/>
       <c r="Q606" s="36"/>
     </row>
-    <row r="607" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="35">
         <v>43719.449189814812</v>
       </c>
@@ -23380,7 +23380,7 @@
       <c r="P607" s="36"/>
       <c r="Q607" s="36"/>
     </row>
-    <row r="608" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="35">
         <v>43719.454583333332</v>
       </c>
@@ -23417,7 +23417,7 @@
       <c r="P608" s="36"/>
       <c r="Q608" s="36"/>
     </row>
-    <row r="609" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="35">
         <v>43719.466273148151</v>
       </c>
@@ -23438,7 +23438,7 @@
       </c>
       <c r="G609" s="36"/>
       <c r="H609" s="40">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I609" s="36"/>
       <c r="J609" s="40">
@@ -23454,7 +23454,7 @@
       <c r="P609" s="36"/>
       <c r="Q609" s="36"/>
     </row>
-    <row r="610" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="35">
         <v>43719.474849537037</v>
       </c>
@@ -23493,7 +23493,7 @@
       <c r="P610" s="36"/>
       <c r="Q610" s="36"/>
     </row>
-    <row r="611" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="35">
         <v>43719.481747685182</v>
       </c>
@@ -23532,7 +23532,7 @@
       <c r="P611" s="36"/>
       <c r="Q611" s="36"/>
     </row>
-    <row r="612" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="35">
         <v>43719.507928240739</v>
       </c>
@@ -23571,7 +23571,7 @@
       <c r="P612" s="36"/>
       <c r="Q612" s="36"/>
     </row>
-    <row r="613" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="35">
         <v>43719.518900462965</v>
       </c>
@@ -23610,7 +23610,7 @@
       <c r="P613" s="36"/>
       <c r="Q613" s="36"/>
     </row>
-    <row r="614" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="35">
         <v>43719.532476851855</v>
       </c>
@@ -23649,7 +23649,7 @@
       <c r="P614" s="36"/>
       <c r="Q614" s="36"/>
     </row>
-    <row r="615" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="35">
         <v>43719.648969907408</v>
       </c>
@@ -23686,7 +23686,7 @@
       <c r="P615" s="36"/>
       <c r="Q615" s="36"/>
     </row>
-    <row r="616" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="35">
         <v>43720.369120370371</v>
       </c>
@@ -23725,7 +23725,7 @@
       <c r="P616" s="36"/>
       <c r="Q616" s="36"/>
     </row>
-    <row r="617" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="35">
         <v>43720.382407407407</v>
       </c>
@@ -23764,7 +23764,7 @@
       <c r="P617" s="36"/>
       <c r="Q617" s="36"/>
     </row>
-    <row r="618" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="35">
         <v>43720.394965277781</v>
       </c>
@@ -23803,7 +23803,7 @@
       <c r="P618" s="36"/>
       <c r="Q618" s="36"/>
     </row>
-    <row r="619" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="35">
         <v>43720.398113425923</v>
       </c>
@@ -23842,7 +23842,7 @@
       <c r="P619" s="36"/>
       <c r="Q619" s="36"/>
     </row>
-    <row r="620" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="35">
         <v>43720.401574074072</v>
       </c>
@@ -23881,7 +23881,7 @@
       <c r="P620" s="36"/>
       <c r="Q620" s="36"/>
     </row>
-    <row r="621" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="35">
         <v>43720.404027777775</v>
       </c>
@@ -23920,7 +23920,7 @@
       <c r="P621" s="36"/>
       <c r="Q621" s="36"/>
     </row>
-    <row r="622" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="35">
         <v>43720.406504629631</v>
       </c>
@@ -23957,7 +23957,7 @@
       <c r="P622" s="36"/>
       <c r="Q622" s="36"/>
     </row>
-    <row r="623" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="35">
         <v>43720.408645833333</v>
       </c>
@@ -23996,7 +23996,7 @@
       <c r="P623" s="36"/>
       <c r="Q623" s="36"/>
     </row>
-    <row r="624" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="35">
         <v>43720.408958333333</v>
       </c>
@@ -24033,7 +24033,7 @@
       <c r="P624" s="36"/>
       <c r="Q624" s="36"/>
     </row>
-    <row r="625" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="35">
         <v>43720.41747685185</v>
       </c>
@@ -24070,7 +24070,7 @@
       <c r="P625" s="36"/>
       <c r="Q625" s="36"/>
     </row>
-    <row r="626" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="35">
         <v>43720.423483796294</v>
       </c>
@@ -24109,7 +24109,7 @@
       <c r="P626" s="36"/>
       <c r="Q626" s="36"/>
     </row>
-    <row r="627" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="35">
         <v>43720.424189814818</v>
       </c>
@@ -24146,7 +24146,7 @@
       <c r="P627" s="36"/>
       <c r="Q627" s="36"/>
     </row>
-    <row r="628" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="35">
         <v>43720.430081018516</v>
       </c>
@@ -24179,7 +24179,7 @@
       <c r="P628" s="36"/>
       <c r="Q628" s="36"/>
     </row>
-    <row r="629" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="35">
         <v>43720.436585648145</v>
       </c>
@@ -24218,7 +24218,7 @@
       <c r="P629" s="36"/>
       <c r="Q629" s="36"/>
     </row>
-    <row r="630" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="35">
         <v>43720.436747685184</v>
       </c>
@@ -24257,7 +24257,7 @@
       <c r="P630" s="36"/>
       <c r="Q630" s="36"/>
     </row>
-    <row r="631" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="35">
         <v>43720.443541666667</v>
       </c>
@@ -24290,7 +24290,7 @@
       <c r="P631" s="36"/>
       <c r="Q631" s="36"/>
     </row>
-    <row r="632" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="35">
         <v>43720.446979166663</v>
       </c>
@@ -24327,7 +24327,7 @@
       <c r="P632" s="36"/>
       <c r="Q632" s="36"/>
     </row>
-    <row r="633" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="35">
         <v>43720.452141203707</v>
       </c>
@@ -24348,7 +24348,7 @@
       </c>
       <c r="G633" s="36"/>
       <c r="H633" s="40">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I633" s="36"/>
       <c r="J633" s="40">
@@ -24364,7 +24364,7 @@
       <c r="P633" s="36"/>
       <c r="Q633" s="36"/>
     </row>
-    <row r="634" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="35">
         <v>43720.453773148147</v>
       </c>
@@ -24401,7 +24401,7 @@
       <c r="P634" s="36"/>
       <c r="Q634" s="36"/>
     </row>
-    <row r="635" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="35">
         <v>43720.465578703705</v>
       </c>
@@ -24440,7 +24440,7 @@
       <c r="P635" s="36"/>
       <c r="Q635" s="36"/>
     </row>
-    <row r="636" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="35">
         <v>43720.465752314813</v>
       </c>
@@ -24477,7 +24477,7 @@
       <c r="P636" s="36"/>
       <c r="Q636" s="36"/>
     </row>
-    <row r="637" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="35">
         <v>43720.471342592595</v>
       </c>
@@ -24516,7 +24516,7 @@
       <c r="P637" s="36"/>
       <c r="Q637" s="36"/>
     </row>
-    <row r="638" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="35">
         <v>43724.36278935185</v>
       </c>
@@ -24553,7 +24553,7 @@
       <c r="P638" s="36"/>
       <c r="Q638" s="36"/>
     </row>
-    <row r="639" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="35">
         <v>43724.394594907404</v>
       </c>
@@ -24590,7 +24590,7 @@
       <c r="P639" s="36"/>
       <c r="Q639" s="36"/>
     </row>
-    <row r="640" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="35">
         <v>43724.397013888891</v>
       </c>
@@ -24629,7 +24629,7 @@
       <c r="P640" s="36"/>
       <c r="Q640" s="36"/>
     </row>
-    <row r="641" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="35">
         <v>43724.399456018517</v>
       </c>
@@ -24668,7 +24668,7 @@
       <c r="P641" s="36"/>
       <c r="Q641" s="36"/>
     </row>
-    <row r="642" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="35">
         <v>43724.403611111113</v>
       </c>
@@ -24705,7 +24705,7 @@
       <c r="P642" s="36"/>
       <c r="Q642" s="36"/>
     </row>
-    <row r="643" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="35">
         <v>43724.410555555558</v>
       </c>
@@ -24738,7 +24738,7 @@
       <c r="P643" s="36"/>
       <c r="Q643" s="36"/>
     </row>
-    <row r="644" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="35">
         <v>43724.414629629631</v>
       </c>
@@ -24777,7 +24777,7 @@
       <c r="P644" s="36"/>
       <c r="Q644" s="36"/>
     </row>
-    <row r="645" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="35">
         <v>43724.420162037037</v>
       </c>
@@ -24814,7 +24814,7 @@
       <c r="P645" s="36"/>
       <c r="Q645" s="36"/>
     </row>
-    <row r="646" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="35">
         <v>43724.422766203701</v>
       </c>
@@ -24853,7 +24853,7 @@
       <c r="P646" s="36"/>
       <c r="Q646" s="36"/>
     </row>
-    <row r="647" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="35">
         <v>43724.428171296298</v>
       </c>
@@ -24892,7 +24892,7 @@
       <c r="P647" s="36"/>
       <c r="Q647" s="36"/>
     </row>
-    <row r="648" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="35">
         <v>43724.429629629631</v>
       </c>
@@ -24925,7 +24925,7 @@
       <c r="P648" s="36"/>
       <c r="Q648" s="36"/>
     </row>
-    <row r="649" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="35">
         <v>43724.431944444441</v>
       </c>
@@ -24958,7 +24958,7 @@
       <c r="P649" s="36"/>
       <c r="Q649" s="36"/>
     </row>
-    <row r="650" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="35">
         <v>43724.438078703701</v>
       </c>
@@ -24997,7 +24997,7 @@
       <c r="P650" s="36"/>
       <c r="Q650" s="36"/>
     </row>
-    <row r="651" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="35">
         <v>43724.443738425929</v>
       </c>
@@ -25034,7 +25034,7 @@
       <c r="P651" s="36"/>
       <c r="Q651" s="36"/>
     </row>
-    <row r="652" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="35">
         <v>43724.443923611114</v>
       </c>
@@ -25071,7 +25071,7 @@
       <c r="P652" s="36"/>
       <c r="Q652" s="36"/>
     </row>
-    <row r="653" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="35">
         <v>43724.46465277778</v>
       </c>
@@ -25110,7 +25110,7 @@
       <c r="P653" s="36"/>
       <c r="Q653" s="36"/>
     </row>
-    <row r="654" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="35">
         <v>43724.464803240742</v>
       </c>
@@ -25147,7 +25147,7 @@
       <c r="P654" s="36"/>
       <c r="Q654" s="36"/>
     </row>
-    <row r="655" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="35">
         <v>43724.471284722225</v>
       </c>
@@ -25186,7 +25186,7 @@
       <c r="P655" s="36"/>
       <c r="Q655" s="36"/>
     </row>
-    <row r="656" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="35">
         <v>43724.475428240738</v>
       </c>
@@ -25225,7 +25225,7 @@
       <c r="P656" s="36"/>
       <c r="Q656" s="36"/>
     </row>
-    <row r="657" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="35">
         <v>43724.487824074073</v>
       </c>
@@ -25262,7 +25262,7 @@
       <c r="P657" s="36"/>
       <c r="Q657" s="36"/>
     </row>
-    <row r="658" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="35">
         <v>43724.500405092593</v>
       </c>
@@ -25301,7 +25301,7 @@
       <c r="P658" s="36"/>
       <c r="Q658" s="36"/>
     </row>
-    <row r="659" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="35">
         <v>43724.501759259256</v>
       </c>
@@ -25340,7 +25340,7 @@
       <c r="P659" s="36"/>
       <c r="Q659" s="36"/>
     </row>
-    <row r="660" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="35">
         <v>43724.508275462962</v>
       </c>
@@ -25377,7 +25377,7 @@
       <c r="P660" s="36"/>
       <c r="Q660" s="36"/>
     </row>
-    <row r="661" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="35">
         <v>43724.51425925926</v>
       </c>
@@ -25414,7 +25414,7 @@
       <c r="P661" s="36"/>
       <c r="Q661" s="36"/>
     </row>
-    <row r="662" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="35">
         <v>43724.522696759261</v>
       </c>
@@ -25445,7 +25445,7 @@
       <c r="P662" s="36"/>
       <c r="Q662" s="36"/>
     </row>
-    <row r="663" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="35">
         <v>43724.546423611115</v>
       </c>
@@ -25480,7 +25480,7 @@
       <c r="P663" s="36"/>
       <c r="Q663" s="36"/>
     </row>
-    <row r="664" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="35">
         <v>43724.578912037039</v>
       </c>
@@ -25517,7 +25517,7 @@
       <c r="P664" s="36"/>
       <c r="Q664" s="36"/>
     </row>
-    <row r="665" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="35">
         <v>43724.592453703706</v>
       </c>
@@ -25554,7 +25554,7 @@
       <c r="P665" s="36"/>
       <c r="Q665" s="36"/>
     </row>
-    <row r="666" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="35">
         <v>43724.603819444441</v>
       </c>
@@ -25591,7 +25591,7 @@
       <c r="P666" s="36"/>
       <c r="Q666" s="36"/>
     </row>
-    <row r="667" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="35">
         <v>43724.606689814813</v>
       </c>
@@ -25628,7 +25628,7 @@
       <c r="P667" s="36"/>
       <c r="Q667" s="36"/>
     </row>
-    <row r="668" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="35">
         <v>43724.630578703705</v>
       </c>
@@ -25663,7 +25663,7 @@
       <c r="P668" s="36"/>
       <c r="Q668" s="36"/>
     </row>
-    <row r="669" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="35">
         <v>43724.63517361111</v>
       </c>
@@ -25700,7 +25700,7 @@
       <c r="P669" s="36"/>
       <c r="Q669" s="36"/>
     </row>
-    <row r="670" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="35">
         <v>43724.656759259262</v>
       </c>
@@ -25737,7 +25737,7 @@
       <c r="P670" s="36"/>
       <c r="Q670" s="36"/>
     </row>
-    <row r="671" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="35">
         <v>43724.663090277776</v>
       </c>
@@ -25774,7 +25774,7 @@
       <c r="P671" s="36"/>
       <c r="Q671" s="36"/>
     </row>
-    <row r="672" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="35">
         <v>43725.495740740742</v>
       </c>
@@ -25807,7 +25807,7 @@
       <c r="P672" s="36"/>
       <c r="Q672" s="36"/>
     </row>
-    <row r="673" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="35">
         <v>43725.515069444446</v>
       </c>
@@ -25840,7 +25840,7 @@
       <c r="P673" s="36"/>
       <c r="Q673" s="36"/>
     </row>
-    <row r="674" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="35">
         <v>43726.53087962963</v>
       </c>
@@ -25878,7 +25878,13 @@
       <c r="Q674" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P593"/>
+  <autoFilter ref="A1:P674">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SDG-085G"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>
@@ -26056,259 +26062,259 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
@@ -26324,7 +26330,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 09_15_2019.xlsx
+++ b/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 09_15_2019.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="607">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1688,15 +1688,9 @@
     <t>https://drive.google.com/open?id=1fa9w8Dmkb3tPooGzPrOksf1PldfDnQgN</t>
   </si>
   <si>
-    <t>+2</t>
-  </si>
-  <si>
     <t>Before probe replacement</t>
   </si>
   <si>
-    <t>+2.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">After probe replacement </t>
   </si>
   <si>
@@ -1724,9 +1718,6 @@
     <t>Lots of organic matter</t>
   </si>
   <si>
-    <t>+2.1</t>
-  </si>
-  <si>
     <t>Strong sewer smell</t>
   </si>
   <si>
@@ -1751,9 +1742,6 @@
     <t xml:space="preserve">Downloaded camera and logger data </t>
   </si>
   <si>
-    <t>+6.3</t>
-  </si>
-  <si>
     <t>Very low flow too low to measure. Sampled</t>
   </si>
   <si>
@@ -1770,9 +1758,6 @@
   </si>
   <si>
     <t xml:space="preserve">Downloaded camera </t>
-  </si>
-  <si>
-    <t>+4.5</t>
   </si>
   <si>
     <t xml:space="preserve">Changed logger batteries </t>
@@ -2616,11 +2601,11 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W674"/>
+  <dimension ref="A1:AA674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D378" sqref="D378"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B566" sqref="B566:E569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2631,8 +2616,8 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="34.44140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="36.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" customWidth="1"/>
     <col min="11" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
@@ -2973,7 +2958,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43591.485304733797</v>
       </c>
@@ -3730,7 +3715,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>43592.563986909721</v>
       </c>
@@ -4178,7 +4163,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>43593.518983738424</v>
       </c>
@@ -5073,7 +5058,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>43594.445713379631</v>
       </c>
@@ -6023,7 +6008,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>43594.91069650463</v>
       </c>
@@ -7098,7 +7083,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>43595.663596446757</v>
       </c>
@@ -7936,7 +7921,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>43599.500831736106</v>
       </c>
@@ -7962,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>43599.518437384264</v>
       </c>
@@ -8187,7 +8172,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="156" spans="1:15" s="11" customFormat="1" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" s="11" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>43600.422265266199</v>
       </c>
@@ -8698,7 +8683,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>43601.419731273148</v>
       </c>
@@ -8756,7 +8741,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>43602.442062349539</v>
       </c>
@@ -8931,7 +8916,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>43602.522517500001</v>
       </c>
@@ -8966,7 +8951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>43606.707793877315</v>
       </c>
@@ -9135,7 +9120,7 @@
         <v>7240</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>43608.526771817131</v>
       </c>
@@ -9562,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>43619.559027557872</v>
       </c>
@@ -9591,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>43619.560911979162</v>
       </c>
@@ -9930,7 +9915,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>43620.449795451394</v>
       </c>
@@ -11016,7 +11001,7 @@
         <v>-4.5</v>
       </c>
       <c r="J245" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K245" s="5">
         <v>0</v>
@@ -11076,9 +11061,10 @@
       <c r="J247" s="5">
         <v>30</v>
       </c>
-      <c r="L247" s="5">
+      <c r="K247" s="5">
         <v>6000</v>
       </c>
+      <c r="L247" s="5"/>
     </row>
     <row r="248" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
@@ -11124,7 +11110,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>43633.581785532406</v>
       </c>
@@ -11304,7 +11290,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>43634.393672152779</v>
       </c>
@@ -11609,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>43634.456643518519</v>
       </c>
@@ -11641,7 +11627,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>43634.458449259255</v>
       </c>
@@ -11670,7 +11656,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>43634.469420011577</v>
       </c>
@@ -13070,7 +13056,7 @@
       </c>
       <c r="Q307" s="5"/>
     </row>
-    <row r="308" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>43647.475172638893</v>
       </c>
@@ -13103,7 +13089,7 @@
       </c>
       <c r="Q308" s="5"/>
     </row>
-    <row r="309" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>43647.482570231485</v>
       </c>
@@ -13594,7 +13580,7 @@
         <v>-1.3</v>
       </c>
       <c r="J323" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K323" s="5">
         <v>0</v>
@@ -13627,7 +13613,7 @@
         <v>-5</v>
       </c>
       <c r="J324" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K324" s="5">
         <v>0</v>
@@ -14201,7 +14187,7 @@
       </c>
       <c r="Q341" s="5"/>
     </row>
-    <row r="342" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
         <v>43648.523454918977</v>
       </c>
@@ -14678,7 +14664,7 @@
         <v>5957</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="25">
         <v>43661.454036006944</v>
       </c>
@@ -14803,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="25">
         <v>43661.475225057875</v>
       </c>
@@ -15210,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="25">
         <v>43662.417311712961</v>
       </c>
@@ -15242,7 +15228,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="25">
         <v>43662.423942743058</v>
       </c>
@@ -15274,7 +15260,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="25">
         <v>43662.43173575231</v>
       </c>
@@ -15303,7 +15289,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="25">
         <v>43662.438895104162</v>
       </c>
@@ -15332,7 +15318,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="25">
         <v>43662.457425300927</v>
       </c>
@@ -15643,9 +15629,7 @@
       <c r="K387" s="26">
         <v>0</v>
       </c>
-      <c r="P387" s="26">
-        <v>999999999</v>
-      </c>
+      <c r="P387" s="26"/>
     </row>
     <row r="388" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="25">
@@ -15978,7 +15962,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="25">
         <v>43662.651400266201</v>
       </c>
@@ -16036,7 +16020,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="25">
         <v>43662.868660763888</v>
       </c>
@@ -16065,7 +16049,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="25">
         <v>43665.537839201388</v>
       </c>
@@ -16094,7 +16078,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="25">
         <v>43665.538775069443</v>
       </c>
@@ -16117,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="25">
         <v>43665.565719756945</v>
       </c>
@@ -16146,7 +16130,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="25">
         <v>43665.602270196759</v>
       </c>
@@ -16175,7 +16159,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="406" spans="1:23" s="34" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" s="34" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="30">
         <v>43665.620232199071</v>
       </c>
@@ -16204,7 +16188,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="35">
         <v>43676.683530092596</v>
       </c>
@@ -16236,13 +16220,13 @@
       <c r="K407" s="40">
         <v>510</v>
       </c>
-      <c r="L407" s="36" t="s">
+      <c r="L407" s="40"/>
+      <c r="M407" s="40"/>
+      <c r="N407" s="40"/>
+      <c r="O407" s="40"/>
+      <c r="P407" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="M407" s="36"/>
-      <c r="N407" s="36"/>
-      <c r="O407" s="36"/>
-      <c r="P407" s="36"/>
       <c r="Q407" s="36"/>
       <c r="R407" s="36"/>
       <c r="S407" s="36"/>
@@ -16250,8 +16234,12 @@
       <c r="U407" s="36"/>
       <c r="V407" s="36"/>
       <c r="W407" s="36"/>
-    </row>
-    <row r="408" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X407" s="36"/>
+      <c r="Y407" s="36"/>
+      <c r="Z407" s="36"/>
+      <c r="AA407" s="36"/>
+    </row>
+    <row r="408" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="35">
         <v>43677.336412037039</v>
       </c>
@@ -16281,10 +16269,10 @@
       <c r="K408" s="40">
         <v>3350</v>
       </c>
-      <c r="L408" s="36"/>
-      <c r="M408" s="36"/>
-      <c r="N408" s="36"/>
-      <c r="O408" s="36"/>
+      <c r="L408" s="40"/>
+      <c r="M408" s="40"/>
+      <c r="N408" s="40"/>
+      <c r="O408" s="40"/>
       <c r="P408" s="36"/>
       <c r="Q408" s="36"/>
       <c r="R408" s="36"/>
@@ -16293,8 +16281,12 @@
       <c r="U408" s="36"/>
       <c r="V408" s="36"/>
       <c r="W408" s="36"/>
-    </row>
-    <row r="409" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X408" s="36"/>
+      <c r="Y408" s="36"/>
+      <c r="Z408" s="36"/>
+      <c r="AA408" s="36"/>
+    </row>
+    <row r="409" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="35">
         <v>43677.349629629629</v>
       </c>
@@ -16324,10 +16316,10 @@
       <c r="K409" s="40">
         <v>8800</v>
       </c>
-      <c r="L409" s="36"/>
-      <c r="M409" s="36"/>
-      <c r="N409" s="36"/>
-      <c r="O409" s="36"/>
+      <c r="L409" s="40"/>
+      <c r="M409" s="40"/>
+      <c r="N409" s="40"/>
+      <c r="O409" s="40"/>
       <c r="P409" s="36"/>
       <c r="Q409" s="36"/>
       <c r="R409" s="36"/>
@@ -16336,8 +16328,12 @@
       <c r="U409" s="36"/>
       <c r="V409" s="36"/>
       <c r="W409" s="36"/>
-    </row>
-    <row r="410" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X409" s="36"/>
+      <c r="Y409" s="36"/>
+      <c r="Z409" s="36"/>
+      <c r="AA409" s="36"/>
+    </row>
+    <row r="410" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="35">
         <v>43677.356956018521</v>
       </c>
@@ -16367,10 +16363,10 @@
       <c r="K410" s="40">
         <v>10100</v>
       </c>
-      <c r="L410" s="36"/>
-      <c r="M410" s="36"/>
-      <c r="N410" s="36"/>
-      <c r="O410" s="36"/>
+      <c r="L410" s="40"/>
+      <c r="M410" s="40"/>
+      <c r="N410" s="40"/>
+      <c r="O410" s="40"/>
       <c r="P410" s="36"/>
       <c r="Q410" s="36"/>
       <c r="R410" s="36"/>
@@ -16379,8 +16375,12 @@
       <c r="U410" s="36"/>
       <c r="V410" s="36"/>
       <c r="W410" s="36"/>
-    </row>
-    <row r="411" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X410" s="36"/>
+      <c r="Y410" s="36"/>
+      <c r="Z410" s="36"/>
+      <c r="AA410" s="36"/>
+    </row>
+    <row r="411" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="35">
         <v>43677.370138888888</v>
       </c>
@@ -16410,10 +16410,10 @@
       <c r="K411" s="40">
         <v>0</v>
       </c>
-      <c r="L411" s="36"/>
-      <c r="M411" s="36"/>
-      <c r="N411" s="36"/>
-      <c r="O411" s="36"/>
+      <c r="L411" s="40"/>
+      <c r="M411" s="40"/>
+      <c r="N411" s="40"/>
+      <c r="O411" s="40"/>
       <c r="P411" s="36"/>
       <c r="Q411" s="36"/>
       <c r="R411" s="36"/>
@@ -16422,8 +16422,12 @@
       <c r="U411" s="36"/>
       <c r="V411" s="36"/>
       <c r="W411" s="36"/>
-    </row>
-    <row r="412" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X411" s="36"/>
+      <c r="Y411" s="36"/>
+      <c r="Z411" s="36"/>
+      <c r="AA411" s="36"/>
+    </row>
+    <row r="412" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="35">
         <v>43677.411805555559</v>
       </c>
@@ -16461,8 +16465,12 @@
       <c r="U412" s="36"/>
       <c r="V412" s="36"/>
       <c r="W412" s="36"/>
-    </row>
-    <row r="413" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X412" s="36"/>
+      <c r="Y412" s="36"/>
+      <c r="Z412" s="36"/>
+      <c r="AA412" s="36"/>
+    </row>
+    <row r="413" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="35">
         <v>43677.412245370368</v>
       </c>
@@ -16504,8 +16512,12 @@
       <c r="U413" s="36"/>
       <c r="V413" s="36"/>
       <c r="W413" s="36"/>
-    </row>
-    <row r="414" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X413" s="36"/>
+      <c r="Y413" s="36"/>
+      <c r="Z413" s="36"/>
+      <c r="AA413" s="36"/>
+    </row>
+    <row r="414" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="35">
         <v>43677.417326388888</v>
       </c>
@@ -16535,10 +16547,10 @@
       <c r="K414" s="40">
         <v>2100</v>
       </c>
-      <c r="L414" s="36"/>
-      <c r="M414" s="36"/>
-      <c r="N414" s="36"/>
-      <c r="O414" s="36"/>
+      <c r="L414" s="40"/>
+      <c r="M414" s="40"/>
+      <c r="N414" s="40"/>
+      <c r="O414" s="40"/>
       <c r="P414" s="36"/>
       <c r="Q414" s="36"/>
       <c r="R414" s="36"/>
@@ -16547,8 +16559,12 @@
       <c r="U414" s="36"/>
       <c r="V414" s="36"/>
       <c r="W414" s="36"/>
-    </row>
-    <row r="415" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X414" s="36"/>
+      <c r="Y414" s="36"/>
+      <c r="Z414" s="36"/>
+      <c r="AA414" s="36"/>
+    </row>
+    <row r="415" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="35">
         <v>43677.418229166666</v>
       </c>
@@ -16578,10 +16594,10 @@
       <c r="K415" s="40">
         <v>0</v>
       </c>
-      <c r="L415" s="36"/>
-      <c r="M415" s="36"/>
-      <c r="N415" s="36"/>
-      <c r="O415" s="36"/>
+      <c r="L415" s="40"/>
+      <c r="M415" s="40"/>
+      <c r="N415" s="40"/>
+      <c r="O415" s="40"/>
       <c r="P415" s="36"/>
       <c r="Q415" s="36"/>
       <c r="R415" s="36"/>
@@ -16590,8 +16606,12 @@
       <c r="U415" s="36"/>
       <c r="V415" s="36"/>
       <c r="W415" s="36"/>
-    </row>
-    <row r="416" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X415" s="36"/>
+      <c r="Y415" s="36"/>
+      <c r="Z415" s="36"/>
+      <c r="AA415" s="36"/>
+    </row>
+    <row r="416" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="35">
         <v>43677.419004629628</v>
       </c>
@@ -16621,13 +16641,13 @@
       <c r="K416" s="40">
         <v>0</v>
       </c>
-      <c r="L416" s="40">
+      <c r="L416" s="40"/>
+      <c r="M416" s="40"/>
+      <c r="N416" s="40"/>
+      <c r="O416" s="40"/>
+      <c r="P416" s="40">
         <v>970</v>
       </c>
-      <c r="M416" s="36"/>
-      <c r="N416" s="36"/>
-      <c r="O416" s="36"/>
-      <c r="P416" s="36"/>
       <c r="Q416" s="36"/>
       <c r="R416" s="36"/>
       <c r="S416" s="36"/>
@@ -16635,8 +16655,12 @@
       <c r="U416" s="36"/>
       <c r="V416" s="36"/>
       <c r="W416" s="36"/>
-    </row>
-    <row r="417" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X416" s="36"/>
+      <c r="Y416" s="36"/>
+      <c r="Z416" s="36"/>
+      <c r="AA416" s="36"/>
+    </row>
+    <row r="417" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="35">
         <v>43677.428067129629</v>
       </c>
@@ -16666,13 +16690,13 @@
       <c r="K417" s="40">
         <v>70</v>
       </c>
-      <c r="L417" s="40">
+      <c r="L417" s="40"/>
+      <c r="M417" s="40"/>
+      <c r="N417" s="40"/>
+      <c r="O417" s="40"/>
+      <c r="P417" s="40">
         <v>822</v>
       </c>
-      <c r="M417" s="36"/>
-      <c r="N417" s="36"/>
-      <c r="O417" s="36"/>
-      <c r="P417" s="36"/>
       <c r="Q417" s="36"/>
       <c r="R417" s="36"/>
       <c r="S417" s="36"/>
@@ -16680,8 +16704,12 @@
       <c r="U417" s="36"/>
       <c r="V417" s="36"/>
       <c r="W417" s="36"/>
-    </row>
-    <row r="418" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X417" s="36"/>
+      <c r="Y417" s="36"/>
+      <c r="Z417" s="36"/>
+      <c r="AA417" s="36"/>
+    </row>
+    <row r="418" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="35">
         <v>43677.428483796299</v>
       </c>
@@ -16711,13 +16739,13 @@
       <c r="K418" s="40">
         <v>70</v>
       </c>
-      <c r="L418" s="40">
+      <c r="L418" s="40"/>
+      <c r="M418" s="40"/>
+      <c r="N418" s="40"/>
+      <c r="O418" s="40"/>
+      <c r="P418" s="40">
         <v>822</v>
       </c>
-      <c r="M418" s="36"/>
-      <c r="N418" s="36"/>
-      <c r="O418" s="36"/>
-      <c r="P418" s="36"/>
       <c r="Q418" s="36"/>
       <c r="R418" s="36"/>
       <c r="S418" s="36"/>
@@ -16725,8 +16753,12 @@
       <c r="U418" s="36"/>
       <c r="V418" s="36"/>
       <c r="W418" s="36"/>
-    </row>
-    <row r="419" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X418" s="36"/>
+      <c r="Y418" s="36"/>
+      <c r="Z418" s="36"/>
+      <c r="AA418" s="36"/>
+    </row>
+    <row r="419" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="35">
         <v>43677.430266203701</v>
       </c>
@@ -16756,10 +16788,10 @@
       <c r="K419" s="40">
         <v>1800</v>
       </c>
-      <c r="L419" s="36"/>
-      <c r="M419" s="36"/>
-      <c r="N419" s="36"/>
-      <c r="O419" s="36"/>
+      <c r="L419" s="40"/>
+      <c r="M419" s="40"/>
+      <c r="N419" s="40"/>
+      <c r="O419" s="40"/>
       <c r="P419" s="36"/>
       <c r="Q419" s="36"/>
       <c r="R419" s="36"/>
@@ -16768,8 +16800,12 @@
       <c r="U419" s="36"/>
       <c r="V419" s="36"/>
       <c r="W419" s="36"/>
-    </row>
-    <row r="420" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X419" s="36"/>
+      <c r="Y419" s="36"/>
+      <c r="Z419" s="36"/>
+      <c r="AA419" s="36"/>
+    </row>
+    <row r="420" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="35">
         <v>43677.437337962961</v>
       </c>
@@ -16799,13 +16835,13 @@
       <c r="K420" s="40">
         <v>0</v>
       </c>
-      <c r="L420" s="40">
+      <c r="L420" s="40"/>
+      <c r="M420" s="40"/>
+      <c r="N420" s="40"/>
+      <c r="O420" s="40"/>
+      <c r="P420" s="40">
         <v>818</v>
       </c>
-      <c r="M420" s="36"/>
-      <c r="N420" s="36"/>
-      <c r="O420" s="36"/>
-      <c r="P420" s="36"/>
       <c r="Q420" s="36"/>
       <c r="R420" s="36"/>
       <c r="S420" s="36"/>
@@ -16813,8 +16849,12 @@
       <c r="U420" s="36"/>
       <c r="V420" s="36"/>
       <c r="W420" s="36"/>
-    </row>
-    <row r="421" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X420" s="36"/>
+      <c r="Y420" s="36"/>
+      <c r="Z420" s="36"/>
+      <c r="AA420" s="36"/>
+    </row>
+    <row r="421" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="35">
         <v>43677.448240740741</v>
       </c>
@@ -16844,13 +16884,13 @@
       <c r="K421" s="40">
         <v>0</v>
       </c>
-      <c r="L421" s="40">
-        <v>0</v>
-      </c>
-      <c r="M421" s="36"/>
-      <c r="N421" s="36"/>
-      <c r="O421" s="36"/>
-      <c r="P421" s="36"/>
+      <c r="L421" s="40"/>
+      <c r="M421" s="40"/>
+      <c r="N421" s="40"/>
+      <c r="O421" s="40"/>
+      <c r="P421" s="40">
+        <v>0</v>
+      </c>
       <c r="Q421" s="36"/>
       <c r="R421" s="36"/>
       <c r="S421" s="36"/>
@@ -16858,8 +16898,12 @@
       <c r="U421" s="36"/>
       <c r="V421" s="36"/>
       <c r="W421" s="36"/>
-    </row>
-    <row r="422" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X421" s="36"/>
+      <c r="Y421" s="36"/>
+      <c r="Z421" s="36"/>
+      <c r="AA421" s="36"/>
+    </row>
+    <row r="422" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="35">
         <v>43677.465532407405</v>
       </c>
@@ -16889,13 +16933,13 @@
       <c r="K422" s="40">
         <v>9200</v>
       </c>
-      <c r="L422" s="40">
+      <c r="L422" s="40"/>
+      <c r="M422" s="40"/>
+      <c r="N422" s="40"/>
+      <c r="O422" s="40"/>
+      <c r="P422" s="40">
         <v>1711</v>
       </c>
-      <c r="M422" s="36"/>
-      <c r="N422" s="36"/>
-      <c r="O422" s="36"/>
-      <c r="P422" s="36"/>
       <c r="Q422" s="36"/>
       <c r="R422" s="36"/>
       <c r="S422" s="36"/>
@@ -16903,8 +16947,12 @@
       <c r="U422" s="36"/>
       <c r="V422" s="36"/>
       <c r="W422" s="36"/>
-    </row>
-    <row r="423" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X422" s="36"/>
+      <c r="Y422" s="36"/>
+      <c r="Z422" s="36"/>
+      <c r="AA422" s="36"/>
+    </row>
+    <row r="423" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="35">
         <v>43677.49422453704</v>
       </c>
@@ -16942,8 +16990,12 @@
       <c r="U423" s="36"/>
       <c r="V423" s="36"/>
       <c r="W423" s="36"/>
-    </row>
-    <row r="424" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X423" s="36"/>
+      <c r="Y423" s="36"/>
+      <c r="Z423" s="36"/>
+      <c r="AA423" s="36"/>
+    </row>
+    <row r="424" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="35">
         <v>43677.491331018522</v>
       </c>
@@ -16973,13 +17025,13 @@
       <c r="K424" s="40">
         <v>0</v>
       </c>
-      <c r="L424" s="40">
+      <c r="L424" s="40"/>
+      <c r="M424" s="40"/>
+      <c r="N424" s="40"/>
+      <c r="O424" s="40"/>
+      <c r="P424" s="40">
         <v>925</v>
       </c>
-      <c r="M424" s="36"/>
-      <c r="N424" s="36"/>
-      <c r="O424" s="36"/>
-      <c r="P424" s="36"/>
       <c r="Q424" s="36"/>
       <c r="R424" s="36"/>
       <c r="S424" s="36"/>
@@ -16987,8 +17039,12 @@
       <c r="U424" s="36"/>
       <c r="V424" s="36"/>
       <c r="W424" s="36"/>
-    </row>
-    <row r="425" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X424" s="36"/>
+      <c r="Y424" s="36"/>
+      <c r="Z424" s="36"/>
+      <c r="AA424" s="36"/>
+    </row>
+    <row r="425" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="35">
         <v>43677.509918981479</v>
       </c>
@@ -17018,13 +17074,13 @@
       <c r="K425" s="40">
         <v>2130</v>
       </c>
-      <c r="L425" s="40">
+      <c r="L425" s="40"/>
+      <c r="M425" s="40"/>
+      <c r="N425" s="40"/>
+      <c r="O425" s="40"/>
+      <c r="P425" s="40">
         <v>1260</v>
       </c>
-      <c r="M425" s="36"/>
-      <c r="N425" s="36"/>
-      <c r="O425" s="36"/>
-      <c r="P425" s="36"/>
       <c r="Q425" s="36"/>
       <c r="R425" s="36"/>
       <c r="S425" s="36"/>
@@ -17032,8 +17088,12 @@
       <c r="U425" s="36"/>
       <c r="V425" s="36"/>
       <c r="W425" s="36"/>
-    </row>
-    <row r="426" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X425" s="36"/>
+      <c r="Y425" s="36"/>
+      <c r="Z425" s="36"/>
+      <c r="AA425" s="36"/>
+    </row>
+    <row r="426" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="35">
         <v>43677.511956018519</v>
       </c>
@@ -17063,13 +17123,13 @@
       <c r="K426" s="40">
         <v>200</v>
       </c>
-      <c r="L426" s="40">
+      <c r="L426" s="40"/>
+      <c r="M426" s="40"/>
+      <c r="N426" s="40"/>
+      <c r="O426" s="40"/>
+      <c r="P426" s="40">
         <v>955</v>
       </c>
-      <c r="M426" s="36"/>
-      <c r="N426" s="36"/>
-      <c r="O426" s="36"/>
-      <c r="P426" s="36"/>
       <c r="Q426" s="36"/>
       <c r="R426" s="36"/>
       <c r="S426" s="36"/>
@@ -17077,8 +17137,12 @@
       <c r="U426" s="36"/>
       <c r="V426" s="36"/>
       <c r="W426" s="36"/>
-    </row>
-    <row r="427" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X426" s="36"/>
+      <c r="Y426" s="36"/>
+      <c r="Z426" s="36"/>
+      <c r="AA426" s="36"/>
+    </row>
+    <row r="427" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="35">
         <v>43677.514525462961</v>
       </c>
@@ -17116,8 +17180,12 @@
       <c r="U427" s="36"/>
       <c r="V427" s="36"/>
       <c r="W427" s="36"/>
-    </row>
-    <row r="428" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X427" s="36"/>
+      <c r="Y427" s="36"/>
+      <c r="Z427" s="36"/>
+      <c r="AA427" s="36"/>
+    </row>
+    <row r="428" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="35">
         <v>43677.518958333334</v>
       </c>
@@ -17142,18 +17210,18 @@
       </c>
       <c r="I428" s="36"/>
       <c r="J428" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K428" s="40">
         <v>0</v>
       </c>
-      <c r="L428" s="40">
+      <c r="L428" s="40"/>
+      <c r="M428" s="40"/>
+      <c r="N428" s="40"/>
+      <c r="O428" s="40"/>
+      <c r="P428" s="40">
         <v>646</v>
       </c>
-      <c r="M428" s="36"/>
-      <c r="N428" s="36"/>
-      <c r="O428" s="36"/>
-      <c r="P428" s="36"/>
       <c r="Q428" s="36"/>
       <c r="R428" s="36"/>
       <c r="S428" s="36"/>
@@ -17161,8 +17229,12 @@
       <c r="U428" s="36"/>
       <c r="V428" s="36"/>
       <c r="W428" s="36"/>
-    </row>
-    <row r="429" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X428" s="36"/>
+      <c r="Y428" s="36"/>
+      <c r="Z428" s="36"/>
+      <c r="AA428" s="36"/>
+    </row>
+    <row r="429" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="35">
         <v>43677.520370370374</v>
       </c>
@@ -17187,18 +17259,16 @@
       </c>
       <c r="I429" s="36"/>
       <c r="J429" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K429" s="40">
         <v>0</v>
       </c>
-      <c r="L429" s="40">
-        <v>0</v>
-      </c>
-      <c r="M429" s="36"/>
-      <c r="N429" s="36"/>
-      <c r="O429" s="36"/>
-      <c r="P429" s="36"/>
+      <c r="L429" s="40"/>
+      <c r="M429" s="40"/>
+      <c r="N429" s="40"/>
+      <c r="O429" s="40"/>
+      <c r="P429" s="40"/>
       <c r="Q429" s="36"/>
       <c r="R429" s="36"/>
       <c r="S429" s="36"/>
@@ -17206,8 +17276,12 @@
       <c r="U429" s="36"/>
       <c r="V429" s="36"/>
       <c r="W429" s="36"/>
-    </row>
-    <row r="430" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X429" s="36"/>
+      <c r="Y429" s="36"/>
+      <c r="Z429" s="36"/>
+      <c r="AA429" s="36"/>
+    </row>
+    <row r="430" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="35">
         <v>43677.52925925926</v>
       </c>
@@ -17237,13 +17311,13 @@
       <c r="K430" s="40">
         <v>70</v>
       </c>
-      <c r="L430" s="40">
+      <c r="L430" s="40"/>
+      <c r="M430" s="40"/>
+      <c r="N430" s="40"/>
+      <c r="O430" s="40"/>
+      <c r="P430" s="40">
         <v>1099</v>
       </c>
-      <c r="M430" s="36"/>
-      <c r="N430" s="36"/>
-      <c r="O430" s="36"/>
-      <c r="P430" s="36"/>
       <c r="Q430" s="36"/>
       <c r="R430" s="36"/>
       <c r="S430" s="36"/>
@@ -17251,8 +17325,12 @@
       <c r="U430" s="36"/>
       <c r="V430" s="36"/>
       <c r="W430" s="36"/>
-    </row>
-    <row r="431" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X430" s="36"/>
+      <c r="Y430" s="36"/>
+      <c r="Z430" s="36"/>
+      <c r="AA430" s="36"/>
+    </row>
+    <row r="431" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="35">
         <v>43677.537638888891</v>
       </c>
@@ -17282,13 +17360,13 @@
       <c r="K431" s="40">
         <v>4000</v>
       </c>
-      <c r="L431" s="40">
+      <c r="L431" s="40"/>
+      <c r="M431" s="40"/>
+      <c r="N431" s="40"/>
+      <c r="O431" s="40"/>
+      <c r="P431" s="40">
         <v>1840</v>
       </c>
-      <c r="M431" s="36"/>
-      <c r="N431" s="36"/>
-      <c r="O431" s="36"/>
-      <c r="P431" s="36"/>
       <c r="Q431" s="36"/>
       <c r="R431" s="36"/>
       <c r="S431" s="36"/>
@@ -17296,8 +17374,12 @@
       <c r="U431" s="36"/>
       <c r="V431" s="36"/>
       <c r="W431" s="36"/>
-    </row>
-    <row r="432" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X431" s="36"/>
+      <c r="Y431" s="36"/>
+      <c r="Z431" s="36"/>
+      <c r="AA431" s="36"/>
+    </row>
+    <row r="432" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="35">
         <v>43677.549780092595</v>
       </c>
@@ -17327,10 +17409,10 @@
       <c r="K432" s="40">
         <v>2980</v>
       </c>
-      <c r="L432" s="36"/>
-      <c r="M432" s="36"/>
-      <c r="N432" s="36"/>
-      <c r="O432" s="36"/>
+      <c r="L432" s="40"/>
+      <c r="M432" s="40"/>
+      <c r="N432" s="40"/>
+      <c r="O432" s="40"/>
       <c r="P432" s="36"/>
       <c r="Q432" s="36"/>
       <c r="R432" s="36"/>
@@ -17339,8 +17421,12 @@
       <c r="U432" s="36"/>
       <c r="V432" s="36"/>
       <c r="W432" s="36"/>
-    </row>
-    <row r="433" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X432" s="36"/>
+      <c r="Y432" s="36"/>
+      <c r="Z432" s="36"/>
+      <c r="AA432" s="36"/>
+    </row>
+    <row r="433" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="35">
         <v>43677.553333333337</v>
       </c>
@@ -17370,13 +17456,13 @@
       <c r="K433" s="40">
         <v>0</v>
       </c>
-      <c r="L433" s="40">
-        <v>0</v>
-      </c>
-      <c r="M433" s="36"/>
-      <c r="N433" s="36"/>
-      <c r="O433" s="36"/>
-      <c r="P433" s="36"/>
+      <c r="L433" s="40"/>
+      <c r="M433" s="40"/>
+      <c r="N433" s="40"/>
+      <c r="O433" s="40"/>
+      <c r="P433" s="40">
+        <v>0</v>
+      </c>
       <c r="Q433" s="36"/>
       <c r="R433" s="36"/>
       <c r="S433" s="36"/>
@@ -17384,8 +17470,12 @@
       <c r="U433" s="36"/>
       <c r="V433" s="36"/>
       <c r="W433" s="36"/>
-    </row>
-    <row r="434" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X433" s="36"/>
+      <c r="Y433" s="36"/>
+      <c r="Z433" s="36"/>
+      <c r="AA433" s="36"/>
+    </row>
+    <row r="434" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="35">
         <v>43677.671620370369</v>
       </c>
@@ -17415,10 +17505,10 @@
       <c r="K434" s="40">
         <v>2560</v>
       </c>
-      <c r="L434" s="36"/>
-      <c r="M434" s="36"/>
-      <c r="N434" s="36"/>
-      <c r="O434" s="36"/>
+      <c r="L434" s="40"/>
+      <c r="M434" s="40"/>
+      <c r="N434" s="40"/>
+      <c r="O434" s="40"/>
       <c r="P434" s="36"/>
       <c r="Q434" s="36"/>
       <c r="R434" s="36"/>
@@ -17427,8 +17517,12 @@
       <c r="U434" s="36"/>
       <c r="V434" s="36"/>
       <c r="W434" s="36"/>
-    </row>
-    <row r="435" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X434" s="36"/>
+      <c r="Y434" s="36"/>
+      <c r="Z434" s="36"/>
+      <c r="AA434" s="36"/>
+    </row>
+    <row r="435" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="35">
         <v>43678.3440162037</v>
       </c>
@@ -17458,10 +17552,10 @@
       <c r="K435" s="40">
         <v>1300</v>
       </c>
-      <c r="L435" s="36"/>
-      <c r="M435" s="36"/>
-      <c r="N435" s="36"/>
-      <c r="O435" s="36"/>
+      <c r="L435" s="40"/>
+      <c r="M435" s="40"/>
+      <c r="N435" s="40"/>
+      <c r="O435" s="40"/>
       <c r="P435" s="36"/>
       <c r="Q435" s="36"/>
       <c r="R435" s="36"/>
@@ -17470,8 +17564,12 @@
       <c r="U435" s="36"/>
       <c r="V435" s="36"/>
       <c r="W435" s="36"/>
-    </row>
-    <row r="436" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X435" s="36"/>
+      <c r="Y435" s="36"/>
+      <c r="Z435" s="36"/>
+      <c r="AA435" s="36"/>
+    </row>
+    <row r="436" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="35">
         <v>43678.348865740743</v>
       </c>
@@ -17501,10 +17599,10 @@
       <c r="K436" s="40">
         <v>280</v>
       </c>
-      <c r="L436" s="36"/>
-      <c r="M436" s="36"/>
-      <c r="N436" s="36"/>
-      <c r="O436" s="36"/>
+      <c r="L436" s="40"/>
+      <c r="M436" s="40"/>
+      <c r="N436" s="40"/>
+      <c r="O436" s="40"/>
       <c r="P436" s="36"/>
       <c r="Q436" s="36"/>
       <c r="R436" s="36"/>
@@ -17513,8 +17611,12 @@
       <c r="U436" s="36"/>
       <c r="V436" s="36"/>
       <c r="W436" s="36"/>
-    </row>
-    <row r="437" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X436" s="36"/>
+      <c r="Y436" s="36"/>
+      <c r="Z436" s="36"/>
+      <c r="AA436" s="36"/>
+    </row>
+    <row r="437" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="35">
         <v>43678.354548611111</v>
       </c>
@@ -17544,10 +17646,10 @@
       <c r="K437" s="40">
         <v>660</v>
       </c>
-      <c r="L437" s="36"/>
-      <c r="M437" s="36"/>
-      <c r="N437" s="36"/>
-      <c r="O437" s="36"/>
+      <c r="L437" s="40"/>
+      <c r="M437" s="40"/>
+      <c r="N437" s="40"/>
+      <c r="O437" s="40"/>
       <c r="P437" s="36"/>
       <c r="Q437" s="36"/>
       <c r="R437" s="36"/>
@@ -17556,8 +17658,12 @@
       <c r="U437" s="36"/>
       <c r="V437" s="36"/>
       <c r="W437" s="36"/>
-    </row>
-    <row r="438" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X437" s="36"/>
+      <c r="Y437" s="36"/>
+      <c r="Z437" s="36"/>
+      <c r="AA437" s="36"/>
+    </row>
+    <row r="438" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="35">
         <v>43678.363217592596</v>
       </c>
@@ -17587,10 +17693,10 @@
       <c r="K438" s="40">
         <v>2560</v>
       </c>
-      <c r="L438" s="36"/>
-      <c r="M438" s="36"/>
-      <c r="N438" s="36"/>
-      <c r="O438" s="36"/>
+      <c r="L438" s="40"/>
+      <c r="M438" s="40"/>
+      <c r="N438" s="40"/>
+      <c r="O438" s="40"/>
       <c r="P438" s="36"/>
       <c r="Q438" s="36"/>
       <c r="R438" s="36"/>
@@ -17599,8 +17705,12 @@
       <c r="U438" s="36"/>
       <c r="V438" s="36"/>
       <c r="W438" s="36"/>
-    </row>
-    <row r="439" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X438" s="36"/>
+      <c r="Y438" s="36"/>
+      <c r="Z438" s="36"/>
+      <c r="AA438" s="36"/>
+    </row>
+    <row r="439" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="35">
         <v>43678.372650462959</v>
       </c>
@@ -17630,10 +17740,10 @@
       <c r="K439" s="40">
         <v>1820</v>
       </c>
-      <c r="L439" s="36"/>
-      <c r="M439" s="36"/>
-      <c r="N439" s="36"/>
-      <c r="O439" s="36"/>
+      <c r="L439" s="40"/>
+      <c r="M439" s="40"/>
+      <c r="N439" s="40"/>
+      <c r="O439" s="40"/>
       <c r="P439" s="36"/>
       <c r="Q439" s="36"/>
       <c r="R439" s="36"/>
@@ -17642,8 +17752,12 @@
       <c r="U439" s="36"/>
       <c r="V439" s="36"/>
       <c r="W439" s="36"/>
-    </row>
-    <row r="440" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X439" s="36"/>
+      <c r="Y439" s="36"/>
+      <c r="Z439" s="36"/>
+      <c r="AA439" s="36"/>
+    </row>
+    <row r="440" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="35">
         <v>43678.375023148146</v>
       </c>
@@ -17673,10 +17787,10 @@
       <c r="K440" s="40">
         <v>1250</v>
       </c>
-      <c r="L440" s="36"/>
-      <c r="M440" s="36"/>
-      <c r="N440" s="36"/>
-      <c r="O440" s="36"/>
+      <c r="L440" s="40"/>
+      <c r="M440" s="40"/>
+      <c r="N440" s="40"/>
+      <c r="O440" s="40"/>
       <c r="P440" s="36"/>
       <c r="Q440" s="36"/>
       <c r="R440" s="36"/>
@@ -17685,8 +17799,12 @@
       <c r="U440" s="36"/>
       <c r="V440" s="36"/>
       <c r="W440" s="36"/>
-    </row>
-    <row r="441" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X440" s="36"/>
+      <c r="Y440" s="36"/>
+      <c r="Z440" s="36"/>
+      <c r="AA440" s="36"/>
+    </row>
+    <row r="441" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="35">
         <v>43678.389131944445</v>
       </c>
@@ -17716,10 +17834,10 @@
       <c r="K441" s="40">
         <v>6800</v>
       </c>
-      <c r="L441" s="36"/>
-      <c r="M441" s="36"/>
-      <c r="N441" s="36"/>
-      <c r="O441" s="36"/>
+      <c r="L441" s="40"/>
+      <c r="M441" s="40"/>
+      <c r="N441" s="40"/>
+      <c r="O441" s="40"/>
       <c r="P441" s="36"/>
       <c r="Q441" s="36"/>
       <c r="R441" s="36"/>
@@ -17728,8 +17846,12 @@
       <c r="U441" s="36"/>
       <c r="V441" s="36"/>
       <c r="W441" s="36"/>
-    </row>
-    <row r="442" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X441" s="36"/>
+      <c r="Y441" s="36"/>
+      <c r="Z441" s="36"/>
+      <c r="AA441" s="36"/>
+    </row>
+    <row r="442" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="35">
         <v>43678.390729166669</v>
       </c>
@@ -17759,10 +17881,10 @@
       <c r="K442" s="40">
         <v>1750</v>
       </c>
-      <c r="L442" s="36"/>
-      <c r="M442" s="36"/>
-      <c r="N442" s="36"/>
-      <c r="O442" s="36"/>
+      <c r="L442" s="40"/>
+      <c r="M442" s="40"/>
+      <c r="N442" s="40"/>
+      <c r="O442" s="40"/>
       <c r="P442" s="36"/>
       <c r="Q442" s="36"/>
       <c r="R442" s="36"/>
@@ -17771,8 +17893,12 @@
       <c r="U442" s="36"/>
       <c r="V442" s="36"/>
       <c r="W442" s="36"/>
-    </row>
-    <row r="443" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X442" s="36"/>
+      <c r="Y442" s="36"/>
+      <c r="Z442" s="36"/>
+      <c r="AA442" s="36"/>
+    </row>
+    <row r="443" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="35">
         <v>43678.404270833336</v>
       </c>
@@ -17802,10 +17928,10 @@
       <c r="K443" s="40">
         <v>3900</v>
       </c>
-      <c r="L443" s="36"/>
-      <c r="M443" s="36"/>
-      <c r="N443" s="36"/>
-      <c r="O443" s="36"/>
+      <c r="L443" s="40"/>
+      <c r="M443" s="40"/>
+      <c r="N443" s="40"/>
+      <c r="O443" s="40"/>
       <c r="P443" s="36"/>
       <c r="Q443" s="36"/>
       <c r="R443" s="36"/>
@@ -17814,8 +17940,12 @@
       <c r="U443" s="36"/>
       <c r="V443" s="36"/>
       <c r="W443" s="36"/>
-    </row>
-    <row r="444" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X443" s="36"/>
+      <c r="Y443" s="36"/>
+      <c r="Z443" s="36"/>
+      <c r="AA443" s="36"/>
+    </row>
+    <row r="444" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="35">
         <v>43678.408738425926</v>
       </c>
@@ -17845,13 +17975,13 @@
       <c r="K444" s="40">
         <v>150</v>
       </c>
-      <c r="L444" s="40">
+      <c r="L444" s="40"/>
+      <c r="M444" s="40"/>
+      <c r="N444" s="40"/>
+      <c r="O444" s="40"/>
+      <c r="P444" s="40">
         <v>1181</v>
       </c>
-      <c r="M444" s="36"/>
-      <c r="N444" s="36"/>
-      <c r="O444" s="36"/>
-      <c r="P444" s="36"/>
       <c r="Q444" s="36"/>
       <c r="R444" s="36"/>
       <c r="S444" s="36"/>
@@ -17859,8 +17989,12 @@
       <c r="U444" s="36"/>
       <c r="V444" s="36"/>
       <c r="W444" s="36"/>
-    </row>
-    <row r="445" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X444" s="36"/>
+      <c r="Y444" s="36"/>
+      <c r="Z444" s="36"/>
+      <c r="AA444" s="36"/>
+    </row>
+    <row r="445" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="35">
         <v>43678.415671296294</v>
       </c>
@@ -17892,10 +18026,10 @@
       <c r="K445" s="40">
         <v>7000</v>
       </c>
-      <c r="L445" s="36"/>
-      <c r="M445" s="36"/>
-      <c r="N445" s="36"/>
-      <c r="O445" s="36"/>
+      <c r="L445" s="40"/>
+      <c r="M445" s="40"/>
+      <c r="N445" s="40"/>
+      <c r="O445" s="40"/>
       <c r="P445" s="36"/>
       <c r="Q445" s="36"/>
       <c r="R445" s="36"/>
@@ -17904,8 +18038,12 @@
       <c r="U445" s="36"/>
       <c r="V445" s="36"/>
       <c r="W445" s="36"/>
-    </row>
-    <row r="446" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X445" s="36"/>
+      <c r="Y445" s="36"/>
+      <c r="Z445" s="36"/>
+      <c r="AA445" s="36"/>
+    </row>
+    <row r="446" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="35">
         <v>43678.425798611112</v>
       </c>
@@ -17935,13 +18073,13 @@
       <c r="K446" s="40">
         <v>150</v>
       </c>
-      <c r="L446" s="40">
+      <c r="L446" s="40"/>
+      <c r="M446" s="40"/>
+      <c r="N446" s="40"/>
+      <c r="O446" s="40"/>
+      <c r="P446" s="40">
         <v>2008</v>
       </c>
-      <c r="M446" s="36"/>
-      <c r="N446" s="36"/>
-      <c r="O446" s="36"/>
-      <c r="P446" s="36"/>
       <c r="Q446" s="36"/>
       <c r="R446" s="36"/>
       <c r="S446" s="36"/>
@@ -17949,8 +18087,12 @@
       <c r="U446" s="36"/>
       <c r="V446" s="36"/>
       <c r="W446" s="36"/>
-    </row>
-    <row r="447" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X446" s="36"/>
+      <c r="Y446" s="36"/>
+      <c r="Z446" s="36"/>
+      <c r="AA446" s="36"/>
+    </row>
+    <row r="447" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="35">
         <v>43678.438703703701</v>
       </c>
@@ -17980,13 +18122,13 @@
       <c r="K447" s="40">
         <v>0</v>
       </c>
-      <c r="L447" s="40">
+      <c r="L447" s="40"/>
+      <c r="M447" s="40"/>
+      <c r="N447" s="40"/>
+      <c r="O447" s="40"/>
+      <c r="P447" s="40">
         <v>1206</v>
       </c>
-      <c r="M447" s="36"/>
-      <c r="N447" s="36"/>
-      <c r="O447" s="36"/>
-      <c r="P447" s="36"/>
       <c r="Q447" s="36"/>
       <c r="R447" s="36"/>
       <c r="S447" s="36"/>
@@ -17994,8 +18136,12 @@
       <c r="U447" s="36"/>
       <c r="V447" s="36"/>
       <c r="W447" s="36"/>
-    </row>
-    <row r="448" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X447" s="36"/>
+      <c r="Y447" s="36"/>
+      <c r="Z447" s="36"/>
+      <c r="AA447" s="36"/>
+    </row>
+    <row r="448" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="35">
         <v>43678.447800925926</v>
       </c>
@@ -18025,13 +18171,13 @@
       <c r="K448" s="40">
         <v>7500</v>
       </c>
-      <c r="L448" s="40">
+      <c r="L448" s="40"/>
+      <c r="M448" s="40"/>
+      <c r="N448" s="40"/>
+      <c r="O448" s="40"/>
+      <c r="P448" s="40">
         <v>3221</v>
       </c>
-      <c r="M448" s="36"/>
-      <c r="N448" s="36"/>
-      <c r="O448" s="36"/>
-      <c r="P448" s="36"/>
       <c r="Q448" s="36"/>
       <c r="R448" s="36"/>
       <c r="S448" s="36"/>
@@ -18039,8 +18185,12 @@
       <c r="U448" s="36"/>
       <c r="V448" s="36"/>
       <c r="W448" s="36"/>
-    </row>
-    <row r="449" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X448" s="36"/>
+      <c r="Y448" s="36"/>
+      <c r="Z448" s="36"/>
+      <c r="AA448" s="36"/>
+    </row>
+    <row r="449" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="35">
         <v>43678.504062499997</v>
       </c>
@@ -18070,13 +18220,13 @@
       <c r="K449" s="40">
         <v>7500</v>
       </c>
-      <c r="L449" s="40">
+      <c r="L449" s="40"/>
+      <c r="M449" s="40"/>
+      <c r="N449" s="40"/>
+      <c r="O449" s="40"/>
+      <c r="P449" s="40">
         <v>3221</v>
       </c>
-      <c r="M449" s="36"/>
-      <c r="N449" s="36"/>
-      <c r="O449" s="36"/>
-      <c r="P449" s="36"/>
       <c r="Q449" s="36"/>
       <c r="R449" s="36"/>
       <c r="S449" s="36"/>
@@ -18084,8 +18234,12 @@
       <c r="U449" s="36"/>
       <c r="V449" s="36"/>
       <c r="W449" s="36"/>
-    </row>
-    <row r="450" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X449" s="36"/>
+      <c r="Y449" s="36"/>
+      <c r="Z449" s="36"/>
+      <c r="AA449" s="36"/>
+    </row>
+    <row r="450" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="35">
         <v>43678.518854166665</v>
       </c>
@@ -18115,13 +18269,13 @@
       <c r="K450" s="40">
         <v>0</v>
       </c>
-      <c r="L450" s="40">
+      <c r="L450" s="40"/>
+      <c r="M450" s="40"/>
+      <c r="N450" s="40"/>
+      <c r="O450" s="40"/>
+      <c r="P450" s="40">
         <v>220</v>
       </c>
-      <c r="M450" s="36"/>
-      <c r="N450" s="36"/>
-      <c r="O450" s="36"/>
-      <c r="P450" s="36"/>
       <c r="Q450" s="36"/>
       <c r="R450" s="36"/>
       <c r="S450" s="36"/>
@@ -18129,8 +18283,12 @@
       <c r="U450" s="36"/>
       <c r="V450" s="36"/>
       <c r="W450" s="36"/>
-    </row>
-    <row r="451" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X450" s="36"/>
+      <c r="Y450" s="36"/>
+      <c r="Z450" s="36"/>
+      <c r="AA450" s="36"/>
+    </row>
+    <row r="451" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="35">
         <v>43678.522696759261</v>
       </c>
@@ -18160,13 +18318,13 @@
       <c r="K451" s="40">
         <v>0</v>
       </c>
-      <c r="L451" s="40">
+      <c r="L451" s="40"/>
+      <c r="M451" s="40"/>
+      <c r="N451" s="40"/>
+      <c r="O451" s="40"/>
+      <c r="P451" s="40">
         <v>1223</v>
       </c>
-      <c r="M451" s="36"/>
-      <c r="N451" s="36"/>
-      <c r="O451" s="36"/>
-      <c r="P451" s="36"/>
       <c r="Q451" s="36"/>
       <c r="R451" s="36"/>
       <c r="S451" s="36"/>
@@ -18174,8 +18332,12 @@
       <c r="U451" s="36"/>
       <c r="V451" s="36"/>
       <c r="W451" s="36"/>
-    </row>
-    <row r="452" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X451" s="36"/>
+      <c r="Y451" s="36"/>
+      <c r="Z451" s="36"/>
+      <c r="AA451" s="36"/>
+    </row>
+    <row r="452" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="35">
         <v>43678.557997685188</v>
       </c>
@@ -18205,13 +18367,13 @@
       <c r="K452" s="40">
         <v>0</v>
       </c>
-      <c r="L452" s="40">
+      <c r="L452" s="40"/>
+      <c r="M452" s="40"/>
+      <c r="N452" s="40"/>
+      <c r="O452" s="40"/>
+      <c r="P452" s="40">
         <v>1223</v>
       </c>
-      <c r="M452" s="36"/>
-      <c r="N452" s="36"/>
-      <c r="O452" s="36"/>
-      <c r="P452" s="36"/>
       <c r="Q452" s="36"/>
       <c r="R452" s="36"/>
       <c r="S452" s="36"/>
@@ -18219,8 +18381,12 @@
       <c r="U452" s="36"/>
       <c r="V452" s="36"/>
       <c r="W452" s="36"/>
-    </row>
-    <row r="453" spans="1:23" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X452" s="36"/>
+      <c r="Y452" s="36"/>
+      <c r="Z452" s="36"/>
+      <c r="AA452" s="36"/>
+    </row>
+    <row r="453" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="35">
         <v>43678.558668981481</v>
       </c>
@@ -18250,13 +18416,13 @@
       <c r="K453" s="40">
         <v>0</v>
       </c>
-      <c r="L453" s="40">
+      <c r="L453" s="40"/>
+      <c r="M453" s="40"/>
+      <c r="N453" s="40"/>
+      <c r="O453" s="40"/>
+      <c r="P453" s="40">
         <v>1082</v>
       </c>
-      <c r="M453" s="36"/>
-      <c r="N453" s="36"/>
-      <c r="O453" s="36"/>
-      <c r="P453" s="36"/>
       <c r="Q453" s="36"/>
       <c r="R453" s="36"/>
       <c r="S453" s="36"/>
@@ -18264,8 +18430,12 @@
       <c r="U453" s="36"/>
       <c r="V453" s="36"/>
       <c r="W453" s="36"/>
-    </row>
-    <row r="454" spans="1:23" s="34" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X453" s="36"/>
+      <c r="Y453" s="36"/>
+      <c r="Z453" s="36"/>
+      <c r="AA453" s="36"/>
+    </row>
+    <row r="454" spans="1:27" s="34" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="42">
         <v>43678.562905092593</v>
       </c>
@@ -18295,13 +18465,13 @@
       <c r="K454" s="46">
         <v>1760</v>
       </c>
-      <c r="L454" s="46">
+      <c r="L454" s="46"/>
+      <c r="M454" s="46"/>
+      <c r="N454" s="46"/>
+      <c r="O454" s="46"/>
+      <c r="P454" s="46">
         <v>595</v>
       </c>
-      <c r="M454" s="43"/>
-      <c r="N454" s="43"/>
-      <c r="O454" s="43"/>
-      <c r="P454" s="43"/>
       <c r="Q454" s="43"/>
       <c r="R454" s="43"/>
       <c r="S454" s="43"/>
@@ -18309,8 +18479,12 @@
       <c r="U454" s="43"/>
       <c r="V454" s="43"/>
       <c r="W454" s="43"/>
-    </row>
-    <row r="455" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X454" s="43"/>
+      <c r="Y454" s="43"/>
+      <c r="Z454" s="43"/>
+      <c r="AA454" s="43"/>
+    </row>
+    <row r="455" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="50">
         <v>43682.777913518519</v>
       </c>
@@ -18330,8 +18504,8 @@
         <v>88</v>
       </c>
       <c r="G455" s="47"/>
-      <c r="H455" s="48" t="s">
-        <v>515</v>
+      <c r="H455" s="48">
+        <v>2</v>
       </c>
       <c r="I455" s="47"/>
       <c r="J455" s="48">
@@ -18340,9 +18514,13 @@
       <c r="K455" s="48">
         <v>1630</v>
       </c>
-      <c r="L455" s="47"/>
-    </row>
-    <row r="456" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L455" s="48"/>
+      <c r="M455" s="48"/>
+      <c r="N455" s="48"/>
+      <c r="O455" s="48"/>
+      <c r="P455" s="47"/>
+    </row>
+    <row r="456" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="50">
         <v>43682.778779560183</v>
       </c>
@@ -18359,18 +18537,22 @@
         <v>26</v>
       </c>
       <c r="F456" s="48" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G456" s="47"/>
-      <c r="H456" s="48" t="s">
-        <v>517</v>
+      <c r="H456" s="48">
+        <v>2.7</v>
       </c>
       <c r="I456" s="47"/>
       <c r="J456" s="47"/>
       <c r="K456" s="47"/>
       <c r="L456" s="47"/>
-    </row>
-    <row r="457" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M456" s="47"/>
+      <c r="N456" s="47"/>
+      <c r="O456" s="47"/>
+      <c r="P456" s="47"/>
+    </row>
+    <row r="457" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="50">
         <v>43682.779449768517</v>
       </c>
@@ -18387,18 +18569,22 @@
         <v>26</v>
       </c>
       <c r="F457" s="48" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G457" s="47"/>
-      <c r="H457" s="48" t="s">
-        <v>517</v>
+      <c r="H457" s="48">
+        <v>2.7</v>
       </c>
       <c r="I457" s="47"/>
       <c r="J457" s="47"/>
       <c r="K457" s="47"/>
       <c r="L457" s="47"/>
-    </row>
-    <row r="458" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M457" s="47"/>
+      <c r="N457" s="47"/>
+      <c r="O457" s="47"/>
+      <c r="P457" s="47"/>
+    </row>
+    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="50">
         <v>43690.599835092595</v>
       </c>
@@ -18415,18 +18601,22 @@
         <v>342</v>
       </c>
       <c r="F458" s="48" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G458" s="49" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H458" s="47"/>
       <c r="I458" s="47"/>
       <c r="J458" s="47"/>
       <c r="K458" s="47"/>
       <c r="L458" s="47"/>
-    </row>
-    <row r="459" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M458" s="47"/>
+      <c r="N458" s="47"/>
+      <c r="O458" s="47"/>
+      <c r="P458" s="47"/>
+    </row>
+    <row r="459" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="50">
         <v>43691.339949675923</v>
       </c>
@@ -18443,10 +18633,10 @@
         <v>26</v>
       </c>
       <c r="F459" s="48" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G459" s="49" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H459" s="48">
         <v>2</v>
@@ -18458,9 +18648,13 @@
       <c r="K459" s="48">
         <v>3080</v>
       </c>
-      <c r="L459" s="47"/>
-    </row>
-    <row r="460" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L459" s="48"/>
+      <c r="M459" s="48"/>
+      <c r="N459" s="48"/>
+      <c r="O459" s="48"/>
+      <c r="P459" s="47"/>
+    </row>
+    <row r="460" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="50">
         <v>43691.373331574076</v>
       </c>
@@ -18490,9 +18684,13 @@
       <c r="K460" s="48">
         <v>110</v>
       </c>
-      <c r="L460" s="47"/>
-    </row>
-    <row r="461" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L460" s="48"/>
+      <c r="M460" s="48"/>
+      <c r="N460" s="48"/>
+      <c r="O460" s="48"/>
+      <c r="P460" s="47"/>
+    </row>
+    <row r="461" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="50">
         <v>43691.394918078702</v>
       </c>
@@ -18509,7 +18707,7 @@
         <v>26</v>
       </c>
       <c r="F461" s="48" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G461" s="47"/>
       <c r="H461" s="48">
@@ -18522,9 +18720,13 @@
       <c r="K461" s="48">
         <v>2080</v>
       </c>
-      <c r="L461" s="47"/>
-    </row>
-    <row r="462" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L461" s="48"/>
+      <c r="M461" s="48"/>
+      <c r="N461" s="48"/>
+      <c r="O461" s="48"/>
+      <c r="P461" s="47"/>
+    </row>
+    <row r="462" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="50">
         <v>43691.39618851852</v>
       </c>
@@ -18541,7 +18743,7 @@
         <v>67</v>
       </c>
       <c r="F462" s="48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G462" s="47"/>
       <c r="H462" s="48">
@@ -18554,9 +18756,13 @@
       <c r="K462" s="48">
         <v>0</v>
       </c>
-      <c r="L462" s="47"/>
-    </row>
-    <row r="463" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L462" s="48"/>
+      <c r="M462" s="48"/>
+      <c r="N462" s="48"/>
+      <c r="O462" s="48"/>
+      <c r="P462" s="47"/>
+    </row>
+    <row r="463" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="50">
         <v>43691.424711944448</v>
       </c>
@@ -18573,7 +18779,7 @@
         <v>69</v>
       </c>
       <c r="F463" s="48" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G463" s="47"/>
       <c r="H463" s="48">
@@ -18586,9 +18792,13 @@
       <c r="K463" s="48">
         <v>0</v>
       </c>
-      <c r="L463" s="47"/>
-    </row>
-    <row r="464" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L463" s="48"/>
+      <c r="M463" s="48"/>
+      <c r="N463" s="48"/>
+      <c r="O463" s="48"/>
+      <c r="P463" s="47"/>
+    </row>
+    <row r="464" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="50">
         <v>43691.489826134261</v>
       </c>
@@ -18618,9 +18828,13 @@
       <c r="K464" s="48">
         <v>0</v>
       </c>
-      <c r="L464" s="47"/>
-    </row>
-    <row r="465" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L464" s="48"/>
+      <c r="M464" s="48"/>
+      <c r="N464" s="48"/>
+      <c r="O464" s="48"/>
+      <c r="P464" s="47"/>
+    </row>
+    <row r="465" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="50">
         <v>43691.506360104162</v>
       </c>
@@ -18637,7 +18851,7 @@
         <v>67</v>
       </c>
       <c r="F465" s="48" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G465" s="47"/>
       <c r="H465" s="48">
@@ -18650,9 +18864,13 @@
       <c r="K465" s="48">
         <v>0</v>
       </c>
-      <c r="L465" s="47"/>
-    </row>
-    <row r="466" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L465" s="48"/>
+      <c r="M465" s="48"/>
+      <c r="N465" s="48"/>
+      <c r="O465" s="48"/>
+      <c r="P465" s="47"/>
+    </row>
+    <row r="466" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="50">
         <v>43691.514293182874</v>
       </c>
@@ -18672,8 +18890,8 @@
         <v>68</v>
       </c>
       <c r="G466" s="47"/>
-      <c r="H466" s="48" t="s">
-        <v>527</v>
+      <c r="H466" s="48">
+        <v>2.1</v>
       </c>
       <c r="I466" s="47"/>
       <c r="J466" s="48">
@@ -18682,9 +18900,13 @@
       <c r="K466" s="48">
         <v>1860</v>
       </c>
-      <c r="L466" s="47"/>
-    </row>
-    <row r="467" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L466" s="48"/>
+      <c r="M466" s="48"/>
+      <c r="N466" s="48"/>
+      <c r="O466" s="48"/>
+      <c r="P466" s="47"/>
+    </row>
+    <row r="467" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="50">
         <v>43691.51881627315</v>
       </c>
@@ -18704,8 +18926,8 @@
         <v>68</v>
       </c>
       <c r="G467" s="47"/>
-      <c r="H467" s="48" t="s">
-        <v>527</v>
+      <c r="H467" s="48">
+        <v>2.1</v>
       </c>
       <c r="I467" s="47"/>
       <c r="J467" s="48">
@@ -18714,9 +18936,13 @@
       <c r="K467" s="48">
         <v>1860</v>
       </c>
-      <c r="L467" s="47"/>
-    </row>
-    <row r="468" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L467" s="48"/>
+      <c r="M467" s="48"/>
+      <c r="N467" s="48"/>
+      <c r="O467" s="48"/>
+      <c r="P467" s="47"/>
+    </row>
+    <row r="468" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="50">
         <v>43691.596439664354</v>
       </c>
@@ -18746,11 +18972,15 @@
       <c r="K468" s="48">
         <v>0</v>
       </c>
-      <c r="L468" s="48">
+      <c r="L468" s="48"/>
+      <c r="M468" s="48"/>
+      <c r="N468" s="48"/>
+      <c r="O468" s="48"/>
+      <c r="P468" s="48">
         <v>1680</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="50">
         <v>43691.597206006947</v>
       </c>
@@ -18780,11 +19010,15 @@
       <c r="K469" s="48">
         <v>450</v>
       </c>
-      <c r="L469" s="48">
+      <c r="L469" s="48"/>
+      <c r="M469" s="48"/>
+      <c r="N469" s="48"/>
+      <c r="O469" s="48"/>
+      <c r="P469" s="48">
         <v>803</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="50">
         <v>43691.5980102662</v>
       </c>
@@ -18814,11 +19048,15 @@
       <c r="K470" s="48">
         <v>180</v>
       </c>
-      <c r="L470" s="48">
+      <c r="L470" s="48"/>
+      <c r="M470" s="48"/>
+      <c r="N470" s="48"/>
+      <c r="O470" s="48"/>
+      <c r="P470" s="48">
         <v>21.76</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="50">
         <v>43691.598903634258</v>
       </c>
@@ -18848,11 +19086,15 @@
       <c r="K471" s="48">
         <v>0</v>
       </c>
-      <c r="L471" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L471" s="48"/>
+      <c r="M471" s="48"/>
+      <c r="N471" s="48"/>
+      <c r="O471" s="48"/>
+      <c r="P471" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="50">
         <v>43691.600111724532</v>
       </c>
@@ -18882,11 +19124,15 @@
       <c r="K472" s="48">
         <v>0</v>
       </c>
-      <c r="L472" s="48">
+      <c r="L472" s="48"/>
+      <c r="M472" s="48"/>
+      <c r="N472" s="48"/>
+      <c r="O472" s="48"/>
+      <c r="P472" s="48">
         <v>952</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="50">
         <v>43691.601184791667</v>
       </c>
@@ -18903,7 +19149,7 @@
         <v>67</v>
       </c>
       <c r="F473" s="48" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G473" s="47"/>
       <c r="H473" s="48">
@@ -18916,11 +19162,15 @@
       <c r="K473" s="48">
         <v>0</v>
       </c>
-      <c r="L473" s="48">
+      <c r="L473" s="48"/>
+      <c r="M473" s="48"/>
+      <c r="N473" s="48"/>
+      <c r="O473" s="48"/>
+      <c r="P473" s="48">
         <v>972</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="50">
         <v>43691.602001550928</v>
       </c>
@@ -18941,7 +19191,7 @@
       </c>
       <c r="G474" s="47"/>
       <c r="H474" s="48">
-        <v>-999999</v>
+        <v>0</v>
       </c>
       <c r="I474" s="47"/>
       <c r="J474" s="48">
@@ -18950,11 +19200,13 @@
       <c r="K474" s="48">
         <v>0</v>
       </c>
-      <c r="L474" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L474" s="48"/>
+      <c r="M474" s="48"/>
+      <c r="N474" s="48"/>
+      <c r="O474" s="48"/>
+      <c r="P474" s="48"/>
+    </row>
+    <row r="475" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="50">
         <v>43691.603076168976</v>
       </c>
@@ -18984,11 +19236,15 @@
       <c r="K475" s="48">
         <v>4200</v>
       </c>
-      <c r="L475" s="48">
+      <c r="L475" s="48"/>
+      <c r="M475" s="48"/>
+      <c r="N475" s="48"/>
+      <c r="O475" s="48"/>
+      <c r="P475" s="48">
         <v>1824</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="50">
         <v>43691.604055567128</v>
       </c>
@@ -19018,11 +19274,15 @@
       <c r="K476" s="48">
         <v>0</v>
       </c>
-      <c r="L476" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L476" s="48"/>
+      <c r="M476" s="48"/>
+      <c r="N476" s="48"/>
+      <c r="O476" s="48"/>
+      <c r="P476" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="50">
         <v>43691.60501457176</v>
       </c>
@@ -19052,11 +19312,15 @@
       <c r="K477" s="48">
         <v>530</v>
       </c>
-      <c r="L477" s="48">
+      <c r="L477" s="48"/>
+      <c r="M477" s="48"/>
+      <c r="N477" s="48"/>
+      <c r="O477" s="48"/>
+      <c r="P477" s="48">
         <v>1697</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="50">
         <v>43691.605919074078</v>
       </c>
@@ -19086,11 +19350,15 @@
       <c r="K478" s="48">
         <v>2050</v>
       </c>
-      <c r="L478" s="48">
+      <c r="L478" s="48"/>
+      <c r="M478" s="48"/>
+      <c r="N478" s="48"/>
+      <c r="O478" s="48"/>
+      <c r="P478" s="48">
         <v>984</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="50">
         <v>43692.367938946758</v>
       </c>
@@ -19107,7 +19375,7 @@
         <v>26</v>
       </c>
       <c r="F479" s="48" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G479" s="47"/>
       <c r="H479" s="47"/>
@@ -19115,8 +19383,12 @@
       <c r="J479" s="47"/>
       <c r="K479" s="47"/>
       <c r="L479" s="47"/>
-    </row>
-    <row r="480" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M479" s="47"/>
+      <c r="N479" s="47"/>
+      <c r="O479" s="47"/>
+      <c r="P479" s="47"/>
+    </row>
+    <row r="480" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="50">
         <v>43692.372533090282</v>
       </c>
@@ -19133,7 +19405,7 @@
         <v>26</v>
       </c>
       <c r="F480" s="48" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G480" s="47"/>
       <c r="H480" s="48">
@@ -19146,9 +19418,13 @@
       <c r="K480" s="48">
         <v>2720</v>
       </c>
-      <c r="L480" s="47"/>
-    </row>
-    <row r="481" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L480" s="48"/>
+      <c r="M480" s="48"/>
+      <c r="N480" s="48"/>
+      <c r="O480" s="48"/>
+      <c r="P480" s="47"/>
+    </row>
+    <row r="481" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="50">
         <v>43692.377542754628</v>
       </c>
@@ -19178,11 +19454,15 @@
       <c r="K481" s="48">
         <v>3280</v>
       </c>
-      <c r="L481" s="48">
+      <c r="L481" s="48"/>
+      <c r="M481" s="48"/>
+      <c r="N481" s="48"/>
+      <c r="O481" s="48"/>
+      <c r="P481" s="48">
         <v>958</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="50">
         <v>43692.379023622685</v>
       </c>
@@ -19202,7 +19482,7 @@
         <v>68</v>
       </c>
       <c r="G482" s="49" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H482" s="48">
         <v>2.6</v>
@@ -19213,8 +19493,12 @@
       </c>
       <c r="K482" s="47"/>
       <c r="L482" s="47"/>
-    </row>
-    <row r="483" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M482" s="47"/>
+      <c r="N482" s="47"/>
+      <c r="O482" s="47"/>
+      <c r="P482" s="47"/>
+    </row>
+    <row r="483" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="50">
         <v>43692.380487881943</v>
       </c>
@@ -19231,7 +19515,7 @@
         <v>26</v>
       </c>
       <c r="F483" s="48" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G483" s="47"/>
       <c r="H483" s="48">
@@ -19244,9 +19528,13 @@
       <c r="K483" s="48">
         <v>2790</v>
       </c>
-      <c r="L483" s="47"/>
-    </row>
-    <row r="484" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L483" s="48"/>
+      <c r="M483" s="48"/>
+      <c r="N483" s="48"/>
+      <c r="O483" s="48"/>
+      <c r="P483" s="47"/>
+    </row>
+    <row r="484" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="50">
         <v>43692.3812071875</v>
       </c>
@@ -19263,7 +19551,7 @@
         <v>26</v>
       </c>
       <c r="F484" s="48" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G484" s="47"/>
       <c r="H484" s="48">
@@ -19276,9 +19564,13 @@
       <c r="K484" s="48">
         <v>0</v>
       </c>
-      <c r="L484" s="47"/>
-    </row>
-    <row r="485" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L484" s="48"/>
+      <c r="M484" s="48"/>
+      <c r="N484" s="48"/>
+      <c r="O484" s="48"/>
+      <c r="P484" s="47"/>
+    </row>
+    <row r="485" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="50">
         <v>43692.390820451386</v>
       </c>
@@ -19308,11 +19600,15 @@
       <c r="K485" s="48">
         <v>6900</v>
       </c>
-      <c r="L485" s="48">
+      <c r="L485" s="48"/>
+      <c r="M485" s="48"/>
+      <c r="N485" s="48"/>
+      <c r="O485" s="48"/>
+      <c r="P485" s="48">
         <v>2664</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="50">
         <v>43692.397829791662</v>
       </c>
@@ -19342,11 +19638,15 @@
       <c r="K486" s="48">
         <v>6.5</v>
       </c>
-      <c r="L486" s="48">
+      <c r="L486" s="48"/>
+      <c r="M486" s="48"/>
+      <c r="N486" s="48"/>
+      <c r="O486" s="48"/>
+      <c r="P486" s="48">
         <v>2377</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="50">
         <v>43692.407183854171</v>
       </c>
@@ -19363,7 +19663,7 @@
         <v>26</v>
       </c>
       <c r="F487" s="48" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G487" s="47"/>
       <c r="H487" s="48">
@@ -19376,9 +19676,13 @@
       <c r="K487" s="48">
         <v>270</v>
       </c>
-      <c r="L487" s="47"/>
-    </row>
-    <row r="488" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L487" s="48"/>
+      <c r="M487" s="48"/>
+      <c r="N487" s="48"/>
+      <c r="O487" s="48"/>
+      <c r="P487" s="47"/>
+    </row>
+    <row r="488" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="50">
         <v>43692.410219247686</v>
       </c>
@@ -19408,11 +19712,15 @@
       <c r="K488" s="48">
         <v>0</v>
       </c>
-      <c r="L488" s="48">
+      <c r="L488" s="48"/>
+      <c r="M488" s="48"/>
+      <c r="N488" s="48"/>
+      <c r="O488" s="48"/>
+      <c r="P488" s="48">
         <v>1788</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="50">
         <v>43692.427920914357</v>
       </c>
@@ -19429,11 +19737,11 @@
         <v>26</v>
       </c>
       <c r="F489" s="48" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G489" s="47"/>
-      <c r="H489" s="48" t="s">
-        <v>536</v>
+      <c r="H489" s="48">
+        <v>6.3</v>
       </c>
       <c r="I489" s="47"/>
       <c r="J489" s="48">
@@ -19442,9 +19750,13 @@
       <c r="K489" s="48">
         <v>5500</v>
       </c>
-      <c r="L489" s="47"/>
-    </row>
-    <row r="490" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L489" s="48"/>
+      <c r="M489" s="48"/>
+      <c r="N489" s="48"/>
+      <c r="O489" s="48"/>
+      <c r="P489" s="47"/>
+    </row>
+    <row r="490" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="50">
         <v>43692.42957310185</v>
       </c>
@@ -19461,7 +19773,7 @@
         <v>26</v>
       </c>
       <c r="F490" s="48" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G490" s="47"/>
       <c r="H490" s="48">
@@ -19471,8 +19783,12 @@
       <c r="J490" s="47"/>
       <c r="K490" s="47"/>
       <c r="L490" s="47"/>
-    </row>
-    <row r="491" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M490" s="47"/>
+      <c r="N490" s="47"/>
+      <c r="O490" s="47"/>
+      <c r="P490" s="47"/>
+    </row>
+    <row r="491" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="50">
         <v>43692.433171793979</v>
       </c>
@@ -19502,11 +19818,15 @@
       <c r="K491" s="48">
         <v>0</v>
       </c>
-      <c r="L491" s="48">
+      <c r="L491" s="48"/>
+      <c r="M491" s="48"/>
+      <c r="N491" s="48"/>
+      <c r="O491" s="48"/>
+      <c r="P491" s="48">
         <v>425</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="50">
         <v>43692.433813854164</v>
       </c>
@@ -19534,11 +19854,15 @@
       <c r="K492" s="48">
         <v>0</v>
       </c>
-      <c r="L492" s="48">
+      <c r="L492" s="48"/>
+      <c r="M492" s="48"/>
+      <c r="N492" s="48"/>
+      <c r="O492" s="48"/>
+      <c r="P492" s="48">
         <v>924</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="50">
         <v>43692.442683981484</v>
       </c>
@@ -19568,11 +19892,15 @@
       <c r="K493" s="48">
         <v>0</v>
       </c>
-      <c r="L493" s="48">
+      <c r="L493" s="48"/>
+      <c r="M493" s="48"/>
+      <c r="N493" s="48"/>
+      <c r="O493" s="48"/>
+      <c r="P493" s="48">
         <v>1841</v>
       </c>
     </row>
-    <row r="494" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="50">
         <v>43692.449830659723</v>
       </c>
@@ -19589,7 +19917,7 @@
         <v>26</v>
       </c>
       <c r="F494" s="48" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G494" s="47"/>
       <c r="H494" s="48">
@@ -19602,9 +19930,13 @@
       <c r="K494" s="48">
         <v>3200</v>
       </c>
-      <c r="L494" s="47"/>
-    </row>
-    <row r="495" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L494" s="48"/>
+      <c r="M494" s="48"/>
+      <c r="N494" s="48"/>
+      <c r="O494" s="48"/>
+      <c r="P494" s="47"/>
+    </row>
+    <row r="495" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="50">
         <v>43692.451401238424</v>
       </c>
@@ -19634,11 +19966,15 @@
       <c r="K495" s="48">
         <v>0</v>
       </c>
-      <c r="L495" s="48">
+      <c r="L495" s="48"/>
+      <c r="M495" s="48"/>
+      <c r="N495" s="48"/>
+      <c r="O495" s="48"/>
+      <c r="P495" s="48">
         <v>1871</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="50">
         <v>43692.462810173616</v>
       </c>
@@ -19655,7 +19991,7 @@
         <v>26</v>
       </c>
       <c r="F496" s="48" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G496" s="47"/>
       <c r="H496" s="48">
@@ -19668,9 +20004,13 @@
       <c r="K496" s="48">
         <v>2450</v>
       </c>
-      <c r="L496" s="47"/>
-    </row>
-    <row r="497" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L496" s="48"/>
+      <c r="M496" s="48"/>
+      <c r="N496" s="48"/>
+      <c r="O496" s="48"/>
+      <c r="P496" s="47"/>
+    </row>
+    <row r="497" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="50">
         <v>43692.461284398145</v>
       </c>
@@ -19700,9 +20040,13 @@
       <c r="K497" s="48">
         <v>170</v>
       </c>
-      <c r="L497" s="47"/>
-    </row>
-    <row r="498" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L497" s="48"/>
+      <c r="M497" s="48"/>
+      <c r="N497" s="48"/>
+      <c r="O497" s="48"/>
+      <c r="P497" s="47"/>
+    </row>
+    <row r="498" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="50">
         <v>43692.463983391208</v>
       </c>
@@ -19719,10 +20063,10 @@
         <v>26</v>
       </c>
       <c r="F498" s="48" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G498" s="49" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H498" s="48">
         <v>15</v>
@@ -19734,11 +20078,15 @@
       <c r="K498" s="48">
         <v>7000</v>
       </c>
-      <c r="L498" s="48">
+      <c r="L498" s="48"/>
+      <c r="M498" s="48"/>
+      <c r="N498" s="48"/>
+      <c r="O498" s="48"/>
+      <c r="P498" s="48">
         <v>700</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="50">
         <v>43692.475208067131</v>
       </c>
@@ -19755,11 +20103,11 @@
         <v>26</v>
       </c>
       <c r="F499" s="48" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G499" s="47"/>
-      <c r="H499" s="48" t="s">
-        <v>543</v>
+      <c r="H499" s="48">
+        <v>4.5</v>
       </c>
       <c r="I499" s="47"/>
       <c r="J499" s="48">
@@ -19768,9 +20116,13 @@
       <c r="K499" s="48">
         <v>4800</v>
       </c>
-      <c r="L499" s="47"/>
-    </row>
-    <row r="500" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L499" s="48"/>
+      <c r="M499" s="48"/>
+      <c r="N499" s="48"/>
+      <c r="O499" s="48"/>
+      <c r="P499" s="47"/>
+    </row>
+    <row r="500" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="50">
         <v>43692.476492175927</v>
       </c>
@@ -19800,11 +20152,15 @@
       <c r="K500" s="48">
         <v>3920</v>
       </c>
-      <c r="L500" s="48">
+      <c r="L500" s="48"/>
+      <c r="M500" s="48"/>
+      <c r="N500" s="48"/>
+      <c r="O500" s="48"/>
+      <c r="P500" s="48">
         <v>1770</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="50">
         <v>43692.478615173612</v>
       </c>
@@ -19821,7 +20177,7 @@
         <v>26</v>
       </c>
       <c r="F501" s="48" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G501" s="47"/>
       <c r="H501" s="48">
@@ -19834,9 +20190,13 @@
       <c r="K501" s="48">
         <v>3280</v>
       </c>
-      <c r="L501" s="47"/>
-    </row>
-    <row r="502" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L501" s="48"/>
+      <c r="M501" s="48"/>
+      <c r="N501" s="48"/>
+      <c r="O501" s="48"/>
+      <c r="P501" s="47"/>
+    </row>
+    <row r="502" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="50">
         <v>43692.528978958333</v>
       </c>
@@ -19866,11 +20226,15 @@
       <c r="K502" s="48">
         <v>0</v>
       </c>
-      <c r="L502" s="48">
+      <c r="L502" s="48"/>
+      <c r="M502" s="48"/>
+      <c r="N502" s="48"/>
+      <c r="O502" s="48"/>
+      <c r="P502" s="48">
         <v>945</v>
       </c>
     </row>
-    <row r="503" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="50">
         <v>43692.533412048608</v>
       </c>
@@ -19887,7 +20251,7 @@
         <v>67</v>
       </c>
       <c r="F503" s="48" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G503" s="47"/>
       <c r="H503" s="48">
@@ -19900,11 +20264,15 @@
       <c r="K503" s="48">
         <v>0</v>
       </c>
-      <c r="L503" s="48">
+      <c r="L503" s="48"/>
+      <c r="M503" s="48"/>
+      <c r="N503" s="48"/>
+      <c r="O503" s="48"/>
+      <c r="P503" s="48">
         <v>1007</v>
       </c>
     </row>
-    <row r="504" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="50">
         <v>43697.633825567129</v>
       </c>
@@ -19921,7 +20289,7 @@
         <v>26</v>
       </c>
       <c r="F504" s="48" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G504" s="47"/>
       <c r="H504" s="48">
@@ -19931,8 +20299,12 @@
       <c r="J504" s="47"/>
       <c r="K504" s="47"/>
       <c r="L504" s="47"/>
-    </row>
-    <row r="505" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M504" s="47"/>
+      <c r="N504" s="47"/>
+      <c r="O504" s="47"/>
+      <c r="P504" s="47"/>
+    </row>
+    <row r="505" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="50">
         <v>43699.523277916669</v>
       </c>
@@ -19949,10 +20321,10 @@
         <v>26</v>
       </c>
       <c r="F505" s="48" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G505" s="49" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H505" s="48">
         <v>0.5</v>
@@ -19961,8 +20333,12 @@
       <c r="J505" s="47"/>
       <c r="K505" s="47"/>
       <c r="L505" s="47"/>
-    </row>
-    <row r="506" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M505" s="47"/>
+      <c r="N505" s="47"/>
+      <c r="O505" s="47"/>
+      <c r="P505" s="47"/>
+    </row>
+    <row r="506" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="50">
         <v>43699.54147059028</v>
       </c>
@@ -19979,10 +20355,10 @@
         <v>26</v>
       </c>
       <c r="F506" s="48" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G506" s="49" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H506" s="48">
         <v>0.3</v>
@@ -19991,8 +20367,12 @@
       <c r="J506" s="47"/>
       <c r="K506" s="47"/>
       <c r="L506" s="47"/>
-    </row>
-    <row r="507" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M506" s="47"/>
+      <c r="N506" s="47"/>
+      <c r="O506" s="47"/>
+      <c r="P506" s="47"/>
+    </row>
+    <row r="507" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="50">
         <v>43699.558889918982</v>
       </c>
@@ -20009,7 +20389,7 @@
         <v>26</v>
       </c>
       <c r="F507" s="48" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G507" s="47"/>
       <c r="H507" s="48">
@@ -20019,8 +20399,12 @@
       <c r="J507" s="47"/>
       <c r="K507" s="47"/>
       <c r="L507" s="47"/>
-    </row>
-    <row r="508" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M507" s="47"/>
+      <c r="N507" s="47"/>
+      <c r="O507" s="47"/>
+      <c r="P507" s="47"/>
+    </row>
+    <row r="508" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="50">
         <v>43699.559643067128</v>
       </c>
@@ -20040,15 +20424,19 @@
         <v>68</v>
       </c>
       <c r="G508" s="49" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H508" s="47"/>
       <c r="I508" s="47"/>
       <c r="J508" s="47"/>
       <c r="K508" s="47"/>
       <c r="L508" s="47"/>
-    </row>
-    <row r="509" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M508" s="47"/>
+      <c r="N508" s="47"/>
+      <c r="O508" s="47"/>
+      <c r="P508" s="47"/>
+    </row>
+    <row r="509" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="50">
         <v>43705.370988078706</v>
       </c>
@@ -20065,7 +20453,7 @@
         <v>26</v>
       </c>
       <c r="F509" s="48" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G509" s="47"/>
       <c r="H509" s="48">
@@ -20078,9 +20466,13 @@
       <c r="K509" s="48">
         <v>2830</v>
       </c>
-      <c r="L509" s="47"/>
-    </row>
-    <row r="510" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L509" s="48"/>
+      <c r="M509" s="48"/>
+      <c r="N509" s="48"/>
+      <c r="O509" s="48"/>
+      <c r="P509" s="47"/>
+    </row>
+    <row r="510" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="50">
         <v>43705.372949259261</v>
       </c>
@@ -20107,8 +20499,12 @@
       <c r="J510" s="47"/>
       <c r="K510" s="47"/>
       <c r="L510" s="47"/>
-    </row>
-    <row r="511" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M510" s="47"/>
+      <c r="N510" s="47"/>
+      <c r="O510" s="47"/>
+      <c r="P510" s="47"/>
+    </row>
+    <row r="511" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="50">
         <v>43705.376371076389</v>
       </c>
@@ -20125,7 +20521,7 @@
         <v>26</v>
       </c>
       <c r="F511" s="48" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G511" s="47"/>
       <c r="H511" s="48">
@@ -20135,8 +20531,12 @@
       <c r="J511" s="47"/>
       <c r="K511" s="47"/>
       <c r="L511" s="47"/>
-    </row>
-    <row r="512" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M511" s="47"/>
+      <c r="N511" s="47"/>
+      <c r="O511" s="47"/>
+      <c r="P511" s="47"/>
+    </row>
+    <row r="512" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="50">
         <v>43705.378924803241</v>
       </c>
@@ -20166,11 +20566,15 @@
       <c r="K512" s="48">
         <v>3900</v>
       </c>
-      <c r="L512" s="48">
+      <c r="L512" s="48"/>
+      <c r="M512" s="48"/>
+      <c r="N512" s="48"/>
+      <c r="O512" s="48"/>
+      <c r="P512" s="48">
         <v>3115</v>
       </c>
     </row>
-    <row r="513" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="50">
         <v>43705.392387824075</v>
       </c>
@@ -20200,11 +20604,15 @@
       <c r="K513" s="48">
         <v>8200</v>
       </c>
-      <c r="L513" s="48">
+      <c r="L513" s="48"/>
+      <c r="M513" s="48"/>
+      <c r="N513" s="48"/>
+      <c r="O513" s="48"/>
+      <c r="P513" s="48">
         <v>2608</v>
       </c>
     </row>
-    <row r="514" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="50">
         <v>43705.39862472222</v>
       </c>
@@ -20234,11 +20642,15 @@
       <c r="K514" s="48">
         <v>8300</v>
       </c>
-      <c r="L514" s="48">
+      <c r="L514" s="48"/>
+      <c r="M514" s="48"/>
+      <c r="N514" s="48"/>
+      <c r="O514" s="48"/>
+      <c r="P514" s="48">
         <v>2309</v>
       </c>
     </row>
-    <row r="515" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="50">
         <v>43705.408660706016</v>
       </c>
@@ -20255,7 +20667,7 @@
         <v>26</v>
       </c>
       <c r="F515" s="48" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G515" s="47"/>
       <c r="H515" s="48">
@@ -20268,9 +20680,13 @@
       <c r="K515" s="48">
         <v>2180</v>
       </c>
-      <c r="L515" s="47"/>
-    </row>
-    <row r="516" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L515" s="48"/>
+      <c r="M515" s="48"/>
+      <c r="N515" s="48"/>
+      <c r="O515" s="48"/>
+      <c r="P515" s="47"/>
+    </row>
+    <row r="516" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="50">
         <v>43705.411271076387</v>
       </c>
@@ -20300,11 +20716,15 @@
       <c r="K516" s="48">
         <v>0</v>
       </c>
-      <c r="L516" s="48">
+      <c r="L516" s="48"/>
+      <c r="M516" s="48"/>
+      <c r="N516" s="48"/>
+      <c r="O516" s="48"/>
+      <c r="P516" s="48">
         <v>1438</v>
       </c>
     </row>
-    <row r="517" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="50">
         <v>43705.425978310188</v>
       </c>
@@ -20334,9 +20754,13 @@
       <c r="K517" s="48">
         <v>350</v>
       </c>
-      <c r="L517" s="47"/>
-    </row>
-    <row r="518" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L517" s="48"/>
+      <c r="M517" s="48"/>
+      <c r="N517" s="48"/>
+      <c r="O517" s="48"/>
+      <c r="P517" s="47"/>
+    </row>
+    <row r="518" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="50">
         <v>43705.434570497688</v>
       </c>
@@ -20353,7 +20777,7 @@
         <v>67</v>
       </c>
       <c r="F518" s="48" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G518" s="47"/>
       <c r="H518" s="48">
@@ -20366,11 +20790,15 @@
       <c r="K518" s="48">
         <v>0</v>
       </c>
-      <c r="L518" s="48">
+      <c r="L518" s="48"/>
+      <c r="M518" s="48"/>
+      <c r="N518" s="48"/>
+      <c r="O518" s="48"/>
+      <c r="P518" s="48">
         <v>1163</v>
       </c>
     </row>
-    <row r="519" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="50">
         <v>43705.435256539349</v>
       </c>
@@ -20400,11 +20828,15 @@
       <c r="K519" s="48">
         <v>0</v>
       </c>
-      <c r="L519" s="48">
+      <c r="L519" s="48"/>
+      <c r="M519" s="48"/>
+      <c r="N519" s="48"/>
+      <c r="O519" s="48"/>
+      <c r="P519" s="48">
         <v>756</v>
       </c>
     </row>
-    <row r="520" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="50">
         <v>43705.44299030093</v>
       </c>
@@ -20434,11 +20866,15 @@
       <c r="K520" s="48">
         <v>0</v>
       </c>
-      <c r="L520" s="48">
+      <c r="L520" s="48"/>
+      <c r="M520" s="48"/>
+      <c r="N520" s="48"/>
+      <c r="O520" s="48"/>
+      <c r="P520" s="48">
         <v>3861</v>
       </c>
     </row>
-    <row r="521" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="50">
         <v>43705.471227407412</v>
       </c>
@@ -20468,11 +20904,15 @@
       <c r="K521" s="48">
         <v>0</v>
       </c>
-      <c r="L521" s="48">
+      <c r="L521" s="48"/>
+      <c r="M521" s="48"/>
+      <c r="N521" s="48"/>
+      <c r="O521" s="48"/>
+      <c r="P521" s="48">
         <v>1316</v>
       </c>
     </row>
-    <row r="522" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="50">
         <v>43705.473228344912</v>
       </c>
@@ -20502,9 +20942,13 @@
       <c r="K522" s="48">
         <v>0</v>
       </c>
-      <c r="L522" s="47"/>
-    </row>
-    <row r="523" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L522" s="48"/>
+      <c r="M522" s="48"/>
+      <c r="N522" s="48"/>
+      <c r="O522" s="48"/>
+      <c r="P522" s="47"/>
+    </row>
+    <row r="523" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="50">
         <v>43705.483661712962</v>
       </c>
@@ -20534,11 +20978,15 @@
       <c r="K523" s="48">
         <v>290</v>
       </c>
-      <c r="L523" s="48">
+      <c r="L523" s="48"/>
+      <c r="M523" s="48"/>
+      <c r="N523" s="48"/>
+      <c r="O523" s="48"/>
+      <c r="P523" s="48">
         <v>1673</v>
       </c>
     </row>
-    <row r="524" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="50">
         <v>43705.501952418985</v>
       </c>
@@ -20568,9 +21016,13 @@
       <c r="K524" s="48">
         <v>0</v>
       </c>
-      <c r="L524" s="47"/>
-    </row>
-    <row r="525" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L524" s="48"/>
+      <c r="M524" s="48"/>
+      <c r="N524" s="48"/>
+      <c r="O524" s="48"/>
+      <c r="P524" s="47"/>
+    </row>
+    <row r="525" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="50">
         <v>43705.509559247686</v>
       </c>
@@ -20600,9 +21052,13 @@
       <c r="K525" s="48">
         <v>2460</v>
       </c>
-      <c r="L525" s="47"/>
-    </row>
-    <row r="526" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L525" s="48"/>
+      <c r="M525" s="48"/>
+      <c r="N525" s="48"/>
+      <c r="O525" s="48"/>
+      <c r="P525" s="47"/>
+    </row>
+    <row r="526" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="50">
         <v>43705.530956238421</v>
       </c>
@@ -20632,11 +21088,15 @@
       <c r="K526" s="48">
         <v>0</v>
       </c>
-      <c r="L526" s="48">
+      <c r="L526" s="48"/>
+      <c r="M526" s="48"/>
+      <c r="N526" s="48"/>
+      <c r="O526" s="48"/>
+      <c r="P526" s="48">
         <v>1150</v>
       </c>
     </row>
-    <row r="527" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="50">
         <v>43706.348805081019</v>
       </c>
@@ -20666,9 +21126,13 @@
       <c r="K527" s="48">
         <v>2090</v>
       </c>
-      <c r="L527" s="47"/>
-    </row>
-    <row r="528" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L527" s="48"/>
+      <c r="M527" s="48"/>
+      <c r="N527" s="48"/>
+      <c r="O527" s="48"/>
+      <c r="P527" s="47"/>
+    </row>
+    <row r="528" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="50">
         <v>43706.382609594904</v>
       </c>
@@ -20685,7 +21149,7 @@
         <v>26</v>
       </c>
       <c r="F528" s="48" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G528" s="47"/>
       <c r="H528" s="48">
@@ -20698,11 +21162,15 @@
       <c r="K528" s="48">
         <v>270</v>
       </c>
-      <c r="L528" s="48">
+      <c r="L528" s="48"/>
+      <c r="M528" s="48"/>
+      <c r="N528" s="48"/>
+      <c r="O528" s="48"/>
+      <c r="P528" s="48">
         <v>1105</v>
       </c>
     </row>
-    <row r="529" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="50">
         <v>43706.384346469902</v>
       </c>
@@ -20732,11 +21200,15 @@
       <c r="K529" s="48">
         <v>0</v>
       </c>
-      <c r="L529" s="48">
+      <c r="L529" s="48"/>
+      <c r="M529" s="48"/>
+      <c r="N529" s="48"/>
+      <c r="O529" s="48"/>
+      <c r="P529" s="48">
         <v>217</v>
       </c>
     </row>
-    <row r="530" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="50">
         <v>43706.407752962958</v>
       </c>
@@ -20756,15 +21228,19 @@
         <v>68</v>
       </c>
       <c r="G530" s="49" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H530" s="47"/>
       <c r="I530" s="47"/>
       <c r="J530" s="47"/>
       <c r="K530" s="47"/>
       <c r="L530" s="47"/>
-    </row>
-    <row r="531" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M530" s="47"/>
+      <c r="N530" s="47"/>
+      <c r="O530" s="47"/>
+      <c r="P530" s="47"/>
+    </row>
+    <row r="531" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="50">
         <v>43706.410311493055</v>
       </c>
@@ -20794,9 +21270,13 @@
       <c r="K531" s="48">
         <v>1720</v>
       </c>
-      <c r="L531" s="47"/>
-    </row>
-    <row r="532" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L531" s="48"/>
+      <c r="M531" s="48"/>
+      <c r="N531" s="48"/>
+      <c r="O531" s="48"/>
+      <c r="P531" s="47"/>
+    </row>
+    <row r="532" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="50">
         <v>43706.414096319444</v>
       </c>
@@ -20826,11 +21306,15 @@
       <c r="K532" s="48">
         <v>0</v>
       </c>
-      <c r="L532" s="48">
+      <c r="L532" s="48"/>
+      <c r="M532" s="48"/>
+      <c r="N532" s="48"/>
+      <c r="O532" s="48"/>
+      <c r="P532" s="48">
         <v>930</v>
       </c>
     </row>
-    <row r="533" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="50">
         <v>43706.430059513892</v>
       </c>
@@ -20860,9 +21344,13 @@
       <c r="K533" s="48">
         <v>6500</v>
       </c>
-      <c r="L533" s="47"/>
-    </row>
-    <row r="534" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L533" s="48"/>
+      <c r="M533" s="48"/>
+      <c r="N533" s="48"/>
+      <c r="O533" s="48"/>
+      <c r="P533" s="47"/>
+    </row>
+    <row r="534" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="50">
         <v>43706.430542476854</v>
       </c>
@@ -20892,11 +21380,15 @@
       <c r="K534" s="48">
         <v>0</v>
       </c>
-      <c r="L534" s="48">
+      <c r="L534" s="48"/>
+      <c r="M534" s="48"/>
+      <c r="N534" s="48"/>
+      <c r="O534" s="48"/>
+      <c r="P534" s="48">
         <v>3099</v>
       </c>
     </row>
-    <row r="535" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="50">
         <v>43706.431239837962</v>
       </c>
@@ -20926,11 +21418,15 @@
       <c r="K535" s="48">
         <v>270</v>
       </c>
-      <c r="L535" s="48">
+      <c r="L535" s="48"/>
+      <c r="M535" s="48"/>
+      <c r="N535" s="48"/>
+      <c r="O535" s="48"/>
+      <c r="P535" s="48">
         <v>747</v>
       </c>
     </row>
-    <row r="536" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="50">
         <v>43706.435479664353</v>
       </c>
@@ -20960,9 +21456,13 @@
       <c r="K536" s="48">
         <v>0</v>
       </c>
-      <c r="L536" s="47"/>
-    </row>
-    <row r="537" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L536" s="48"/>
+      <c r="M536" s="48"/>
+      <c r="N536" s="48"/>
+      <c r="O536" s="48"/>
+      <c r="P536" s="47"/>
+    </row>
+    <row r="537" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="50">
         <v>43706.435892986112</v>
       </c>
@@ -20992,11 +21492,15 @@
       <c r="K537" s="48">
         <v>0</v>
       </c>
-      <c r="L537" s="48">
+      <c r="L537" s="48"/>
+      <c r="M537" s="48"/>
+      <c r="N537" s="48"/>
+      <c r="O537" s="48"/>
+      <c r="P537" s="48">
         <v>753</v>
       </c>
     </row>
-    <row r="538" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="50">
         <v>43706.439350509259</v>
       </c>
@@ -21017,7 +21521,7 @@
       </c>
       <c r="G538" s="47"/>
       <c r="H538" s="48">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="I538" s="47"/>
       <c r="J538" s="48">
@@ -21026,11 +21530,13 @@
       <c r="K538" s="48">
         <v>0</v>
       </c>
-      <c r="L538" s="48">
-        <v>9999999</v>
-      </c>
-    </row>
-    <row r="539" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L538" s="48"/>
+      <c r="M538" s="48"/>
+      <c r="N538" s="48"/>
+      <c r="O538" s="48"/>
+      <c r="P538" s="48"/>
+    </row>
+    <row r="539" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="50">
         <v>43706.442599571761</v>
       </c>
@@ -21060,9 +21566,13 @@
       <c r="K539" s="48">
         <v>0</v>
       </c>
-      <c r="L539" s="47"/>
-    </row>
-    <row r="540" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L539" s="48"/>
+      <c r="M539" s="48"/>
+      <c r="N539" s="48"/>
+      <c r="O539" s="48"/>
+      <c r="P539" s="47"/>
+    </row>
+    <row r="540" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="50">
         <v>43706.446312094908</v>
       </c>
@@ -21079,7 +21589,7 @@
         <v>26</v>
       </c>
       <c r="F540" s="48" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G540" s="47"/>
       <c r="H540" s="48">
@@ -21092,11 +21602,15 @@
       <c r="K540" s="48">
         <v>1500</v>
       </c>
-      <c r="L540" s="48">
+      <c r="L540" s="48"/>
+      <c r="M540" s="48"/>
+      <c r="N540" s="48"/>
+      <c r="O540" s="48"/>
+      <c r="P540" s="48">
         <v>1044</v>
       </c>
     </row>
-    <row r="541" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="50">
         <v>43706.453590034725</v>
       </c>
@@ -21126,9 +21640,13 @@
       <c r="K541" s="48">
         <v>2010</v>
       </c>
-      <c r="L541" s="47"/>
-    </row>
-    <row r="542" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L541" s="48"/>
+      <c r="M541" s="48"/>
+      <c r="N541" s="48"/>
+      <c r="O541" s="48"/>
+      <c r="P541" s="47"/>
+    </row>
+    <row r="542" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="50">
         <v>43706.454553599542</v>
       </c>
@@ -21145,7 +21663,7 @@
         <v>26</v>
       </c>
       <c r="F542" s="48" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G542" s="47"/>
       <c r="H542" s="48">
@@ -21158,11 +21676,15 @@
       <c r="K542" s="48">
         <v>1500</v>
       </c>
-      <c r="L542" s="48">
+      <c r="L542" s="48"/>
+      <c r="M542" s="48"/>
+      <c r="N542" s="48"/>
+      <c r="O542" s="48"/>
+      <c r="P542" s="48">
         <v>1044</v>
       </c>
     </row>
-    <row r="543" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="50">
         <v>43706.457137245372</v>
       </c>
@@ -21192,11 +21714,15 @@
       <c r="K543" s="48">
         <v>2100</v>
       </c>
-      <c r="L543" s="48">
+      <c r="L543" s="48"/>
+      <c r="M543" s="48"/>
+      <c r="N543" s="48"/>
+      <c r="O543" s="48"/>
+      <c r="P543" s="48">
         <v>1002</v>
       </c>
     </row>
-    <row r="544" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="50">
         <v>43706.466475532405</v>
       </c>
@@ -21226,11 +21752,15 @@
       <c r="K544" s="48">
         <v>0</v>
       </c>
-      <c r="L544" s="48">
+      <c r="L544" s="48"/>
+      <c r="M544" s="48"/>
+      <c r="N544" s="48"/>
+      <c r="O544" s="48"/>
+      <c r="P544" s="48">
         <v>1432</v>
       </c>
     </row>
-    <row r="545" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="50">
         <v>43706.487083703702</v>
       </c>
@@ -21247,7 +21777,7 @@
         <v>26</v>
       </c>
       <c r="F545" s="48" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G545" s="47"/>
       <c r="H545" s="48">
@@ -21260,9 +21790,13 @@
       <c r="K545" s="48">
         <v>4500</v>
       </c>
-      <c r="L545" s="47"/>
-    </row>
-    <row r="546" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L545" s="48"/>
+      <c r="M545" s="48"/>
+      <c r="N545" s="48"/>
+      <c r="O545" s="48"/>
+      <c r="P545" s="47"/>
+    </row>
+    <row r="546" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="50">
         <v>43706.475523009256</v>
       </c>
@@ -21292,11 +21826,15 @@
       <c r="K546" s="48">
         <v>6250</v>
       </c>
-      <c r="L546" s="48">
+      <c r="L546" s="48"/>
+      <c r="M546" s="48"/>
+      <c r="N546" s="48"/>
+      <c r="O546" s="48"/>
+      <c r="P546" s="48">
         <v>3098</v>
       </c>
     </row>
-    <row r="547" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="50">
         <v>43706.492985231482</v>
       </c>
@@ -21326,11 +21864,15 @@
       <c r="K547" s="48">
         <v>0</v>
       </c>
-      <c r="L547" s="48">
+      <c r="L547" s="48"/>
+      <c r="M547" s="48"/>
+      <c r="N547" s="48"/>
+      <c r="O547" s="48"/>
+      <c r="P547" s="48">
         <v>1096</v>
       </c>
     </row>
-    <row r="548" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="50">
         <v>43706.506774652778</v>
       </c>
@@ -21360,11 +21902,15 @@
       <c r="K548" s="48">
         <v>1700</v>
       </c>
-      <c r="L548" s="48">
+      <c r="L548" s="48"/>
+      <c r="M548" s="48"/>
+      <c r="N548" s="48"/>
+      <c r="O548" s="48"/>
+      <c r="P548" s="48">
         <v>645</v>
       </c>
     </row>
-    <row r="549" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="50">
         <v>43706.520222777777</v>
       </c>
@@ -21394,11 +21940,15 @@
       <c r="K549" s="48">
         <v>7950</v>
       </c>
-      <c r="L549" s="48">
+      <c r="L549" s="48"/>
+      <c r="M549" s="48"/>
+      <c r="N549" s="48"/>
+      <c r="O549" s="48"/>
+      <c r="P549" s="48">
         <v>1633</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="50">
         <v>43706.538481296295</v>
       </c>
@@ -21415,7 +21965,7 @@
         <v>26</v>
       </c>
       <c r="F550" s="48" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G550" s="47"/>
       <c r="H550" s="48">
@@ -21428,9 +21978,13 @@
       <c r="K550" s="48">
         <v>3480</v>
       </c>
-      <c r="L550" s="47"/>
-    </row>
-    <row r="551" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L550" s="48"/>
+      <c r="M550" s="48"/>
+      <c r="N550" s="48"/>
+      <c r="O550" s="48"/>
+      <c r="P550" s="47"/>
+    </row>
+    <row r="551" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="50">
         <v>43706.55549702546</v>
       </c>
@@ -21447,10 +22001,10 @@
         <v>26</v>
       </c>
       <c r="F551" s="48" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G551" s="49" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H551" s="48">
         <v>0.4</v>
@@ -21462,9 +22016,13 @@
       <c r="K551" s="48">
         <v>350</v>
       </c>
-      <c r="L551" s="47"/>
-    </row>
-    <row r="552" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L551" s="48"/>
+      <c r="M551" s="48"/>
+      <c r="N551" s="48"/>
+      <c r="O551" s="48"/>
+      <c r="P551" s="47"/>
+    </row>
+    <row r="552" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="50">
         <v>43707.701906550923</v>
       </c>
@@ -21481,10 +22039,10 @@
         <v>26</v>
       </c>
       <c r="F552" s="48" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G552" s="48" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H552" s="48">
         <v>4.5</v>
@@ -21493,8 +22051,12 @@
       <c r="J552" s="47"/>
       <c r="K552" s="47"/>
       <c r="L552" s="47"/>
-    </row>
-    <row r="553" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M552" s="47"/>
+      <c r="N552" s="47"/>
+      <c r="O552" s="47"/>
+      <c r="P552" s="47"/>
+    </row>
+    <row r="553" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="50">
         <v>43712.367468472221</v>
       </c>
@@ -21524,11 +22086,15 @@
       <c r="K553" s="48">
         <v>0</v>
       </c>
-      <c r="L553" s="48">
+      <c r="L553" s="48"/>
+      <c r="M553" s="48"/>
+      <c r="N553" s="48"/>
+      <c r="O553" s="48"/>
+      <c r="P553" s="48">
         <v>640</v>
       </c>
     </row>
-    <row r="554" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="50">
         <v>43712.39444311343</v>
       </c>
@@ -21558,11 +22124,15 @@
       <c r="K554" s="48">
         <v>0</v>
       </c>
-      <c r="L554" s="48">
+      <c r="L554" s="48"/>
+      <c r="M554" s="48"/>
+      <c r="N554" s="48"/>
+      <c r="O554" s="48"/>
+      <c r="P554" s="48">
         <v>688</v>
       </c>
     </row>
-    <row r="555" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="50">
         <v>43712.399156678242</v>
       </c>
@@ -21592,11 +22162,15 @@
       <c r="K555" s="48">
         <v>240</v>
       </c>
-      <c r="L555" s="48">
+      <c r="L555" s="48"/>
+      <c r="M555" s="48"/>
+      <c r="N555" s="48"/>
+      <c r="O555" s="48"/>
+      <c r="P555" s="48">
         <v>2565</v>
       </c>
     </row>
-    <row r="556" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="50">
         <v>43712.407757083332</v>
       </c>
@@ -21613,7 +22187,7 @@
         <v>67</v>
       </c>
       <c r="F556" s="48" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G556" s="47"/>
       <c r="H556" s="48">
@@ -21626,11 +22200,15 @@
       <c r="K556" s="48">
         <v>0</v>
       </c>
-      <c r="L556" s="48">
+      <c r="L556" s="48"/>
+      <c r="M556" s="48"/>
+      <c r="N556" s="48"/>
+      <c r="O556" s="48"/>
+      <c r="P556" s="48">
         <v>1055</v>
       </c>
     </row>
-    <row r="557" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="50">
         <v>43712.409943379629</v>
       </c>
@@ -21647,7 +22225,7 @@
         <v>67</v>
       </c>
       <c r="F557" s="48" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G557" s="47"/>
       <c r="H557" s="48">
@@ -21660,11 +22238,13 @@
       <c r="K557" s="48">
         <v>0</v>
       </c>
-      <c r="L557" s="48">
-        <v>3834</v>
-      </c>
-    </row>
-    <row r="558" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L557" s="48"/>
+      <c r="M557" s="48"/>
+      <c r="N557" s="48"/>
+      <c r="O557" s="48"/>
+      <c r="P557" s="48"/>
+    </row>
+    <row r="558" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="50">
         <v>43712.415547476849</v>
       </c>
@@ -21694,11 +22274,15 @@
       <c r="K558" s="48">
         <v>0</v>
       </c>
-      <c r="L558" s="48">
+      <c r="L558" s="48"/>
+      <c r="M558" s="48"/>
+      <c r="N558" s="48"/>
+      <c r="O558" s="48"/>
+      <c r="P558" s="48">
         <v>1224</v>
       </c>
     </row>
-    <row r="559" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="50">
         <v>43712.421258125003</v>
       </c>
@@ -21728,11 +22312,15 @@
       <c r="K559" s="48">
         <v>0</v>
       </c>
-      <c r="L559" s="48">
+      <c r="L559" s="48"/>
+      <c r="M559" s="48"/>
+      <c r="N559" s="48"/>
+      <c r="O559" s="48"/>
+      <c r="P559" s="48">
         <v>1224</v>
       </c>
     </row>
-    <row r="560" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="50">
         <v>43712.424563483801</v>
       </c>
@@ -21762,11 +22350,15 @@
       <c r="K560" s="48">
         <v>3750</v>
       </c>
-      <c r="L560" s="48">
+      <c r="L560" s="48"/>
+      <c r="M560" s="48"/>
+      <c r="N560" s="48"/>
+      <c r="O560" s="48"/>
+      <c r="P560" s="48">
         <v>1825</v>
       </c>
     </row>
-    <row r="561" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="50">
         <v>43712.432625416666</v>
       </c>
@@ -21783,7 +22375,7 @@
         <v>67</v>
       </c>
       <c r="F561" s="48" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G561" s="47"/>
       <c r="H561" s="48">
@@ -21796,11 +22388,15 @@
       <c r="K561" s="48">
         <v>0</v>
       </c>
-      <c r="L561" s="48">
+      <c r="L561" s="48"/>
+      <c r="M561" s="48"/>
+      <c r="N561" s="48"/>
+      <c r="O561" s="48"/>
+      <c r="P561" s="48">
         <v>1035</v>
       </c>
     </row>
-    <row r="562" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="50">
         <v>43712.440652013887</v>
       </c>
@@ -21830,11 +22426,15 @@
       <c r="K562" s="48">
         <v>6000</v>
       </c>
-      <c r="L562" s="48">
+      <c r="L562" s="48"/>
+      <c r="M562" s="48"/>
+      <c r="N562" s="48"/>
+      <c r="O562" s="48"/>
+      <c r="P562" s="48">
         <v>2981</v>
       </c>
     </row>
-    <row r="563" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="50">
         <v>43712.451808379628</v>
       </c>
@@ -21864,11 +22464,15 @@
       <c r="K563" s="48">
         <v>0</v>
       </c>
-      <c r="L563" s="48">
+      <c r="L563" s="48"/>
+      <c r="M563" s="48"/>
+      <c r="N563" s="48"/>
+      <c r="O563" s="48"/>
+      <c r="P563" s="48">
         <v>1090</v>
       </c>
     </row>
-    <row r="564" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="50">
         <v>43712.459328969911</v>
       </c>
@@ -21893,8 +22497,12 @@
       <c r="J564" s="47"/>
       <c r="K564" s="47"/>
       <c r="L564" s="47"/>
-    </row>
-    <row r="565" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M564" s="47"/>
+      <c r="N564" s="47"/>
+      <c r="O564" s="47"/>
+      <c r="P564" s="47"/>
+    </row>
+    <row r="565" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="50">
         <v>43712.464040497682</v>
       </c>
@@ -21911,7 +22519,7 @@
         <v>26</v>
       </c>
       <c r="F565" s="48" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G565" s="47"/>
       <c r="H565" s="48">
@@ -21924,9 +22532,13 @@
       <c r="K565" s="48">
         <v>2640</v>
       </c>
-      <c r="L565" s="47"/>
-    </row>
-    <row r="566" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L565" s="48"/>
+      <c r="M565" s="48"/>
+      <c r="N565" s="48"/>
+      <c r="O565" s="48"/>
+      <c r="P565" s="47"/>
+    </row>
+    <row r="566" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="50">
         <v>43712.47561248843</v>
       </c>
@@ -21956,11 +22568,15 @@
       <c r="K566" s="48">
         <v>0</v>
       </c>
-      <c r="L566" s="48">
+      <c r="L566" s="48"/>
+      <c r="M566" s="48"/>
+      <c r="N566" s="48"/>
+      <c r="O566" s="48"/>
+      <c r="P566" s="48">
         <v>805</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="50">
         <v>43712.478235138886</v>
       </c>
@@ -21990,9 +22606,13 @@
       <c r="K567" s="48">
         <v>0</v>
       </c>
-      <c r="L567" s="47"/>
-    </row>
-    <row r="568" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L567" s="48"/>
+      <c r="M567" s="48"/>
+      <c r="N567" s="48"/>
+      <c r="O567" s="48"/>
+      <c r="P567" s="47"/>
+    </row>
+    <row r="568" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="50">
         <v>43712.482904131946</v>
       </c>
@@ -22009,7 +22629,7 @@
         <v>26</v>
       </c>
       <c r="F568" s="48" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G568" s="47"/>
       <c r="H568" s="48">
@@ -22022,9 +22642,13 @@
       <c r="K568" s="48">
         <v>1880</v>
       </c>
-      <c r="L568" s="47"/>
-    </row>
-    <row r="569" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L568" s="48"/>
+      <c r="M568" s="48"/>
+      <c r="N568" s="48"/>
+      <c r="O568" s="48"/>
+      <c r="P568" s="47"/>
+    </row>
+    <row r="569" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="50">
         <v>43712.486539513891</v>
       </c>
@@ -22054,11 +22678,15 @@
       <c r="K569" s="48">
         <v>350</v>
       </c>
-      <c r="L569" s="48">
+      <c r="L569" s="48"/>
+      <c r="M569" s="48"/>
+      <c r="N569" s="48"/>
+      <c r="O569" s="48"/>
+      <c r="P569" s="48">
         <v>5500</v>
       </c>
     </row>
-    <row r="570" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="50">
         <v>43712.486583101854</v>
       </c>
@@ -22075,7 +22703,7 @@
         <v>26</v>
       </c>
       <c r="F570" s="48" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G570" s="47"/>
       <c r="H570" s="48">
@@ -22085,8 +22713,12 @@
       <c r="J570" s="47"/>
       <c r="K570" s="47"/>
       <c r="L570" s="47"/>
-    </row>
-    <row r="571" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M570" s="47"/>
+      <c r="N570" s="47"/>
+      <c r="O570" s="47"/>
+      <c r="P570" s="47"/>
+    </row>
+    <row r="571" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="50">
         <v>43712.518857824078</v>
       </c>
@@ -22116,11 +22748,15 @@
       <c r="K571" s="48">
         <v>0</v>
       </c>
-      <c r="L571" s="48">
+      <c r="L571" s="48"/>
+      <c r="M571" s="48"/>
+      <c r="N571" s="48"/>
+      <c r="O571" s="48"/>
+      <c r="P571" s="48">
         <v>1917</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="50">
         <v>43712.534898750004</v>
       </c>
@@ -22150,11 +22786,15 @@
       <c r="K572" s="48">
         <v>1320</v>
       </c>
-      <c r="L572" s="48">
+      <c r="L572" s="48"/>
+      <c r="M572" s="48"/>
+      <c r="N572" s="48"/>
+      <c r="O572" s="48"/>
+      <c r="P572" s="48">
         <v>3238</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="50">
         <v>43712.535281874996</v>
       </c>
@@ -22181,8 +22821,12 @@
       <c r="J573" s="47"/>
       <c r="K573" s="47"/>
       <c r="L573" s="47"/>
-    </row>
-    <row r="574" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M573" s="47"/>
+      <c r="N573" s="47"/>
+      <c r="O573" s="47"/>
+      <c r="P573" s="47"/>
+    </row>
+    <row r="574" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="50">
         <v>43712.545961504627</v>
       </c>
@@ -22212,11 +22856,15 @@
       <c r="K574" s="48">
         <v>8500</v>
       </c>
-      <c r="L574" s="48">
+      <c r="L574" s="48"/>
+      <c r="M574" s="48"/>
+      <c r="N574" s="48"/>
+      <c r="O574" s="48"/>
+      <c r="P574" s="48">
         <v>2310</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="50">
         <v>43712.554804884261</v>
       </c>
@@ -22246,11 +22894,15 @@
       <c r="K575" s="48">
         <v>5200</v>
       </c>
-      <c r="L575" s="48">
+      <c r="L575" s="48"/>
+      <c r="M575" s="48"/>
+      <c r="N575" s="48"/>
+      <c r="O575" s="48"/>
+      <c r="P575" s="48">
         <v>2214</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="50">
         <v>43712.568402986115</v>
       </c>
@@ -22280,9 +22932,13 @@
       <c r="K576" s="48">
         <v>860</v>
       </c>
-      <c r="L576" s="47"/>
-    </row>
-    <row r="577" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L576" s="48"/>
+      <c r="M576" s="48"/>
+      <c r="N576" s="48"/>
+      <c r="O576" s="48"/>
+      <c r="P576" s="47"/>
+    </row>
+    <row r="577" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="50">
         <v>43712.570633854164</v>
       </c>
@@ -22312,11 +22968,15 @@
       <c r="K577" s="48">
         <v>3600</v>
       </c>
-      <c r="L577" s="48">
+      <c r="L577" s="48"/>
+      <c r="M577" s="48"/>
+      <c r="N577" s="48"/>
+      <c r="O577" s="48"/>
+      <c r="P577" s="48">
         <v>1672</v>
       </c>
     </row>
-    <row r="578" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="50">
         <v>43712.593498831018</v>
       </c>
@@ -22343,8 +23003,12 @@
       <c r="J578" s="47"/>
       <c r="K578" s="47"/>
       <c r="L578" s="47"/>
-    </row>
-    <row r="579" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M578" s="47"/>
+      <c r="N578" s="47"/>
+      <c r="O578" s="47"/>
+      <c r="P578" s="47"/>
+    </row>
+    <row r="579" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="50">
         <v>43712.60098609954</v>
       </c>
@@ -22361,7 +23025,7 @@
         <v>26</v>
       </c>
       <c r="F579" s="48" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G579" s="47"/>
       <c r="H579" s="48">
@@ -22374,9 +23038,13 @@
       <c r="K579" s="48">
         <v>2190</v>
       </c>
-      <c r="L579" s="47"/>
-    </row>
-    <row r="580" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L579" s="48"/>
+      <c r="M579" s="48"/>
+      <c r="N579" s="48"/>
+      <c r="O579" s="48"/>
+      <c r="P579" s="47"/>
+    </row>
+    <row r="580" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="50">
         <v>43712.637202280093</v>
       </c>
@@ -22393,10 +23061,10 @@
         <v>26</v>
       </c>
       <c r="F580" s="48" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G580" s="49" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H580" s="48">
         <v>3</v>
@@ -22408,9 +23076,13 @@
       <c r="K580" s="48">
         <v>1960</v>
       </c>
-      <c r="L580" s="47"/>
-    </row>
-    <row r="581" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L580" s="48"/>
+      <c r="M580" s="48"/>
+      <c r="N580" s="48"/>
+      <c r="O580" s="48"/>
+      <c r="P580" s="47"/>
+    </row>
+    <row r="581" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="50">
         <v>43712.648180833334</v>
       </c>
@@ -22430,7 +23102,7 @@
         <v>88</v>
       </c>
       <c r="G581" s="49" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H581" s="48">
         <v>2.8</v>
@@ -22442,9 +23114,13 @@
       <c r="K581" s="48">
         <v>1530</v>
       </c>
-      <c r="L581" s="47"/>
-    </row>
-    <row r="582" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L581" s="48"/>
+      <c r="M581" s="48"/>
+      <c r="N581" s="48"/>
+      <c r="O581" s="48"/>
+      <c r="P581" s="47"/>
+    </row>
+    <row r="582" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="50">
         <v>43713.424205613424</v>
       </c>
@@ -22461,24 +23137,22 @@
         <v>170</v>
       </c>
       <c r="F582" s="48" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G582" s="47"/>
-      <c r="H582" s="48">
-        <v>9999999</v>
-      </c>
+      <c r="H582" s="48"/>
       <c r="I582" s="47"/>
-      <c r="J582" s="48">
-        <v>60</v>
-      </c>
-      <c r="K582" s="48">
-        <v>9999999</v>
-      </c>
-      <c r="L582" s="48">
+      <c r="J582" s="48"/>
+      <c r="K582" s="48"/>
+      <c r="L582" s="48"/>
+      <c r="M582" s="48"/>
+      <c r="N582" s="48"/>
+      <c r="O582" s="48"/>
+      <c r="P582" s="48">
         <v>777</v>
       </c>
     </row>
-    <row r="583" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="50">
         <v>43713.425145335648</v>
       </c>
@@ -22495,24 +23169,22 @@
         <v>170</v>
       </c>
       <c r="F583" s="48" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G583" s="47"/>
-      <c r="H583" s="48">
-        <v>9999999</v>
-      </c>
+      <c r="H583" s="48"/>
       <c r="I583" s="47"/>
-      <c r="J583" s="48">
-        <v>60</v>
-      </c>
-      <c r="K583" s="48">
-        <v>99999999</v>
-      </c>
-      <c r="L583" s="48">
+      <c r="J583" s="48"/>
+      <c r="K583" s="48"/>
+      <c r="L583" s="48"/>
+      <c r="M583" s="48"/>
+      <c r="N583" s="48"/>
+      <c r="O583" s="48"/>
+      <c r="P583" s="48">
         <v>822</v>
       </c>
     </row>
-    <row r="584" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="50">
         <v>43713.435373171291</v>
       </c>
@@ -22529,7 +23201,7 @@
         <v>26</v>
       </c>
       <c r="F584" s="48" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G584" s="47"/>
       <c r="H584" s="48">
@@ -22542,9 +23214,13 @@
       <c r="K584" s="48">
         <v>4600</v>
       </c>
-      <c r="L584" s="47"/>
-    </row>
-    <row r="585" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L584" s="48"/>
+      <c r="M584" s="48"/>
+      <c r="N584" s="48"/>
+      <c r="O584" s="48"/>
+      <c r="P584" s="47"/>
+    </row>
+    <row r="585" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="50">
         <v>43713.4464271412</v>
       </c>
@@ -22574,9 +23250,13 @@
       <c r="K585" s="48">
         <v>4150</v>
       </c>
-      <c r="L585" s="47"/>
-    </row>
-    <row r="586" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L585" s="48"/>
+      <c r="M585" s="48"/>
+      <c r="N585" s="48"/>
+      <c r="O585" s="48"/>
+      <c r="P585" s="47"/>
+    </row>
+    <row r="586" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="50">
         <v>43713.450989293982</v>
       </c>
@@ -22606,11 +23286,15 @@
       <c r="K586" s="48">
         <v>0</v>
       </c>
-      <c r="L586" s="48">
+      <c r="L586" s="48"/>
+      <c r="M586" s="48"/>
+      <c r="N586" s="48"/>
+      <c r="O586" s="48"/>
+      <c r="P586" s="48">
         <v>632</v>
       </c>
     </row>
-    <row r="587" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="50">
         <v>43713.464215254629</v>
       </c>
@@ -22640,9 +23324,13 @@
       <c r="K587" s="48">
         <v>3500</v>
       </c>
-      <c r="L587" s="47"/>
-    </row>
-    <row r="588" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L587" s="48"/>
+      <c r="M587" s="48"/>
+      <c r="N587" s="48"/>
+      <c r="O587" s="48"/>
+      <c r="P587" s="47"/>
+    </row>
+    <row r="588" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="50">
         <v>43713.481925486107</v>
       </c>
@@ -22659,10 +23347,10 @@
         <v>26</v>
       </c>
       <c r="F588" s="48" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G588" s="49" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H588" s="48">
         <v>1.5</v>
@@ -22674,9 +23362,13 @@
       <c r="K588" s="48">
         <v>3260</v>
       </c>
-      <c r="L588" s="47"/>
-    </row>
-    <row r="589" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L588" s="48"/>
+      <c r="M588" s="48"/>
+      <c r="N588" s="48"/>
+      <c r="O588" s="48"/>
+      <c r="P588" s="47"/>
+    </row>
+    <row r="589" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="50">
         <v>43713.543691203704</v>
       </c>
@@ -22706,11 +23398,15 @@
       <c r="K589" s="48">
         <v>720</v>
       </c>
-      <c r="L589" s="48">
+      <c r="L589" s="48"/>
+      <c r="M589" s="48"/>
+      <c r="N589" s="48"/>
+      <c r="O589" s="48"/>
+      <c r="P589" s="48">
         <v>906</v>
       </c>
     </row>
-    <row r="590" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="50">
         <v>43713.556214594908</v>
       </c>
@@ -22740,11 +23436,15 @@
       <c r="K590" s="48">
         <v>3600</v>
       </c>
-      <c r="L590" s="48">
+      <c r="L590" s="48"/>
+      <c r="M590" s="48"/>
+      <c r="N590" s="48"/>
+      <c r="O590" s="48"/>
+      <c r="P590" s="48">
         <v>1672</v>
       </c>
     </row>
-    <row r="591" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="50">
         <v>43713.55751481482</v>
       </c>
@@ -22761,7 +23461,7 @@
         <v>67</v>
       </c>
       <c r="F591" s="48" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G591" s="47"/>
       <c r="H591" s="48">
@@ -22774,11 +23474,15 @@
       <c r="K591" s="48">
         <v>0</v>
       </c>
-      <c r="L591" s="48">
+      <c r="L591" s="48"/>
+      <c r="M591" s="48"/>
+      <c r="N591" s="48"/>
+      <c r="O591" s="48"/>
+      <c r="P591" s="48">
         <v>502</v>
       </c>
     </row>
-    <row r="592" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="50">
         <v>43713.59901273148</v>
       </c>
@@ -22808,11 +23512,15 @@
       <c r="K592" s="48">
         <v>680</v>
       </c>
-      <c r="L592" s="48">
+      <c r="L592" s="48"/>
+      <c r="M592" s="48"/>
+      <c r="N592" s="48"/>
+      <c r="O592" s="48"/>
+      <c r="P592" s="48">
         <v>955</v>
       </c>
     </row>
-    <row r="593" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="50">
         <v>43713.602299502316</v>
       </c>
@@ -22842,11 +23550,15 @@
       <c r="K593" s="48">
         <v>1700</v>
       </c>
-      <c r="L593" s="48">
+      <c r="L593" s="48"/>
+      <c r="M593" s="48"/>
+      <c r="N593" s="48"/>
+      <c r="O593" s="48"/>
+      <c r="P593" s="48">
         <v>2565</v>
       </c>
     </row>
-    <row r="594" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="35">
         <v>43719.359178240738</v>
       </c>
@@ -22876,14 +23588,18 @@
       <c r="K594" s="40">
         <v>2860</v>
       </c>
-      <c r="L594" s="36"/>
-      <c r="M594" s="36"/>
-      <c r="N594" s="36"/>
-      <c r="O594" s="36"/>
+      <c r="L594" s="40"/>
+      <c r="M594" s="40"/>
+      <c r="N594" s="40"/>
+      <c r="O594" s="40"/>
       <c r="P594" s="36"/>
       <c r="Q594" s="36"/>
-    </row>
-    <row r="595" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R594" s="36"/>
+      <c r="S594" s="36"/>
+      <c r="T594" s="36"/>
+      <c r="U594" s="36"/>
+    </row>
+    <row r="595" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="35">
         <v>43719.36074074074</v>
       </c>
@@ -22900,7 +23616,7 @@
         <v>26</v>
       </c>
       <c r="F595" s="36" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G595" s="36"/>
       <c r="H595" s="40">
@@ -22915,8 +23631,12 @@
       <c r="O595" s="36"/>
       <c r="P595" s="36"/>
       <c r="Q595" s="36"/>
-    </row>
-    <row r="596" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R595" s="36"/>
+      <c r="S595" s="36"/>
+      <c r="T595" s="36"/>
+      <c r="U595" s="36"/>
+    </row>
+    <row r="596" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="35">
         <v>43719.36146990741</v>
       </c>
@@ -22946,16 +23666,20 @@
       <c r="K596" s="40">
         <v>3800</v>
       </c>
-      <c r="L596" s="40">
+      <c r="L596" s="40"/>
+      <c r="M596" s="40"/>
+      <c r="N596" s="40"/>
+      <c r="O596" s="40"/>
+      <c r="P596" s="40">
         <v>3200</v>
       </c>
-      <c r="M596" s="36"/>
-      <c r="N596" s="36"/>
-      <c r="O596" s="36"/>
-      <c r="P596" s="36"/>
       <c r="Q596" s="36"/>
-    </row>
-    <row r="597" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R596" s="36"/>
+      <c r="S596" s="36"/>
+      <c r="T596" s="36"/>
+      <c r="U596" s="36"/>
+    </row>
+    <row r="597" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="35">
         <v>43719.374293981484</v>
       </c>
@@ -22985,16 +23709,20 @@
       <c r="K597" s="40">
         <v>10400</v>
       </c>
-      <c r="L597" s="40">
+      <c r="L597" s="40"/>
+      <c r="M597" s="40"/>
+      <c r="N597" s="40"/>
+      <c r="O597" s="40"/>
+      <c r="P597" s="40">
         <v>2668</v>
       </c>
-      <c r="M597" s="36"/>
-      <c r="N597" s="36"/>
-      <c r="O597" s="36"/>
-      <c r="P597" s="36"/>
       <c r="Q597" s="36"/>
-    </row>
-    <row r="598" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R597" s="36"/>
+      <c r="S597" s="36"/>
+      <c r="T597" s="36"/>
+      <c r="U597" s="36"/>
+    </row>
+    <row r="598" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="35">
         <v>43719.381828703707</v>
       </c>
@@ -23011,7 +23739,7 @@
         <v>26</v>
       </c>
       <c r="F598" s="36" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G598" s="36"/>
       <c r="H598" s="40">
@@ -23024,16 +23752,20 @@
       <c r="K598" s="40">
         <v>10000</v>
       </c>
-      <c r="L598" s="40">
+      <c r="L598" s="40"/>
+      <c r="M598" s="40"/>
+      <c r="N598" s="40"/>
+      <c r="O598" s="40"/>
+      <c r="P598" s="40">
         <v>2365</v>
       </c>
-      <c r="M598" s="36"/>
-      <c r="N598" s="36"/>
-      <c r="O598" s="36"/>
-      <c r="P598" s="36"/>
       <c r="Q598" s="36"/>
-    </row>
-    <row r="599" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R598" s="36"/>
+      <c r="S598" s="36"/>
+      <c r="T598" s="36"/>
+      <c r="U598" s="36"/>
+    </row>
+    <row r="599" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="35">
         <v>43719.397430555553</v>
       </c>
@@ -23050,7 +23782,7 @@
         <v>26</v>
       </c>
       <c r="F599" s="36" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G599" s="36"/>
       <c r="H599" s="40">
@@ -23063,14 +23795,18 @@
       <c r="K599" s="40">
         <v>530</v>
       </c>
-      <c r="L599" s="36"/>
-      <c r="M599" s="36"/>
-      <c r="N599" s="36"/>
-      <c r="O599" s="36"/>
+      <c r="L599" s="40"/>
+      <c r="M599" s="40"/>
+      <c r="N599" s="40"/>
+      <c r="O599" s="40"/>
       <c r="P599" s="36"/>
       <c r="Q599" s="36"/>
-    </row>
-    <row r="600" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R599" s="36"/>
+      <c r="S599" s="36"/>
+      <c r="T599" s="36"/>
+      <c r="U599" s="36"/>
+    </row>
+    <row r="600" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="35">
         <v>43719.404641203706</v>
       </c>
@@ -23100,16 +23836,20 @@
       <c r="K600" s="40">
         <v>0</v>
       </c>
-      <c r="L600" s="40">
+      <c r="L600" s="40"/>
+      <c r="M600" s="40"/>
+      <c r="N600" s="40"/>
+      <c r="O600" s="40"/>
+      <c r="P600" s="40">
         <v>1886</v>
       </c>
-      <c r="M600" s="36"/>
-      <c r="N600" s="36"/>
-      <c r="O600" s="36"/>
-      <c r="P600" s="36"/>
       <c r="Q600" s="36"/>
-    </row>
-    <row r="601" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R600" s="36"/>
+      <c r="S600" s="36"/>
+      <c r="T600" s="36"/>
+      <c r="U600" s="36"/>
+    </row>
+    <row r="601" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="35">
         <v>43719.404085648152</v>
       </c>
@@ -23126,7 +23866,7 @@
         <v>26</v>
       </c>
       <c r="F601" s="36" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G601" s="36"/>
       <c r="H601" s="40">
@@ -23139,16 +23879,20 @@
       <c r="K601" s="40">
         <v>10000</v>
       </c>
-      <c r="L601" s="40">
+      <c r="L601" s="40"/>
+      <c r="M601" s="40"/>
+      <c r="N601" s="40"/>
+      <c r="O601" s="40"/>
+      <c r="P601" s="40">
         <v>2365</v>
       </c>
-      <c r="M601" s="36"/>
-      <c r="N601" s="36"/>
-      <c r="O601" s="36"/>
-      <c r="P601" s="36"/>
       <c r="Q601" s="36"/>
-    </row>
-    <row r="602" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R601" s="36"/>
+      <c r="S601" s="36"/>
+      <c r="T601" s="36"/>
+      <c r="U601" s="36"/>
+    </row>
+    <row r="602" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="35">
         <v>43719.426840277774</v>
       </c>
@@ -23178,16 +23922,20 @@
       <c r="K602" s="40">
         <v>0</v>
       </c>
-      <c r="L602" s="40">
+      <c r="L602" s="40"/>
+      <c r="M602" s="40"/>
+      <c r="N602" s="40"/>
+      <c r="O602" s="40"/>
+      <c r="P602" s="40">
         <v>3177</v>
       </c>
-      <c r="M602" s="36"/>
-      <c r="N602" s="36"/>
-      <c r="O602" s="36"/>
-      <c r="P602" s="36"/>
       <c r="Q602" s="36"/>
-    </row>
-    <row r="603" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R602" s="36"/>
+      <c r="S602" s="36"/>
+      <c r="T602" s="36"/>
+      <c r="U602" s="36"/>
+    </row>
+    <row r="603" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="35">
         <v>43719.427685185183</v>
       </c>
@@ -23217,16 +23965,20 @@
       <c r="K603" s="40">
         <v>0</v>
       </c>
-      <c r="L603" s="40">
+      <c r="L603" s="40"/>
+      <c r="M603" s="40"/>
+      <c r="N603" s="40"/>
+      <c r="O603" s="40"/>
+      <c r="P603" s="40">
         <v>998</v>
       </c>
-      <c r="M603" s="36"/>
-      <c r="N603" s="36"/>
-      <c r="O603" s="36"/>
-      <c r="P603" s="36"/>
       <c r="Q603" s="36"/>
-    </row>
-    <row r="604" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R603" s="36"/>
+      <c r="S603" s="36"/>
+      <c r="T603" s="36"/>
+      <c r="U603" s="36"/>
+    </row>
+    <row r="604" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="35">
         <v>43719.434421296297</v>
       </c>
@@ -23256,16 +24008,20 @@
       <c r="K604" s="40">
         <v>0</v>
       </c>
-      <c r="L604" s="40">
+      <c r="L604" s="40"/>
+      <c r="M604" s="40"/>
+      <c r="N604" s="40"/>
+      <c r="O604" s="40"/>
+      <c r="P604" s="40">
         <v>975</v>
       </c>
-      <c r="M604" s="36"/>
-      <c r="N604" s="36"/>
-      <c r="O604" s="36"/>
-      <c r="P604" s="36"/>
       <c r="Q604" s="36"/>
-    </row>
-    <row r="605" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R604" s="36"/>
+      <c r="S604" s="36"/>
+      <c r="T604" s="36"/>
+      <c r="U604" s="36"/>
+    </row>
+    <row r="605" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="35">
         <v>43719.448310185187</v>
       </c>
@@ -23282,7 +24038,7 @@
         <v>71</v>
       </c>
       <c r="F605" s="36" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G605" s="36"/>
       <c r="H605" s="40">
@@ -23295,14 +24051,18 @@
       <c r="K605" s="40">
         <v>0</v>
       </c>
-      <c r="L605" s="36"/>
-      <c r="M605" s="36"/>
-      <c r="N605" s="36"/>
-      <c r="O605" s="36"/>
+      <c r="L605" s="40"/>
+      <c r="M605" s="40"/>
+      <c r="N605" s="40"/>
+      <c r="O605" s="40"/>
       <c r="P605" s="36"/>
       <c r="Q605" s="36"/>
-    </row>
-    <row r="606" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R605" s="36"/>
+      <c r="S605" s="36"/>
+      <c r="T605" s="36"/>
+      <c r="U605" s="36"/>
+    </row>
+    <row r="606" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="35">
         <v>43719.448564814818</v>
       </c>
@@ -23332,16 +24092,20 @@
       <c r="K606" s="40">
         <v>0</v>
       </c>
-      <c r="L606" s="40">
+      <c r="L606" s="40"/>
+      <c r="M606" s="40"/>
+      <c r="N606" s="40"/>
+      <c r="O606" s="40"/>
+      <c r="P606" s="40">
         <v>975</v>
       </c>
-      <c r="M606" s="36"/>
-      <c r="N606" s="36"/>
-      <c r="O606" s="36"/>
-      <c r="P606" s="36"/>
       <c r="Q606" s="36"/>
-    </row>
-    <row r="607" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R606" s="36"/>
+      <c r="S606" s="36"/>
+      <c r="T606" s="36"/>
+      <c r="U606" s="36"/>
+    </row>
+    <row r="607" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="35">
         <v>43719.449189814812</v>
       </c>
@@ -23361,9 +24125,7 @@
         <v>505</v>
       </c>
       <c r="G607" s="36"/>
-      <c r="H607" s="40">
-        <v>9999999</v>
-      </c>
+      <c r="H607" s="40"/>
       <c r="I607" s="36"/>
       <c r="J607" s="40">
         <v>60</v>
@@ -23371,16 +24133,18 @@
       <c r="K607" s="40">
         <v>0</v>
       </c>
-      <c r="L607" s="40">
-        <v>9999999</v>
-      </c>
-      <c r="M607" s="36"/>
-      <c r="N607" s="36"/>
-      <c r="O607" s="36"/>
-      <c r="P607" s="36"/>
+      <c r="L607" s="40"/>
+      <c r="M607" s="40"/>
+      <c r="N607" s="40"/>
+      <c r="O607" s="40"/>
+      <c r="P607" s="40"/>
       <c r="Q607" s="36"/>
-    </row>
-    <row r="608" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R607" s="36"/>
+      <c r="S607" s="36"/>
+      <c r="T607" s="36"/>
+      <c r="U607" s="36"/>
+    </row>
+    <row r="608" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="35">
         <v>43719.454583333332</v>
       </c>
@@ -23410,14 +24174,18 @@
       <c r="K608" s="40">
         <v>1980</v>
       </c>
-      <c r="L608" s="36"/>
-      <c r="M608" s="36"/>
-      <c r="N608" s="36"/>
-      <c r="O608" s="36"/>
+      <c r="L608" s="40"/>
+      <c r="M608" s="40"/>
+      <c r="N608" s="40"/>
+      <c r="O608" s="40"/>
       <c r="P608" s="36"/>
       <c r="Q608" s="36"/>
-    </row>
-    <row r="609" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R608" s="36"/>
+      <c r="S608" s="36"/>
+      <c r="T608" s="36"/>
+      <c r="U608" s="36"/>
+    </row>
+    <row r="609" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="35">
         <v>43719.466273148151</v>
       </c>
@@ -23434,7 +24202,7 @@
         <v>67</v>
       </c>
       <c r="F609" s="36" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G609" s="36"/>
       <c r="H609" s="40">
@@ -23447,14 +24215,18 @@
       <c r="K609" s="40">
         <v>0</v>
       </c>
-      <c r="L609" s="36"/>
-      <c r="M609" s="36"/>
-      <c r="N609" s="36"/>
-      <c r="O609" s="36"/>
+      <c r="L609" s="40"/>
+      <c r="M609" s="40"/>
+      <c r="N609" s="40"/>
+      <c r="O609" s="40"/>
       <c r="P609" s="36"/>
       <c r="Q609" s="36"/>
-    </row>
-    <row r="610" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R609" s="36"/>
+      <c r="S609" s="36"/>
+      <c r="T609" s="36"/>
+      <c r="U609" s="36"/>
+    </row>
+    <row r="610" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="35">
         <v>43719.474849537037</v>
       </c>
@@ -23484,16 +24256,20 @@
       <c r="K610" s="40">
         <v>0</v>
       </c>
-      <c r="L610" s="40">
+      <c r="L610" s="40"/>
+      <c r="M610" s="40"/>
+      <c r="N610" s="40"/>
+      <c r="O610" s="40"/>
+      <c r="P610" s="40">
         <v>1751</v>
       </c>
-      <c r="M610" s="36"/>
-      <c r="N610" s="36"/>
-      <c r="O610" s="36"/>
-      <c r="P610" s="36"/>
       <c r="Q610" s="36"/>
-    </row>
-    <row r="611" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R610" s="36"/>
+      <c r="S610" s="36"/>
+      <c r="T610" s="36"/>
+      <c r="U610" s="36"/>
+    </row>
+    <row r="611" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="35">
         <v>43719.481747685182</v>
       </c>
@@ -23523,16 +24299,20 @@
       <c r="K611" s="40">
         <v>370</v>
       </c>
-      <c r="L611" s="40">
+      <c r="L611" s="40"/>
+      <c r="M611" s="40"/>
+      <c r="N611" s="40"/>
+      <c r="O611" s="40"/>
+      <c r="P611" s="40">
         <v>1529</v>
       </c>
-      <c r="M611" s="36"/>
-      <c r="N611" s="36"/>
-      <c r="O611" s="36"/>
-      <c r="P611" s="36"/>
       <c r="Q611" s="36"/>
-    </row>
-    <row r="612" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R611" s="36"/>
+      <c r="S611" s="36"/>
+      <c r="T611" s="36"/>
+      <c r="U611" s="36"/>
+    </row>
+    <row r="612" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="35">
         <v>43719.507928240739</v>
       </c>
@@ -23549,7 +24329,7 @@
         <v>26</v>
       </c>
       <c r="F612" s="36" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G612" s="36"/>
       <c r="H612" s="40">
@@ -23562,16 +24342,20 @@
       <c r="K612" s="40">
         <v>4500</v>
       </c>
-      <c r="L612" s="40">
+      <c r="L612" s="40"/>
+      <c r="M612" s="40"/>
+      <c r="N612" s="40"/>
+      <c r="O612" s="40"/>
+      <c r="P612" s="40">
         <v>1708</v>
       </c>
-      <c r="M612" s="36"/>
-      <c r="N612" s="36"/>
-      <c r="O612" s="36"/>
-      <c r="P612" s="36"/>
       <c r="Q612" s="36"/>
-    </row>
-    <row r="613" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R612" s="36"/>
+      <c r="S612" s="36"/>
+      <c r="T612" s="36"/>
+      <c r="U612" s="36"/>
+    </row>
+    <row r="613" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="35">
         <v>43719.518900462965</v>
       </c>
@@ -23588,12 +24372,10 @@
         <v>170</v>
       </c>
       <c r="F613" s="36" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G613" s="36"/>
-      <c r="H613" s="40">
-        <v>999999</v>
-      </c>
+      <c r="H613" s="40"/>
       <c r="I613" s="36"/>
       <c r="J613" s="40">
         <v>60</v>
@@ -23601,16 +24383,18 @@
       <c r="K613" s="40">
         <v>0</v>
       </c>
-      <c r="L613" s="40">
-        <v>9999999</v>
-      </c>
-      <c r="M613" s="36"/>
-      <c r="N613" s="36"/>
-      <c r="O613" s="36"/>
-      <c r="P613" s="36"/>
+      <c r="L613" s="40"/>
+      <c r="M613" s="40"/>
+      <c r="N613" s="40"/>
+      <c r="O613" s="40"/>
+      <c r="P613" s="40"/>
       <c r="Q613" s="36"/>
-    </row>
-    <row r="614" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R613" s="36"/>
+      <c r="S613" s="36"/>
+      <c r="T613" s="36"/>
+      <c r="U613" s="36"/>
+    </row>
+    <row r="614" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="35">
         <v>43719.532476851855</v>
       </c>
@@ -23640,16 +24424,20 @@
       <c r="K614" s="40">
         <v>7000</v>
       </c>
-      <c r="L614" s="40">
+      <c r="L614" s="40"/>
+      <c r="M614" s="40"/>
+      <c r="N614" s="40"/>
+      <c r="O614" s="40"/>
+      <c r="P614" s="40">
         <v>3139</v>
       </c>
-      <c r="M614" s="36"/>
-      <c r="N614" s="36"/>
-      <c r="O614" s="36"/>
-      <c r="P614" s="36"/>
       <c r="Q614" s="36"/>
-    </row>
-    <row r="615" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R614" s="36"/>
+      <c r="S614" s="36"/>
+      <c r="T614" s="36"/>
+      <c r="U614" s="36"/>
+    </row>
+    <row r="615" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="35">
         <v>43719.648969907408</v>
       </c>
@@ -23679,14 +24467,18 @@
       <c r="K615" s="40">
         <v>1360</v>
       </c>
-      <c r="L615" s="36"/>
-      <c r="M615" s="36"/>
-      <c r="N615" s="36"/>
-      <c r="O615" s="36"/>
+      <c r="L615" s="40"/>
+      <c r="M615" s="40"/>
+      <c r="N615" s="40"/>
+      <c r="O615" s="40"/>
       <c r="P615" s="36"/>
       <c r="Q615" s="36"/>
-    </row>
-    <row r="616" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R615" s="36"/>
+      <c r="S615" s="36"/>
+      <c r="T615" s="36"/>
+      <c r="U615" s="36"/>
+    </row>
+    <row r="616" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="35">
         <v>43720.369120370371</v>
       </c>
@@ -23716,16 +24508,20 @@
       <c r="K616" s="40">
         <v>8800</v>
       </c>
-      <c r="L616" s="40">
+      <c r="L616" s="40"/>
+      <c r="M616" s="40"/>
+      <c r="N616" s="40"/>
+      <c r="O616" s="40"/>
+      <c r="P616" s="40">
         <v>850</v>
       </c>
-      <c r="M616" s="36"/>
-      <c r="N616" s="36"/>
-      <c r="O616" s="36"/>
-      <c r="P616" s="36"/>
       <c r="Q616" s="36"/>
-    </row>
-    <row r="617" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R616" s="36"/>
+      <c r="S616" s="36"/>
+      <c r="T616" s="36"/>
+      <c r="U616" s="36"/>
+    </row>
+    <row r="617" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="35">
         <v>43720.382407407407</v>
       </c>
@@ -23755,16 +24551,20 @@
       <c r="K617" s="40">
         <v>0</v>
       </c>
-      <c r="L617" s="40">
+      <c r="L617" s="40"/>
+      <c r="M617" s="40"/>
+      <c r="N617" s="40"/>
+      <c r="O617" s="40"/>
+      <c r="P617" s="40">
         <v>932</v>
       </c>
-      <c r="M617" s="36"/>
-      <c r="N617" s="36"/>
-      <c r="O617" s="36"/>
-      <c r="P617" s="36"/>
       <c r="Q617" s="36"/>
-    </row>
-    <row r="618" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R617" s="36"/>
+      <c r="S617" s="36"/>
+      <c r="T617" s="36"/>
+      <c r="U617" s="36"/>
+    </row>
+    <row r="618" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="35">
         <v>43720.394965277781</v>
       </c>
@@ -23794,16 +24594,20 @@
       <c r="K618" s="40">
         <v>610</v>
       </c>
-      <c r="L618" s="40">
+      <c r="L618" s="40"/>
+      <c r="M618" s="40"/>
+      <c r="N618" s="40"/>
+      <c r="O618" s="40"/>
+      <c r="P618" s="40">
         <v>911</v>
       </c>
-      <c r="M618" s="36"/>
-      <c r="N618" s="36"/>
-      <c r="O618" s="36"/>
-      <c r="P618" s="36"/>
       <c r="Q618" s="36"/>
-    </row>
-    <row r="619" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R618" s="36"/>
+      <c r="S618" s="36"/>
+      <c r="T618" s="36"/>
+      <c r="U618" s="36"/>
+    </row>
+    <row r="619" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="35">
         <v>43720.398113425923</v>
       </c>
@@ -23833,16 +24637,20 @@
       <c r="K619" s="40">
         <v>1840</v>
       </c>
-      <c r="L619" s="40">
+      <c r="L619" s="40"/>
+      <c r="M619" s="40"/>
+      <c r="N619" s="40"/>
+      <c r="O619" s="40"/>
+      <c r="P619" s="40">
         <v>2972</v>
       </c>
-      <c r="M619" s="36"/>
-      <c r="N619" s="36"/>
-      <c r="O619" s="36"/>
-      <c r="P619" s="36"/>
       <c r="Q619" s="36"/>
-    </row>
-    <row r="620" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R619" s="36"/>
+      <c r="S619" s="36"/>
+      <c r="T619" s="36"/>
+      <c r="U619" s="36"/>
+    </row>
+    <row r="620" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="35">
         <v>43720.401574074072</v>
       </c>
@@ -23859,7 +24667,7 @@
         <v>67</v>
       </c>
       <c r="F620" s="36" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G620" s="36"/>
       <c r="H620" s="40">
@@ -23872,16 +24680,18 @@
       <c r="K620" s="40">
         <v>0</v>
       </c>
-      <c r="L620" s="40">
-        <v>999999</v>
-      </c>
-      <c r="M620" s="36"/>
-      <c r="N620" s="36"/>
-      <c r="O620" s="36"/>
-      <c r="P620" s="36"/>
+      <c r="L620" s="40"/>
+      <c r="M620" s="40"/>
+      <c r="N620" s="40"/>
+      <c r="O620" s="40"/>
+      <c r="P620" s="40"/>
       <c r="Q620" s="36"/>
-    </row>
-    <row r="621" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R620" s="36"/>
+      <c r="S620" s="36"/>
+      <c r="T620" s="36"/>
+      <c r="U620" s="36"/>
+    </row>
+    <row r="621" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="35">
         <v>43720.404027777775</v>
       </c>
@@ -23898,7 +24708,7 @@
         <v>26</v>
       </c>
       <c r="F621" s="36" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G621" s="36"/>
       <c r="H621" s="40">
@@ -23911,16 +24721,18 @@
       <c r="K621" s="40">
         <v>3200</v>
       </c>
-      <c r="L621" s="40">
-        <v>830</v>
-      </c>
-      <c r="M621" s="36"/>
-      <c r="N621" s="36"/>
-      <c r="O621" s="36"/>
-      <c r="P621" s="36"/>
+      <c r="L621" s="40"/>
+      <c r="M621" s="40"/>
+      <c r="N621" s="40"/>
+      <c r="O621" s="40"/>
+      <c r="P621" s="40"/>
       <c r="Q621" s="36"/>
-    </row>
-    <row r="622" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R621" s="36"/>
+      <c r="S621" s="36"/>
+      <c r="T621" s="36"/>
+      <c r="U621" s="36"/>
+    </row>
+    <row r="622" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="35">
         <v>43720.406504629631</v>
       </c>
@@ -23950,14 +24762,18 @@
       <c r="K622" s="40">
         <v>1360</v>
       </c>
-      <c r="L622" s="36"/>
-      <c r="M622" s="36"/>
-      <c r="N622" s="36"/>
-      <c r="O622" s="36"/>
+      <c r="L622" s="40"/>
+      <c r="M622" s="40"/>
+      <c r="N622" s="40"/>
+      <c r="O622" s="40"/>
       <c r="P622" s="36"/>
       <c r="Q622" s="36"/>
-    </row>
-    <row r="623" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R622" s="36"/>
+      <c r="S622" s="36"/>
+      <c r="T622" s="36"/>
+      <c r="U622" s="36"/>
+    </row>
+    <row r="623" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="35">
         <v>43720.408645833333</v>
       </c>
@@ -23987,16 +24803,20 @@
       <c r="K623" s="40">
         <v>0</v>
       </c>
-      <c r="L623" s="40">
+      <c r="L623" s="40"/>
+      <c r="M623" s="40"/>
+      <c r="N623" s="40"/>
+      <c r="O623" s="40"/>
+      <c r="P623" s="40">
         <v>1104</v>
       </c>
-      <c r="M623" s="36"/>
-      <c r="N623" s="36"/>
-      <c r="O623" s="36"/>
-      <c r="P623" s="36"/>
       <c r="Q623" s="36"/>
-    </row>
-    <row r="624" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R623" s="36"/>
+      <c r="S623" s="36"/>
+      <c r="T623" s="36"/>
+      <c r="U623" s="36"/>
+    </row>
+    <row r="624" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="35">
         <v>43720.408958333333</v>
       </c>
@@ -24026,14 +24846,18 @@
       <c r="K624" s="40">
         <v>2000</v>
       </c>
-      <c r="L624" s="36"/>
-      <c r="M624" s="36"/>
-      <c r="N624" s="36"/>
-      <c r="O624" s="36"/>
+      <c r="L624" s="40"/>
+      <c r="M624" s="40"/>
+      <c r="N624" s="40"/>
+      <c r="O624" s="40"/>
       <c r="P624" s="36"/>
       <c r="Q624" s="36"/>
-    </row>
-    <row r="625" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R624" s="36"/>
+      <c r="S624" s="36"/>
+      <c r="T624" s="36"/>
+      <c r="U624" s="36"/>
+    </row>
+    <row r="625" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="35">
         <v>43720.41747685185</v>
       </c>
@@ -24050,7 +24874,7 @@
         <v>67</v>
       </c>
       <c r="F625" s="36" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G625" s="36"/>
       <c r="H625" s="40">
@@ -24063,14 +24887,18 @@
       <c r="K625" s="40">
         <v>0</v>
       </c>
-      <c r="L625" s="36"/>
-      <c r="M625" s="36"/>
-      <c r="N625" s="36"/>
-      <c r="O625" s="36"/>
+      <c r="L625" s="40"/>
+      <c r="M625" s="40"/>
+      <c r="N625" s="40"/>
+      <c r="O625" s="40"/>
       <c r="P625" s="36"/>
       <c r="Q625" s="36"/>
-    </row>
-    <row r="626" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R625" s="36"/>
+      <c r="S625" s="36"/>
+      <c r="T625" s="36"/>
+      <c r="U625" s="36"/>
+    </row>
+    <row r="626" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="35">
         <v>43720.423483796294</v>
       </c>
@@ -24087,7 +24915,7 @@
         <v>26</v>
       </c>
       <c r="F626" s="36" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G626" s="36"/>
       <c r="H626" s="40">
@@ -24100,16 +24928,20 @@
       <c r="K626" s="40">
         <v>4500</v>
       </c>
-      <c r="L626" s="40">
+      <c r="L626" s="40"/>
+      <c r="M626" s="40"/>
+      <c r="N626" s="40"/>
+      <c r="O626" s="40"/>
+      <c r="P626" s="40">
         <v>1662</v>
       </c>
-      <c r="M626" s="36"/>
-      <c r="N626" s="36"/>
-      <c r="O626" s="36"/>
-      <c r="P626" s="36"/>
       <c r="Q626" s="36"/>
-    </row>
-    <row r="627" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R626" s="36"/>
+      <c r="S626" s="36"/>
+      <c r="T626" s="36"/>
+      <c r="U626" s="36"/>
+    </row>
+    <row r="627" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="35">
         <v>43720.424189814818</v>
       </c>
@@ -24139,14 +24971,18 @@
       <c r="K627" s="40">
         <v>4350</v>
       </c>
-      <c r="L627" s="36"/>
-      <c r="M627" s="36"/>
-      <c r="N627" s="36"/>
-      <c r="O627" s="36"/>
+      <c r="L627" s="40"/>
+      <c r="M627" s="40"/>
+      <c r="N627" s="40"/>
+      <c r="O627" s="40"/>
       <c r="P627" s="36"/>
       <c r="Q627" s="36"/>
-    </row>
-    <row r="628" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R627" s="36"/>
+      <c r="S627" s="36"/>
+      <c r="T627" s="36"/>
+      <c r="U627" s="36"/>
+    </row>
+    <row r="628" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="35">
         <v>43720.430081018516</v>
       </c>
@@ -24163,7 +24999,7 @@
         <v>26</v>
       </c>
       <c r="F628" s="36" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G628" s="36"/>
       <c r="H628" s="40">
@@ -24178,8 +25014,12 @@
       <c r="O628" s="36"/>
       <c r="P628" s="36"/>
       <c r="Q628" s="36"/>
-    </row>
-    <row r="629" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R628" s="36"/>
+      <c r="S628" s="36"/>
+      <c r="T628" s="36"/>
+      <c r="U628" s="36"/>
+    </row>
+    <row r="629" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="35">
         <v>43720.436585648145</v>
       </c>
@@ -24209,16 +25049,20 @@
       <c r="K629" s="40">
         <v>0</v>
       </c>
-      <c r="L629" s="40">
+      <c r="L629" s="40"/>
+      <c r="M629" s="40"/>
+      <c r="N629" s="40"/>
+      <c r="O629" s="40"/>
+      <c r="P629" s="40">
         <v>959</v>
       </c>
-      <c r="M629" s="36"/>
-      <c r="N629" s="36"/>
-      <c r="O629" s="36"/>
-      <c r="P629" s="36"/>
       <c r="Q629" s="36"/>
-    </row>
-    <row r="630" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R629" s="36"/>
+      <c r="S629" s="36"/>
+      <c r="T629" s="36"/>
+      <c r="U629" s="36"/>
+    </row>
+    <row r="630" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="35">
         <v>43720.436747685184</v>
       </c>
@@ -24238,7 +25082,7 @@
         <v>508</v>
       </c>
       <c r="G630" s="39" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H630" s="40">
         <v>4.0999999999999996</v>
@@ -24250,14 +25094,18 @@
       <c r="K630" s="40">
         <v>4000</v>
       </c>
-      <c r="L630" s="36"/>
-      <c r="M630" s="36"/>
-      <c r="N630" s="36"/>
-      <c r="O630" s="36"/>
+      <c r="L630" s="40"/>
+      <c r="M630" s="40"/>
+      <c r="N630" s="40"/>
+      <c r="O630" s="40"/>
       <c r="P630" s="36"/>
       <c r="Q630" s="36"/>
-    </row>
-    <row r="631" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R630" s="36"/>
+      <c r="S630" s="36"/>
+      <c r="T630" s="36"/>
+      <c r="U630" s="36"/>
+    </row>
+    <row r="631" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="35">
         <v>43720.443541666667</v>
       </c>
@@ -24274,7 +25122,7 @@
         <v>26</v>
       </c>
       <c r="F631" s="36" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G631" s="36"/>
       <c r="H631" s="40">
@@ -24289,8 +25137,12 @@
       <c r="O631" s="36"/>
       <c r="P631" s="36"/>
       <c r="Q631" s="36"/>
-    </row>
-    <row r="632" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R631" s="36"/>
+      <c r="S631" s="36"/>
+      <c r="T631" s="36"/>
+      <c r="U631" s="36"/>
+    </row>
+    <row r="632" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="35">
         <v>43720.446979166663</v>
       </c>
@@ -24320,14 +25172,18 @@
       <c r="K632" s="40">
         <v>2260</v>
       </c>
-      <c r="L632" s="36"/>
-      <c r="M632" s="36"/>
-      <c r="N632" s="36"/>
-      <c r="O632" s="36"/>
+      <c r="L632" s="40"/>
+      <c r="M632" s="40"/>
+      <c r="N632" s="40"/>
+      <c r="O632" s="40"/>
       <c r="P632" s="36"/>
       <c r="Q632" s="36"/>
-    </row>
-    <row r="633" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R632" s="36"/>
+      <c r="S632" s="36"/>
+      <c r="T632" s="36"/>
+      <c r="U632" s="36"/>
+    </row>
+    <row r="633" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="35">
         <v>43720.452141203707</v>
       </c>
@@ -24344,7 +25200,7 @@
         <v>67</v>
       </c>
       <c r="F633" s="36" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G633" s="36"/>
       <c r="H633" s="40">
@@ -24357,14 +25213,18 @@
       <c r="K633" s="40">
         <v>0</v>
       </c>
-      <c r="L633" s="36"/>
-      <c r="M633" s="36"/>
-      <c r="N633" s="36"/>
-      <c r="O633" s="36"/>
+      <c r="L633" s="40"/>
+      <c r="M633" s="40"/>
+      <c r="N633" s="40"/>
+      <c r="O633" s="40"/>
       <c r="P633" s="36"/>
       <c r="Q633" s="36"/>
-    </row>
-    <row r="634" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R633" s="36"/>
+      <c r="S633" s="36"/>
+      <c r="T633" s="36"/>
+      <c r="U633" s="36"/>
+    </row>
+    <row r="634" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="35">
         <v>43720.453773148147</v>
       </c>
@@ -24394,14 +25254,18 @@
       <c r="K634" s="40">
         <v>2800</v>
       </c>
-      <c r="L634" s="36"/>
-      <c r="M634" s="36"/>
-      <c r="N634" s="36"/>
-      <c r="O634" s="36"/>
+      <c r="L634" s="40"/>
+      <c r="M634" s="40"/>
+      <c r="N634" s="40"/>
+      <c r="O634" s="40"/>
       <c r="P634" s="36"/>
       <c r="Q634" s="36"/>
-    </row>
-    <row r="635" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R634" s="36"/>
+      <c r="S634" s="36"/>
+      <c r="T634" s="36"/>
+      <c r="U634" s="36"/>
+    </row>
+    <row r="635" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="35">
         <v>43720.465578703705</v>
       </c>
@@ -24431,16 +25295,20 @@
       <c r="K635" s="40">
         <v>500</v>
       </c>
-      <c r="L635" s="40">
+      <c r="L635" s="40"/>
+      <c r="M635" s="40"/>
+      <c r="N635" s="40"/>
+      <c r="O635" s="40"/>
+      <c r="P635" s="40">
         <v>1908</v>
       </c>
-      <c r="M635" s="36"/>
-      <c r="N635" s="36"/>
-      <c r="O635" s="36"/>
-      <c r="P635" s="36"/>
       <c r="Q635" s="36"/>
-    </row>
-    <row r="636" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R635" s="36"/>
+      <c r="S635" s="36"/>
+      <c r="T635" s="36"/>
+      <c r="U635" s="36"/>
+    </row>
+    <row r="636" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="35">
         <v>43720.465752314813</v>
       </c>
@@ -24470,14 +25338,18 @@
       <c r="K636" s="40">
         <v>3500</v>
       </c>
-      <c r="L636" s="36"/>
-      <c r="M636" s="36"/>
-      <c r="N636" s="36"/>
-      <c r="O636" s="36"/>
+      <c r="L636" s="40"/>
+      <c r="M636" s="40"/>
+      <c r="N636" s="40"/>
+      <c r="O636" s="40"/>
       <c r="P636" s="36"/>
       <c r="Q636" s="36"/>
-    </row>
-    <row r="637" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R636" s="36"/>
+      <c r="S636" s="36"/>
+      <c r="T636" s="36"/>
+      <c r="U636" s="36"/>
+    </row>
+    <row r="637" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="35">
         <v>43720.471342592595</v>
       </c>
@@ -24507,16 +25379,20 @@
       <c r="K637" s="40">
         <v>1200</v>
       </c>
-      <c r="L637" s="40">
+      <c r="L637" s="40"/>
+      <c r="M637" s="40"/>
+      <c r="N637" s="40"/>
+      <c r="O637" s="40"/>
+      <c r="P637" s="40">
         <v>2611</v>
       </c>
-      <c r="M637" s="36"/>
-      <c r="N637" s="36"/>
-      <c r="O637" s="36"/>
-      <c r="P637" s="36"/>
       <c r="Q637" s="36"/>
-    </row>
-    <row r="638" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R637" s="36"/>
+      <c r="S637" s="36"/>
+      <c r="T637" s="36"/>
+      <c r="U637" s="36"/>
+    </row>
+    <row r="638" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="35">
         <v>43724.36278935185</v>
       </c>
@@ -24533,7 +25409,7 @@
         <v>26</v>
       </c>
       <c r="F638" s="36" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G638" s="36"/>
       <c r="H638" s="40">
@@ -24546,14 +25422,18 @@
       <c r="K638" s="40">
         <v>25</v>
       </c>
-      <c r="L638" s="36"/>
-      <c r="M638" s="36"/>
-      <c r="N638" s="36"/>
-      <c r="O638" s="36"/>
+      <c r="L638" s="40"/>
+      <c r="M638" s="40"/>
+      <c r="N638" s="40"/>
+      <c r="O638" s="40"/>
       <c r="P638" s="36"/>
       <c r="Q638" s="36"/>
-    </row>
-    <row r="639" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R638" s="36"/>
+      <c r="S638" s="36"/>
+      <c r="T638" s="36"/>
+      <c r="U638" s="36"/>
+    </row>
+    <row r="639" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="35">
         <v>43724.394594907404</v>
       </c>
@@ -24570,7 +25450,7 @@
         <v>26</v>
       </c>
       <c r="F639" s="36" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G639" s="36"/>
       <c r="H639" s="40">
@@ -24583,14 +25463,18 @@
       <c r="K639" s="40">
         <v>3100</v>
       </c>
-      <c r="L639" s="36"/>
-      <c r="M639" s="36"/>
-      <c r="N639" s="36"/>
-      <c r="O639" s="36"/>
+      <c r="L639" s="40"/>
+      <c r="M639" s="40"/>
+      <c r="N639" s="40"/>
+      <c r="O639" s="40"/>
       <c r="P639" s="36"/>
       <c r="Q639" s="36"/>
-    </row>
-    <row r="640" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R639" s="36"/>
+      <c r="S639" s="36"/>
+      <c r="T639" s="36"/>
+      <c r="U639" s="36"/>
+    </row>
+    <row r="640" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="35">
         <v>43724.397013888891</v>
       </c>
@@ -24607,7 +25491,7 @@
         <v>67</v>
       </c>
       <c r="F640" s="36" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G640" s="36"/>
       <c r="H640" s="40">
@@ -24620,16 +25504,20 @@
       <c r="K640" s="40">
         <v>0</v>
       </c>
-      <c r="L640" s="40">
-        <v>0</v>
-      </c>
-      <c r="M640" s="36"/>
-      <c r="N640" s="36"/>
-      <c r="O640" s="36"/>
-      <c r="P640" s="36"/>
+      <c r="L640" s="40"/>
+      <c r="M640" s="40"/>
+      <c r="N640" s="40"/>
+      <c r="O640" s="40"/>
+      <c r="P640" s="40">
+        <v>0</v>
+      </c>
       <c r="Q640" s="36"/>
-    </row>
-    <row r="641" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R640" s="36"/>
+      <c r="S640" s="36"/>
+      <c r="T640" s="36"/>
+      <c r="U640" s="36"/>
+    </row>
+    <row r="641" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="35">
         <v>43724.399456018517</v>
       </c>
@@ -24646,10 +25534,10 @@
         <v>26</v>
       </c>
       <c r="F641" s="36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G641" s="39" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H641" s="40">
         <v>1</v>
@@ -24661,14 +25549,18 @@
       <c r="K641" s="40">
         <v>840</v>
       </c>
-      <c r="L641" s="36"/>
-      <c r="M641" s="36"/>
-      <c r="N641" s="36"/>
-      <c r="O641" s="36"/>
+      <c r="L641" s="40"/>
+      <c r="M641" s="40"/>
+      <c r="N641" s="40"/>
+      <c r="O641" s="40"/>
       <c r="P641" s="36"/>
       <c r="Q641" s="36"/>
-    </row>
-    <row r="642" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R641" s="36"/>
+      <c r="S641" s="36"/>
+      <c r="T641" s="36"/>
+      <c r="U641" s="36"/>
+    </row>
+    <row r="642" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="35">
         <v>43724.403611111113</v>
       </c>
@@ -24698,14 +25590,18 @@
       <c r="K642" s="40">
         <v>1050</v>
       </c>
-      <c r="L642" s="36"/>
-      <c r="M642" s="36"/>
-      <c r="N642" s="36"/>
-      <c r="O642" s="36"/>
+      <c r="L642" s="40"/>
+      <c r="M642" s="40"/>
+      <c r="N642" s="40"/>
+      <c r="O642" s="40"/>
       <c r="P642" s="36"/>
       <c r="Q642" s="36"/>
-    </row>
-    <row r="643" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R642" s="36"/>
+      <c r="S642" s="36"/>
+      <c r="T642" s="36"/>
+      <c r="U642" s="36"/>
+    </row>
+    <row r="643" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="35">
         <v>43724.410555555558</v>
       </c>
@@ -24737,8 +25633,12 @@
       <c r="O643" s="36"/>
       <c r="P643" s="36"/>
       <c r="Q643" s="36"/>
-    </row>
-    <row r="644" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R643" s="36"/>
+      <c r="S643" s="36"/>
+      <c r="T643" s="36"/>
+      <c r="U643" s="36"/>
+    </row>
+    <row r="644" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="35">
         <v>43724.414629629631</v>
       </c>
@@ -24755,7 +25655,7 @@
         <v>26</v>
       </c>
       <c r="F644" s="36" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G644" s="36"/>
       <c r="H644" s="40">
@@ -24768,16 +25668,20 @@
       <c r="K644" s="40">
         <v>400</v>
       </c>
-      <c r="L644" s="40">
-        <v>0</v>
-      </c>
-      <c r="M644" s="36"/>
-      <c r="N644" s="36"/>
-      <c r="O644" s="36"/>
-      <c r="P644" s="36"/>
+      <c r="L644" s="40"/>
+      <c r="M644" s="40"/>
+      <c r="N644" s="40"/>
+      <c r="O644" s="40"/>
+      <c r="P644" s="40">
+        <v>0</v>
+      </c>
       <c r="Q644" s="36"/>
-    </row>
-    <row r="645" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R644" s="36"/>
+      <c r="S644" s="36"/>
+      <c r="T644" s="36"/>
+      <c r="U644" s="36"/>
+    </row>
+    <row r="645" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="35">
         <v>43724.420162037037</v>
       </c>
@@ -24794,7 +25698,7 @@
         <v>26</v>
       </c>
       <c r="F645" s="36" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G645" s="36"/>
       <c r="H645" s="40">
@@ -24807,14 +25711,18 @@
       <c r="K645" s="40">
         <v>8000</v>
       </c>
-      <c r="L645" s="36"/>
-      <c r="M645" s="36"/>
-      <c r="N645" s="36"/>
-      <c r="O645" s="36"/>
+      <c r="L645" s="40"/>
+      <c r="M645" s="40"/>
+      <c r="N645" s="40"/>
+      <c r="O645" s="40"/>
       <c r="P645" s="36"/>
       <c r="Q645" s="36"/>
-    </row>
-    <row r="646" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R645" s="36"/>
+      <c r="S645" s="36"/>
+      <c r="T645" s="36"/>
+      <c r="U645" s="36"/>
+    </row>
+    <row r="646" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="35">
         <v>43724.422766203701</v>
       </c>
@@ -24831,12 +25739,10 @@
         <v>71</v>
       </c>
       <c r="F646" s="36" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G646" s="36"/>
-      <c r="H646" s="40">
-        <v>-99999</v>
-      </c>
+      <c r="H646" s="40"/>
       <c r="I646" s="36"/>
       <c r="J646" s="40">
         <v>60</v>
@@ -24844,16 +25750,18 @@
       <c r="K646" s="40">
         <v>0</v>
       </c>
-      <c r="L646" s="40">
-        <v>99999</v>
-      </c>
-      <c r="M646" s="36"/>
-      <c r="N646" s="36"/>
-      <c r="O646" s="36"/>
-      <c r="P646" s="36"/>
+      <c r="L646" s="40"/>
+      <c r="M646" s="40"/>
+      <c r="N646" s="40"/>
+      <c r="O646" s="40"/>
+      <c r="P646" s="40"/>
       <c r="Q646" s="36"/>
-    </row>
-    <row r="647" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R646" s="36"/>
+      <c r="S646" s="36"/>
+      <c r="T646" s="36"/>
+      <c r="U646" s="36"/>
+    </row>
+    <row r="647" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="35">
         <v>43724.428171296298</v>
       </c>
@@ -24870,11 +25778,11 @@
         <v>71</v>
       </c>
       <c r="F647" s="36" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G647" s="36"/>
       <c r="H647" s="40">
-        <v>-99999</v>
+        <v>0</v>
       </c>
       <c r="I647" s="36"/>
       <c r="J647" s="40">
@@ -24883,16 +25791,18 @@
       <c r="K647" s="40">
         <v>0</v>
       </c>
-      <c r="L647" s="40">
-        <v>9999999</v>
-      </c>
-      <c r="M647" s="36"/>
-      <c r="N647" s="36"/>
-      <c r="O647" s="36"/>
-      <c r="P647" s="36"/>
+      <c r="L647" s="40"/>
+      <c r="M647" s="40"/>
+      <c r="N647" s="40"/>
+      <c r="O647" s="40"/>
+      <c r="P647" s="40"/>
       <c r="Q647" s="36"/>
-    </row>
-    <row r="648" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R647" s="36"/>
+      <c r="S647" s="36"/>
+      <c r="T647" s="36"/>
+      <c r="U647" s="36"/>
+    </row>
+    <row r="648" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="35">
         <v>43724.429629629631</v>
       </c>
@@ -24909,7 +25819,7 @@
         <v>26</v>
       </c>
       <c r="F648" s="36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G648" s="36"/>
       <c r="H648" s="40">
@@ -24924,8 +25834,12 @@
       <c r="O648" s="36"/>
       <c r="P648" s="36"/>
       <c r="Q648" s="36"/>
-    </row>
-    <row r="649" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R648" s="36"/>
+      <c r="S648" s="36"/>
+      <c r="T648" s="36"/>
+      <c r="U648" s="36"/>
+    </row>
+    <row r="649" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="35">
         <v>43724.431944444441</v>
       </c>
@@ -24957,8 +25871,12 @@
       <c r="O649" s="36"/>
       <c r="P649" s="36"/>
       <c r="Q649" s="36"/>
-    </row>
-    <row r="650" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R649" s="36"/>
+      <c r="S649" s="36"/>
+      <c r="T649" s="36"/>
+      <c r="U649" s="36"/>
+    </row>
+    <row r="650" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="35">
         <v>43724.438078703701</v>
       </c>
@@ -24975,7 +25893,7 @@
         <v>67</v>
       </c>
       <c r="F650" s="36" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G650" s="36"/>
       <c r="H650" s="40">
@@ -24988,16 +25906,18 @@
       <c r="K650" s="40">
         <v>0</v>
       </c>
-      <c r="L650" s="40">
-        <v>999999</v>
-      </c>
-      <c r="M650" s="36"/>
-      <c r="N650" s="36"/>
-      <c r="O650" s="36"/>
-      <c r="P650" s="36"/>
+      <c r="L650" s="40"/>
+      <c r="M650" s="40"/>
+      <c r="N650" s="40"/>
+      <c r="O650" s="40"/>
+      <c r="P650" s="40"/>
       <c r="Q650" s="36"/>
-    </row>
-    <row r="651" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R650" s="36"/>
+      <c r="S650" s="36"/>
+      <c r="T650" s="36"/>
+      <c r="U650" s="36"/>
+    </row>
+    <row r="651" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="35">
         <v>43724.443738425929</v>
       </c>
@@ -25014,7 +25934,7 @@
         <v>26</v>
       </c>
       <c r="F651" s="36" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G651" s="36"/>
       <c r="H651" s="40">
@@ -25027,14 +25947,18 @@
       <c r="K651" s="40">
         <v>5400</v>
       </c>
-      <c r="L651" s="36"/>
-      <c r="M651" s="36"/>
-      <c r="N651" s="36"/>
-      <c r="O651" s="36"/>
+      <c r="L651" s="40"/>
+      <c r="M651" s="40"/>
+      <c r="N651" s="40"/>
+      <c r="O651" s="40"/>
       <c r="P651" s="36"/>
       <c r="Q651" s="36"/>
-    </row>
-    <row r="652" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R651" s="36"/>
+      <c r="S651" s="36"/>
+      <c r="T651" s="36"/>
+      <c r="U651" s="36"/>
+    </row>
+    <row r="652" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="35">
         <v>43724.443923611114</v>
       </c>
@@ -25051,7 +25975,7 @@
         <v>67</v>
       </c>
       <c r="F652" s="36" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G652" s="36"/>
       <c r="H652" s="40">
@@ -25064,14 +25988,18 @@
       <c r="K652" s="40">
         <v>0</v>
       </c>
-      <c r="L652" s="36"/>
-      <c r="M652" s="36"/>
-      <c r="N652" s="36"/>
-      <c r="O652" s="36"/>
+      <c r="L652" s="40"/>
+      <c r="M652" s="40"/>
+      <c r="N652" s="40"/>
+      <c r="O652" s="40"/>
       <c r="P652" s="36"/>
       <c r="Q652" s="36"/>
-    </row>
-    <row r="653" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R652" s="36"/>
+      <c r="S652" s="36"/>
+      <c r="T652" s="36"/>
+      <c r="U652" s="36"/>
+    </row>
+    <row r="653" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="35">
         <v>43724.46465277778</v>
       </c>
@@ -25088,7 +26016,7 @@
         <v>26</v>
       </c>
       <c r="F653" s="36" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G653" s="36"/>
       <c r="H653" s="40">
@@ -25101,16 +26029,18 @@
       <c r="K653" s="40">
         <v>200</v>
       </c>
-      <c r="L653" s="40">
-        <v>999999</v>
-      </c>
-      <c r="M653" s="36"/>
-      <c r="N653" s="36"/>
-      <c r="O653" s="36"/>
-      <c r="P653" s="36"/>
+      <c r="L653" s="40"/>
+      <c r="M653" s="40"/>
+      <c r="N653" s="40"/>
+      <c r="O653" s="40"/>
+      <c r="P653" s="40"/>
       <c r="Q653" s="36"/>
-    </row>
-    <row r="654" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R653" s="36"/>
+      <c r="S653" s="36"/>
+      <c r="T653" s="36"/>
+      <c r="U653" s="36"/>
+    </row>
+    <row r="654" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="35">
         <v>43724.464803240742</v>
       </c>
@@ -25127,7 +26057,7 @@
         <v>26</v>
       </c>
       <c r="F654" s="36" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G654" s="36"/>
       <c r="H654" s="40">
@@ -25140,14 +26070,18 @@
       <c r="K654" s="40">
         <v>220</v>
       </c>
-      <c r="L654" s="36"/>
-      <c r="M654" s="36"/>
-      <c r="N654" s="36"/>
-      <c r="O654" s="36"/>
+      <c r="L654" s="40"/>
+      <c r="M654" s="40"/>
+      <c r="N654" s="40"/>
+      <c r="O654" s="40"/>
       <c r="P654" s="36"/>
       <c r="Q654" s="36"/>
-    </row>
-    <row r="655" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R654" s="36"/>
+      <c r="S654" s="36"/>
+      <c r="T654" s="36"/>
+      <c r="U654" s="36"/>
+    </row>
+    <row r="655" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="35">
         <v>43724.471284722225</v>
       </c>
@@ -25164,10 +26098,10 @@
         <v>26</v>
       </c>
       <c r="F655" s="36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G655" s="39" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H655" s="40">
         <v>1.6</v>
@@ -25179,14 +26113,18 @@
       <c r="K655" s="40">
         <v>1600</v>
       </c>
-      <c r="L655" s="36"/>
-      <c r="M655" s="36"/>
-      <c r="N655" s="36"/>
-      <c r="O655" s="36"/>
+      <c r="L655" s="40"/>
+      <c r="M655" s="40"/>
+      <c r="N655" s="40"/>
+      <c r="O655" s="40"/>
       <c r="P655" s="36"/>
       <c r="Q655" s="36"/>
-    </row>
-    <row r="656" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R655" s="36"/>
+      <c r="S655" s="36"/>
+      <c r="T655" s="36"/>
+      <c r="U655" s="36"/>
+    </row>
+    <row r="656" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="35">
         <v>43724.475428240738</v>
       </c>
@@ -25203,7 +26141,7 @@
         <v>67</v>
       </c>
       <c r="F656" s="36" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G656" s="36"/>
       <c r="H656" s="40">
@@ -25216,16 +26154,18 @@
       <c r="K656" s="40">
         <v>0</v>
       </c>
-      <c r="L656" s="40">
-        <v>999999</v>
-      </c>
-      <c r="M656" s="36"/>
-      <c r="N656" s="36"/>
-      <c r="O656" s="36"/>
-      <c r="P656" s="36"/>
+      <c r="L656" s="40"/>
+      <c r="M656" s="40"/>
+      <c r="N656" s="40"/>
+      <c r="O656" s="40"/>
+      <c r="P656" s="40"/>
       <c r="Q656" s="36"/>
-    </row>
-    <row r="657" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R656" s="36"/>
+      <c r="S656" s="36"/>
+      <c r="T656" s="36"/>
+      <c r="U656" s="36"/>
+    </row>
+    <row r="657" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="35">
         <v>43724.487824074073</v>
       </c>
@@ -25242,7 +26182,7 @@
         <v>26</v>
       </c>
       <c r="F657" s="36" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G657" s="36"/>
       <c r="H657" s="40">
@@ -25255,14 +26195,18 @@
       <c r="K657" s="40">
         <v>650</v>
       </c>
-      <c r="L657" s="36"/>
-      <c r="M657" s="36"/>
-      <c r="N657" s="36"/>
-      <c r="O657" s="36"/>
+      <c r="L657" s="40"/>
+      <c r="M657" s="40"/>
+      <c r="N657" s="40"/>
+      <c r="O657" s="40"/>
       <c r="P657" s="36"/>
       <c r="Q657" s="36"/>
-    </row>
-    <row r="658" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R657" s="36"/>
+      <c r="S657" s="36"/>
+      <c r="T657" s="36"/>
+      <c r="U657" s="36"/>
+    </row>
+    <row r="658" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="35">
         <v>43724.500405092593</v>
       </c>
@@ -25279,7 +26223,7 @@
         <v>67</v>
       </c>
       <c r="F658" s="36" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G658" s="36"/>
       <c r="H658" s="40">
@@ -25292,16 +26236,18 @@
       <c r="K658" s="40">
         <v>0</v>
       </c>
-      <c r="L658" s="40">
-        <v>999999</v>
-      </c>
-      <c r="M658" s="36"/>
-      <c r="N658" s="36"/>
-      <c r="O658" s="36"/>
-      <c r="P658" s="36"/>
+      <c r="L658" s="40"/>
+      <c r="M658" s="40"/>
+      <c r="N658" s="40"/>
+      <c r="O658" s="40"/>
+      <c r="P658" s="40"/>
       <c r="Q658" s="36"/>
-    </row>
-    <row r="659" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R658" s="36"/>
+      <c r="S658" s="36"/>
+      <c r="T658" s="36"/>
+      <c r="U658" s="36"/>
+    </row>
+    <row r="659" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="35">
         <v>43724.501759259256</v>
       </c>
@@ -25318,7 +26264,7 @@
         <v>26</v>
       </c>
       <c r="F659" s="36" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G659" s="36"/>
       <c r="H659" s="40">
@@ -25331,16 +26277,18 @@
       <c r="K659" s="40">
         <v>1800</v>
       </c>
-      <c r="L659" s="40">
-        <v>999999</v>
-      </c>
-      <c r="M659" s="36"/>
-      <c r="N659" s="36"/>
-      <c r="O659" s="36"/>
-      <c r="P659" s="36"/>
+      <c r="L659" s="40"/>
+      <c r="M659" s="40"/>
+      <c r="N659" s="40"/>
+      <c r="O659" s="40"/>
+      <c r="P659" s="40"/>
       <c r="Q659" s="36"/>
-    </row>
-    <row r="660" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R659" s="36"/>
+      <c r="S659" s="36"/>
+      <c r="T659" s="36"/>
+      <c r="U659" s="36"/>
+    </row>
+    <row r="660" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="35">
         <v>43724.508275462962</v>
       </c>
@@ -25370,14 +26318,18 @@
       <c r="K660" s="40">
         <v>1590</v>
       </c>
-      <c r="L660" s="36"/>
-      <c r="M660" s="36"/>
-      <c r="N660" s="36"/>
-      <c r="O660" s="36"/>
+      <c r="L660" s="40"/>
+      <c r="M660" s="40"/>
+      <c r="N660" s="40"/>
+      <c r="O660" s="40"/>
       <c r="P660" s="36"/>
       <c r="Q660" s="36"/>
-    </row>
-    <row r="661" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R660" s="36"/>
+      <c r="S660" s="36"/>
+      <c r="T660" s="36"/>
+      <c r="U660" s="36"/>
+    </row>
+    <row r="661" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="35">
         <v>43724.51425925926</v>
       </c>
@@ -25407,14 +26359,18 @@
       <c r="K661" s="40">
         <v>2275</v>
       </c>
-      <c r="L661" s="36"/>
-      <c r="M661" s="36"/>
-      <c r="N661" s="36"/>
-      <c r="O661" s="36"/>
+      <c r="L661" s="40"/>
+      <c r="M661" s="40"/>
+      <c r="N661" s="40"/>
+      <c r="O661" s="40"/>
       <c r="P661" s="36"/>
       <c r="Q661" s="36"/>
-    </row>
-    <row r="662" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R661" s="36"/>
+      <c r="S661" s="36"/>
+      <c r="T661" s="36"/>
+      <c r="U661" s="36"/>
+    </row>
+    <row r="662" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="35">
         <v>43724.522696759261</v>
       </c>
@@ -25431,7 +26387,7 @@
         <v>71</v>
       </c>
       <c r="F662" s="36" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G662" s="36"/>
       <c r="H662" s="36"/>
@@ -25444,8 +26400,12 @@
       <c r="O662" s="36"/>
       <c r="P662" s="36"/>
       <c r="Q662" s="36"/>
-    </row>
-    <row r="663" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R662" s="36"/>
+      <c r="S662" s="36"/>
+      <c r="T662" s="36"/>
+      <c r="U662" s="36"/>
+    </row>
+    <row r="663" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="35">
         <v>43724.546423611115</v>
       </c>
@@ -25462,10 +26422,10 @@
         <v>26</v>
       </c>
       <c r="F663" s="36" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G663" s="39" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H663" s="40">
         <v>0.7</v>
@@ -25479,8 +26439,12 @@
       <c r="O663" s="36"/>
       <c r="P663" s="36"/>
       <c r="Q663" s="36"/>
-    </row>
-    <row r="664" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R663" s="36"/>
+      <c r="S663" s="36"/>
+      <c r="T663" s="36"/>
+      <c r="U663" s="36"/>
+    </row>
+    <row r="664" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="35">
         <v>43724.578912037039</v>
       </c>
@@ -25510,14 +26474,18 @@
       <c r="K664" s="40">
         <v>850</v>
       </c>
-      <c r="L664" s="36"/>
-      <c r="M664" s="36"/>
-      <c r="N664" s="36"/>
-      <c r="O664" s="36"/>
+      <c r="L664" s="40"/>
+      <c r="M664" s="40"/>
+      <c r="N664" s="40"/>
+      <c r="O664" s="40"/>
       <c r="P664" s="36"/>
       <c r="Q664" s="36"/>
-    </row>
-    <row r="665" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R664" s="36"/>
+      <c r="S664" s="36"/>
+      <c r="T664" s="36"/>
+      <c r="U664" s="36"/>
+    </row>
+    <row r="665" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="35">
         <v>43724.592453703706</v>
       </c>
@@ -25534,7 +26502,7 @@
         <v>26</v>
       </c>
       <c r="F665" s="36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G665" s="36"/>
       <c r="H665" s="40">
@@ -25547,14 +26515,18 @@
       <c r="K665" s="40">
         <v>1290</v>
       </c>
-      <c r="L665" s="36"/>
-      <c r="M665" s="36"/>
-      <c r="N665" s="36"/>
-      <c r="O665" s="36"/>
+      <c r="L665" s="40"/>
+      <c r="M665" s="40"/>
+      <c r="N665" s="40"/>
+      <c r="O665" s="40"/>
       <c r="P665" s="36"/>
       <c r="Q665" s="36"/>
-    </row>
-    <row r="666" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R665" s="36"/>
+      <c r="S665" s="36"/>
+      <c r="T665" s="36"/>
+      <c r="U665" s="36"/>
+    </row>
+    <row r="666" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="35">
         <v>43724.603819444441</v>
       </c>
@@ -25571,7 +26543,7 @@
         <v>26</v>
       </c>
       <c r="F666" s="36" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G666" s="36"/>
       <c r="H666" s="40">
@@ -25584,14 +26556,18 @@
       <c r="K666" s="40">
         <v>3850</v>
       </c>
-      <c r="L666" s="36"/>
-      <c r="M666" s="36"/>
-      <c r="N666" s="36"/>
-      <c r="O666" s="36"/>
+      <c r="L666" s="40"/>
+      <c r="M666" s="40"/>
+      <c r="N666" s="40"/>
+      <c r="O666" s="40"/>
       <c r="P666" s="36"/>
       <c r="Q666" s="36"/>
-    </row>
-    <row r="667" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R666" s="36"/>
+      <c r="S666" s="36"/>
+      <c r="T666" s="36"/>
+      <c r="U666" s="36"/>
+    </row>
+    <row r="667" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="35">
         <v>43724.606689814813</v>
       </c>
@@ -25608,7 +26584,7 @@
         <v>26</v>
       </c>
       <c r="F667" s="36" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G667" s="36"/>
       <c r="H667" s="40">
@@ -25621,14 +26597,18 @@
       <c r="K667" s="40">
         <v>1340</v>
       </c>
-      <c r="L667" s="36"/>
-      <c r="M667" s="36"/>
-      <c r="N667" s="36"/>
-      <c r="O667" s="36"/>
+      <c r="L667" s="40"/>
+      <c r="M667" s="40"/>
+      <c r="N667" s="40"/>
+      <c r="O667" s="40"/>
       <c r="P667" s="36"/>
       <c r="Q667" s="36"/>
-    </row>
-    <row r="668" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R667" s="36"/>
+      <c r="S667" s="36"/>
+      <c r="T667" s="36"/>
+      <c r="U667" s="36"/>
+    </row>
+    <row r="668" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="35">
         <v>43724.630578703705</v>
       </c>
@@ -25645,10 +26625,10 @@
         <v>67</v>
       </c>
       <c r="F668" s="36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G668" s="39" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H668" s="40">
         <v>0</v>
@@ -25662,8 +26642,12 @@
       <c r="O668" s="36"/>
       <c r="P668" s="36"/>
       <c r="Q668" s="36"/>
-    </row>
-    <row r="669" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R668" s="36"/>
+      <c r="S668" s="36"/>
+      <c r="T668" s="36"/>
+      <c r="U668" s="36"/>
+    </row>
+    <row r="669" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="35">
         <v>43724.63517361111</v>
       </c>
@@ -25680,7 +26664,7 @@
         <v>26</v>
       </c>
       <c r="F669" s="36" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G669" s="36"/>
       <c r="H669" s="40">
@@ -25693,14 +26677,18 @@
       <c r="K669" s="40">
         <v>4400</v>
       </c>
-      <c r="L669" s="36"/>
-      <c r="M669" s="36"/>
-      <c r="N669" s="36"/>
-      <c r="O669" s="36"/>
+      <c r="L669" s="40"/>
+      <c r="M669" s="40"/>
+      <c r="N669" s="40"/>
+      <c r="O669" s="40"/>
       <c r="P669" s="36"/>
       <c r="Q669" s="36"/>
-    </row>
-    <row r="670" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R669" s="36"/>
+      <c r="S669" s="36"/>
+      <c r="T669" s="36"/>
+      <c r="U669" s="36"/>
+    </row>
+    <row r="670" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="35">
         <v>43724.656759259262</v>
       </c>
@@ -25717,7 +26705,7 @@
         <v>26</v>
       </c>
       <c r="F670" s="36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G670" s="36"/>
       <c r="H670" s="40">
@@ -25730,14 +26718,18 @@
       <c r="K670" s="40">
         <v>1290</v>
       </c>
-      <c r="L670" s="36"/>
-      <c r="M670" s="36"/>
-      <c r="N670" s="36"/>
-      <c r="O670" s="36"/>
+      <c r="L670" s="40"/>
+      <c r="M670" s="40"/>
+      <c r="N670" s="40"/>
+      <c r="O670" s="40"/>
       <c r="P670" s="36"/>
       <c r="Q670" s="36"/>
-    </row>
-    <row r="671" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R670" s="36"/>
+      <c r="S670" s="36"/>
+      <c r="T670" s="36"/>
+      <c r="U670" s="36"/>
+    </row>
+    <row r="671" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="35">
         <v>43724.663090277776</v>
       </c>
@@ -25767,14 +26759,18 @@
       <c r="K671" s="40">
         <v>1185</v>
       </c>
-      <c r="L671" s="36"/>
-      <c r="M671" s="36"/>
-      <c r="N671" s="36"/>
-      <c r="O671" s="36"/>
+      <c r="L671" s="40"/>
+      <c r="M671" s="40"/>
+      <c r="N671" s="40"/>
+      <c r="O671" s="40"/>
       <c r="P671" s="36"/>
       <c r="Q671" s="36"/>
-    </row>
-    <row r="672" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R671" s="36"/>
+      <c r="S671" s="36"/>
+      <c r="T671" s="36"/>
+      <c r="U671" s="36"/>
+    </row>
+    <row r="672" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="35">
         <v>43725.495740740742</v>
       </c>
@@ -25806,8 +26802,12 @@
       <c r="O672" s="36"/>
       <c r="P672" s="36"/>
       <c r="Q672" s="36"/>
-    </row>
-    <row r="673" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R672" s="36"/>
+      <c r="S672" s="36"/>
+      <c r="T672" s="36"/>
+      <c r="U672" s="36"/>
+    </row>
+    <row r="673" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="35">
         <v>43725.515069444446</v>
       </c>
@@ -25824,7 +26824,7 @@
         <v>26</v>
       </c>
       <c r="F673" s="36" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G673" s="36"/>
       <c r="H673" s="40">
@@ -25839,8 +26839,12 @@
       <c r="O673" s="36"/>
       <c r="P673" s="36"/>
       <c r="Q673" s="36"/>
-    </row>
-    <row r="674" spans="1:17" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R673" s="36"/>
+      <c r="S673" s="36"/>
+      <c r="T673" s="36"/>
+      <c r="U673" s="36"/>
+    </row>
+    <row r="674" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="35">
         <v>43726.53087962963</v>
       </c>
@@ -25857,7 +26861,7 @@
         <v>26</v>
       </c>
       <c r="F674" s="36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G674" s="36"/>
       <c r="H674" s="40">
@@ -25870,18 +26874,23 @@
       <c r="K674" s="40">
         <v>1290</v>
       </c>
-      <c r="L674" s="36"/>
-      <c r="M674" s="36"/>
-      <c r="N674" s="36"/>
-      <c r="O674" s="36"/>
+      <c r="L674" s="40"/>
+      <c r="M674" s="40"/>
+      <c r="N674" s="40"/>
+      <c r="O674" s="40"/>
       <c r="P674" s="36"/>
       <c r="Q674" s="36"/>
+      <c r="R674" s="36"/>
+      <c r="S674" s="36"/>
+      <c r="T674" s="36"/>
+      <c r="U674" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P674">
     <filterColumn colId="1">
       <filters>
-        <filter val="SDG-085G"/>
+        <filter val="SDR-127"/>
+        <filter val="SDR-127B"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 09_15_2019.xlsx
+++ b/0 - Field Data Sheets/Weir Calibration Field Form 2019 CURRENT 09_15_2019.xlsx
@@ -17,7 +17,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="3" state="veryHidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$P$673</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$AA$673</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2256,7 +2256,7 @@
         <xdr:cNvPr id="2" name="EsriDoNotEdit">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,8 +2605,8 @@
   <dimension ref="A1:AA673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D469" sqref="D469"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H497" sqref="H497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3119,7 +3119,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43591.527513136578</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>43592.637291597217</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>43594.624838090276</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>43595.711790578702</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>43598.531430370371</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>43599.485035810183</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>43620.531383842594</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>43620.53862825231</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>43620.562107916667</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>43633.539491469906</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>43633.63865868056</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>367</v>
       </c>
       <c r="H252" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J252" s="5">
         <v>3.2</v>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="Q321" s="5"/>
     </row>
-    <row r="322" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
         <v>43647.54435773148</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="25">
         <v>43661.465437303239</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="25">
         <v>43662.423942743058</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="25">
         <v>43662.524749976852</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="25">
         <v>43662.526702222225</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="25">
         <v>43662.528149259262</v>
       </c>
@@ -15632,7 +15632,7 @@
       </c>
       <c r="P387" s="26"/>
     </row>
-    <row r="388" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="25">
         <v>43662.530195763888</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="25">
         <v>43662.533871203705</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="25">
         <v>43662.534038217593</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="25">
         <v>43662.552655601852</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="25">
         <v>43662.553831041667</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="25">
         <v>43662.553892222219</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="25">
         <v>43662.576265393523</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="25">
         <v>43662.605140277781</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="25">
         <v>43662.608947546294</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="25">
         <v>43662.630076076384</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="25">
         <v>43662.638398935189</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="25">
         <v>43662.651400266201</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="25">
         <v>43662.653115231486</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="25">
         <v>43662.868660763888</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="402" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="25">
         <v>43665.537839201388</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="25">
         <v>43665.538775069443</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="25">
         <v>43665.565719756945</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="405" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="25">
         <v>43665.602270196759</v>
       </c>
@@ -16996,7 +16996,7 @@
       <c r="Z423" s="36"/>
       <c r="AA423" s="36"/>
     </row>
-    <row r="424" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="35">
         <v>43677.509918981479</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="50">
         <v>43691.5980102662</v>
       </c>
@@ -20000,7 +20000,7 @@
       <c r="O496" s="48"/>
       <c r="P496" s="47"/>
     </row>
-    <row r="497" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="50">
         <v>43692.463983391208</v>
       </c>
@@ -20292,7 +20292,7 @@
       <c r="O504" s="47"/>
       <c r="P504" s="47"/>
     </row>
-    <row r="505" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="50">
         <v>43699.54147059028</v>
       </c>
@@ -21304,7 +21304,7 @@
       <c r="O532" s="48"/>
       <c r="P532" s="47"/>
     </row>
-    <row r="533" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="50">
         <v>43706.430542476854</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="50">
         <v>43712.399156678242</v>
       </c>
@@ -22124,7 +22124,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="50">
         <v>43712.407757083332</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="556" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="50">
         <v>43712.409943379629</v>
       </c>
@@ -22198,7 +22198,7 @@
       <c r="O556" s="48"/>
       <c r="P556" s="48"/>
     </row>
-    <row r="557" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="50">
         <v>43712.415547476849</v>
       </c>
@@ -22236,7 +22236,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="558" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="50">
         <v>43712.421258125003</v>
       </c>
@@ -22274,7 +22274,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="50">
         <v>43712.424563483801</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="50">
         <v>43712.432625416666</v>
       </c>
@@ -22350,7 +22350,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="50">
         <v>43712.440652013887</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="562" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="50">
         <v>43712.451808379628</v>
       </c>
@@ -22426,7 +22426,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="50">
         <v>43712.459328969911</v>
       </c>
@@ -22456,7 +22456,7 @@
       <c r="O563" s="47"/>
       <c r="P563" s="47"/>
     </row>
-    <row r="564" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="50">
         <v>43712.464040497682</v>
       </c>
@@ -22492,7 +22492,7 @@
       <c r="O564" s="48"/>
       <c r="P564" s="47"/>
     </row>
-    <row r="565" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="50">
         <v>43712.47561248843</v>
       </c>
@@ -22530,7 +22530,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="50">
         <v>43712.478235138886</v>
       </c>
@@ -22566,7 +22566,7 @@
       <c r="O566" s="48"/>
       <c r="P566" s="47"/>
     </row>
-    <row r="567" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="50">
         <v>43712.482904131946</v>
       </c>
@@ -22602,7 +22602,7 @@
       <c r="O567" s="48"/>
       <c r="P567" s="47"/>
     </row>
-    <row r="568" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="50">
         <v>43712.486539513891</v>
       </c>
@@ -22640,7 +22640,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="569" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="50">
         <v>43712.486583101854</v>
       </c>
@@ -22672,7 +22672,7 @@
       <c r="O569" s="47"/>
       <c r="P569" s="47"/>
     </row>
-    <row r="570" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="50">
         <v>43712.518857824078</v>
       </c>
@@ -22710,7 +22710,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="50">
         <v>43712.534898750004</v>
       </c>
@@ -22748,7 +22748,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="50">
         <v>43712.535281874996</v>
       </c>
@@ -22780,7 +22780,7 @@
       <c r="O572" s="47"/>
       <c r="P572" s="47"/>
     </row>
-    <row r="573" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="50">
         <v>43712.545961504627</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="50">
         <v>43712.554804884261</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="575" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="50">
         <v>43712.568402986115</v>
       </c>
@@ -22892,7 +22892,7 @@
       <c r="O575" s="48"/>
       <c r="P575" s="47"/>
     </row>
-    <row r="576" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="50">
         <v>43712.570633854164</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="50">
         <v>43712.593498831018</v>
       </c>
@@ -22962,7 +22962,7 @@
       <c r="O577" s="47"/>
       <c r="P577" s="47"/>
     </row>
-    <row r="578" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="50">
         <v>43712.60098609954</v>
       </c>
@@ -22998,7 +22998,7 @@
       <c r="O578" s="48"/>
       <c r="P578" s="47"/>
     </row>
-    <row r="579" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="50">
         <v>43712.637202280093</v>
       </c>
@@ -23036,7 +23036,7 @@
       <c r="O579" s="48"/>
       <c r="P579" s="47"/>
     </row>
-    <row r="580" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="50">
         <v>43712.648180833334</v>
       </c>
@@ -23074,7 +23074,7 @@
       <c r="O580" s="48"/>
       <c r="P580" s="47"/>
     </row>
-    <row r="581" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="50">
         <v>43713.424205613424</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="50">
         <v>43713.425145335648</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="50">
         <v>43713.435373171291</v>
       </c>
@@ -23174,7 +23174,7 @@
       <c r="O583" s="48"/>
       <c r="P583" s="47"/>
     </row>
-    <row r="584" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="50">
         <v>43713.4464271412</v>
       </c>
@@ -23210,7 +23210,7 @@
       <c r="O584" s="48"/>
       <c r="P584" s="47"/>
     </row>
-    <row r="585" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="50">
         <v>43713.450989293982</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="586" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="50">
         <v>43713.464215254629</v>
       </c>
@@ -23284,7 +23284,7 @@
       <c r="O586" s="48"/>
       <c r="P586" s="47"/>
     </row>
-    <row r="587" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="50">
         <v>43713.481925486107</v>
       </c>
@@ -23322,7 +23322,7 @@
       <c r="O587" s="48"/>
       <c r="P587" s="47"/>
     </row>
-    <row r="588" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="50">
         <v>43713.543691203704</v>
       </c>
@@ -23360,7 +23360,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="589" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="50">
         <v>43713.556214594908</v>
       </c>
@@ -23398,7 +23398,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="590" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="50">
         <v>43713.55751481482</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="591" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="50">
         <v>43713.59901273148</v>
       </c>
@@ -23474,7 +23474,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="592" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:16" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A592" s="50">
         <v>43713.602299502316</v>
       </c>
@@ -24561,7 +24561,7 @@
       <c r="T617" s="36"/>
       <c r="U617" s="36"/>
     </row>
-    <row r="618" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="35">
         <v>43720.398113425923</v>
       </c>
@@ -25592,7 +25592,7 @@
       <c r="T642" s="36"/>
       <c r="U642" s="36"/>
     </row>
-    <row r="643" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="35">
         <v>43724.414629629631</v>
       </c>
@@ -25676,7 +25676,7 @@
       <c r="T644" s="36"/>
       <c r="U644" s="36"/>
     </row>
-    <row r="645" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:21" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="35">
         <v>43724.422766203701</v>
       </c>
@@ -26840,10 +26840,15 @@
       <c r="U673" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P673">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:AA673">
+    <filterColumn colId="7">
       <filters>
-        <filter val="SDR-751"/>
+        <filter val="14.5"/>
+        <filter val="15"/>
+        <filter val="16.8"/>
+        <filter val="17.5"/>
+        <filter val="21.5"/>
+        <filter val="50"/>
       </filters>
     </filterColumn>
   </autoFilter>
